--- a/doompy/files/cards.xlsx
+++ b/doompy/files/cards.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/azabicki/Sync/Projects/DoomPy/doompy/files/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E39BA676-5CD6-5140-B1EE-418C26501154}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3BD0ED6D-A3E0-7041-8155-4517A3A9BC88}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="8500" yWindow="500" windowWidth="37300" windowHeight="21980" xr2:uid="{FFCA0E03-569E-F44B-8E00-2A40D4903513}"/>
+    <workbookView xWindow="8500" yWindow="500" windowWidth="38220" windowHeight="13200" xr2:uid="{FFCA0E03-569E-F44B-8E00-2A40D4903513}"/>
   </bookViews>
   <sheets>
     <sheet name="traits" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3033" uniqueCount="768">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3034" uniqueCount="769">
   <si>
     <t>Echolocation</t>
   </si>
@@ -2341,6 +2341,9 @@
   </si>
   <si>
     <t>Electromagnetic {A}</t>
+  </si>
+  <si>
+    <t>persistent</t>
   </si>
 </sst>
 </file>
@@ -2508,7 +2511,25 @@
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="31">
+  <dxfs count="32">
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
     <dxf>
       <font>
         <b val="0"/>
@@ -2876,36 +2897,37 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{F8E0675D-119D-9B4C-8781-0855D882E307}" name="Tabelle2" displayName="Tabelle2" ref="A1:X383" totalsRowShown="0" headerRowDxfId="30" dataDxfId="29">
-  <autoFilter ref="A1:X383" xr:uid="{F8E0675D-119D-9B4C-8781-0855D882E307}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:X383">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{F8E0675D-119D-9B4C-8781-0855D882E307}" name="Tabelle2" displayName="Tabelle2" ref="A1:Y383" totalsRowShown="0" headerRowDxfId="31" dataDxfId="30">
+  <autoFilter ref="A1:Y383" xr:uid="{F8E0675D-119D-9B4C-8781-0855D882E307}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:Y383">
     <sortCondition ref="B1:B383"/>
   </sortState>
-  <tableColumns count="24">
-    <tableColumn id="1" xr3:uid="{8166F61C-4699-3D4C-9D61-28AD00136FEA}" name="in_game" dataDxfId="28"/>
+  <tableColumns count="25">
+    <tableColumn id="1" xr3:uid="{8166F61C-4699-3D4C-9D61-28AD00136FEA}" name="in_game" dataDxfId="29"/>
     <tableColumn id="22" xr3:uid="{1150C44A-9987-F24E-A1FB-5F0A9B55084C}" name="trait"/>
-    <tableColumn id="4" xr3:uid="{EC3D3AE7-EA86-024F-A6FA-64A0E67A5FC7}" name="color" dataDxfId="27"/>
-    <tableColumn id="5" xr3:uid="{5EA3E41F-9CF4-7D4B-A611-5E5B5050CE5B}" name="face" dataDxfId="26"/>
-    <tableColumn id="6" xr3:uid="{FF792F6D-B33B-2C40-95CF-D0BE8D4CD076}" name="game" dataDxfId="25"/>
-    <tableColumn id="2" xr3:uid="{53A2A058-82DA-9540-A9DD-565700A09F6B}" name="dominant" dataDxfId="24"/>
-    <tableColumn id="7" xr3:uid="{3FFB57AE-FF0E-9644-8F53-12784AF069C0}" name="action" dataDxfId="23"/>
-    <tableColumn id="20" xr3:uid="{A26550B3-7686-9147-A17E-A2143ABAFB1A}" name="play_when" dataDxfId="22"/>
-    <tableColumn id="8" xr3:uid="{7DAFF981-8046-974A-8FAC-73FD3B185F2C}" name="drops" dataDxfId="21"/>
-    <tableColumn id="17" xr3:uid="{56C331E6-086C-B74A-B509-520DFB7181F6}" name="gene_pool" dataDxfId="20"/>
-    <tableColumn id="18" xr3:uid="{76418466-3B9D-6048-80E3-690DEC50E74E}" name="worlds_end" dataDxfId="19"/>
-    <tableColumn id="9" xr3:uid="{5FC9496A-D300-0447-A155-EF65E2E0A70D}" name="effectless" dataDxfId="18"/>
-    <tableColumn id="25" xr3:uid="{B500B51A-0147-674C-9317-829EA8A15B54}" name="requirement" dataDxfId="17"/>
-    <tableColumn id="11" xr3:uid="{4FE6ABC4-B4EE-1242-BA77-A00BB170BB1F}" name="attachment" dataDxfId="16"/>
-    <tableColumn id="12" xr3:uid="{158FD56B-9FED-6144-BC1B-BC4F62C6C809}" name="gene_pool_target" dataDxfId="15"/>
-    <tableColumn id="21" xr3:uid="{4839B0A0-8B56-0C4F-9B43-9687CAB02CC6}" name="gene_pool_rule" dataDxfId="14"/>
-    <tableColumn id="19" xr3:uid="{93F44E7A-37B7-624E-9ACC-6633F60F8001}" name="gene_pool_effect" dataDxfId="13"/>
-    <tableColumn id="13" xr3:uid="{0E4D733B-AB86-5546-A677-552DF9EA7E44}" name="attachment_target" dataDxfId="12"/>
-    <tableColumn id="10" xr3:uid="{AA505828-60AD-1748-8172-71BE3B21EF34}" name="attachment_effect" dataDxfId="11"/>
-    <tableColumn id="14" xr3:uid="{DACAC41D-17E5-1D4B-80BB-50B9E1EE313B}" name="drop_effect" dataDxfId="10"/>
-    <tableColumn id="15" xr3:uid="{1EAC9979-1BCC-1D4C-A9CA-291C531B4E2F}" name="worlds_end_task" dataDxfId="9"/>
-    <tableColumn id="24" xr3:uid="{77E47952-8A57-1146-B89E-226435713E4C}" name="trait_effect" dataDxfId="8"/>
-    <tableColumn id="23" xr3:uid="{E499AC6D-7EAF-6B4C-B132-B10BD5BAE254}" name="trait_effect_rule" dataDxfId="7"/>
-    <tableColumn id="16" xr3:uid="{97612D27-253B-B742-94CC-92285CED241C}" name="check" dataDxfId="6"/>
+    <tableColumn id="4" xr3:uid="{EC3D3AE7-EA86-024F-A6FA-64A0E67A5FC7}" name="color" dataDxfId="28"/>
+    <tableColumn id="5" xr3:uid="{5EA3E41F-9CF4-7D4B-A611-5E5B5050CE5B}" name="face" dataDxfId="27"/>
+    <tableColumn id="6" xr3:uid="{FF792F6D-B33B-2C40-95CF-D0BE8D4CD076}" name="game" dataDxfId="26"/>
+    <tableColumn id="2" xr3:uid="{53A2A058-82DA-9540-A9DD-565700A09F6B}" name="dominant" dataDxfId="25"/>
+    <tableColumn id="7" xr3:uid="{3FFB57AE-FF0E-9644-8F53-12784AF069C0}" name="action" dataDxfId="24"/>
+    <tableColumn id="20" xr3:uid="{A26550B3-7686-9147-A17E-A2143ABAFB1A}" name="play_when" dataDxfId="23"/>
+    <tableColumn id="8" xr3:uid="{7DAFF981-8046-974A-8FAC-73FD3B185F2C}" name="drops" dataDxfId="22"/>
+    <tableColumn id="17" xr3:uid="{56C331E6-086C-B74A-B509-520DFB7181F6}" name="gene_pool" dataDxfId="21"/>
+    <tableColumn id="18" xr3:uid="{76418466-3B9D-6048-80E3-690DEC50E74E}" name="worlds_end" dataDxfId="20"/>
+    <tableColumn id="9" xr3:uid="{5FC9496A-D300-0447-A155-EF65E2E0A70D}" name="effectless" dataDxfId="19"/>
+    <tableColumn id="25" xr3:uid="{B500B51A-0147-674C-9317-829EA8A15B54}" name="requirement" dataDxfId="18"/>
+    <tableColumn id="3" xr3:uid="{C44E7091-D0C3-BD4B-8542-077F8931E5E7}" name="persistent" dataDxfId="0"/>
+    <tableColumn id="11" xr3:uid="{4FE6ABC4-B4EE-1242-BA77-A00BB170BB1F}" name="attachment" dataDxfId="17"/>
+    <tableColumn id="12" xr3:uid="{158FD56B-9FED-6144-BC1B-BC4F62C6C809}" name="gene_pool_target" dataDxfId="16"/>
+    <tableColumn id="21" xr3:uid="{4839B0A0-8B56-0C4F-9B43-9687CAB02CC6}" name="gene_pool_rule" dataDxfId="15"/>
+    <tableColumn id="19" xr3:uid="{93F44E7A-37B7-624E-9ACC-6633F60F8001}" name="gene_pool_effect" dataDxfId="14"/>
+    <tableColumn id="13" xr3:uid="{0E4D733B-AB86-5546-A677-552DF9EA7E44}" name="attachment_target" dataDxfId="13"/>
+    <tableColumn id="10" xr3:uid="{AA505828-60AD-1748-8172-71BE3B21EF34}" name="attachment_effect" dataDxfId="12"/>
+    <tableColumn id="14" xr3:uid="{DACAC41D-17E5-1D4B-80BB-50B9E1EE313B}" name="drop_effect" dataDxfId="11"/>
+    <tableColumn id="15" xr3:uid="{1EAC9979-1BCC-1D4C-A9CA-291C531B4E2F}" name="worlds_end_task" dataDxfId="10"/>
+    <tableColumn id="24" xr3:uid="{77E47952-8A57-1146-B89E-226435713E4C}" name="trait_effect" dataDxfId="9"/>
+    <tableColumn id="23" xr3:uid="{E499AC6D-7EAF-6B4C-B132-B10BD5BAE254}" name="trait_effect_rule" dataDxfId="8"/>
+    <tableColumn id="16" xr3:uid="{97612D27-253B-B742-94CC-92285CED241C}" name="check" dataDxfId="7"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -2937,7 +2959,7 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{FF236492-2866-7A4C-8166-84E97629A067}" name="Tabelle3" displayName="Tabelle3" ref="A1:F67" totalsRowShown="0" headerRowDxfId="5" dataDxfId="4">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{FF236492-2866-7A4C-8166-84E97629A067}" name="Tabelle3" displayName="Tabelle3" ref="A1:F67" totalsRowShown="0" headerRowDxfId="6" dataDxfId="5">
   <autoFilter ref="A1:F67" xr:uid="{FF236492-2866-7A4C-8166-84E97629A067}">
     <filterColumn colId="2">
       <filters>
@@ -2949,12 +2971,12 @@
     <sortCondition ref="B1:B67"/>
   </sortState>
   <tableColumns count="6">
-    <tableColumn id="1" xr3:uid="{3E8585BE-B941-1E48-9DBC-BC4A5DFA0274}" name="in_game" dataDxfId="3"/>
+    <tableColumn id="1" xr3:uid="{3E8585BE-B941-1E48-9DBC-BC4A5DFA0274}" name="in_game" dataDxfId="4"/>
     <tableColumn id="7" xr3:uid="{7C72DDBA-511C-E449-AF24-B50DCA87D383}" name="MOL"/>
-    <tableColumn id="2" xr3:uid="{B5611C06-DB54-6747-BEE3-1D24D886F23F}" name="game" dataDxfId="2"/>
+    <tableColumn id="2" xr3:uid="{B5611C06-DB54-6747-BEE3-1D24D886F23F}" name="game" dataDxfId="3"/>
     <tableColumn id="6" xr3:uid="{AD2C0FB3-664A-1B4F-938C-539BE31C973A}" name="MOL_type"/>
-    <tableColumn id="4" xr3:uid="{B76D2281-A8FA-214A-A5D4-A132C9A872EC}" name="condition_A" dataDxfId="1"/>
-    <tableColumn id="5" xr3:uid="{8EA65515-2984-C648-8BE8-09497BB8793B}" name="condition_B" dataDxfId="0"/>
+    <tableColumn id="4" xr3:uid="{B76D2281-A8FA-214A-A5D4-A132C9A872EC}" name="condition_A" dataDxfId="2"/>
+    <tableColumn id="5" xr3:uid="{8EA65515-2984-C648-8BE8-09497BB8793B}" name="condition_B" dataDxfId="1"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -3257,11 +3279,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B7AE435C-BBFF-4D4C-B457-AFC1FAEE6491}">
-  <dimension ref="A1:Y383"/>
+  <dimension ref="A1:Z383"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A150" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <pane xSplit="2" topLeftCell="C1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="B194" sqref="B194"/>
+    <sheetView tabSelected="1" topLeftCell="A360" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <pane xSplit="2" topLeftCell="M1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="S369" sqref="S369"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3278,21 +3300,22 @@
     <col min="10" max="10" width="12.1640625" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="13.1640625" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="11.6640625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="11.6640625" customWidth="1"/>
-    <col min="14" max="14" width="13.1640625" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="18.1640625" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="17.1640625" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="18" customWidth="1"/>
-    <col min="18" max="18" width="26.1640625" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="26.1640625" customWidth="1"/>
-    <col min="20" max="20" width="59.1640625" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="26.1640625" bestFit="1" customWidth="1"/>
-    <col min="22" max="23" width="26.1640625" customWidth="1"/>
-    <col min="24" max="24" width="5.1640625" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="8.33203125" style="4" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="13.83203125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="11.6640625" customWidth="1"/>
+    <col min="15" max="15" width="13.1640625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="18.1640625" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="17.1640625" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="18" customWidth="1"/>
+    <col min="19" max="19" width="26.1640625" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="26.1640625" customWidth="1"/>
+    <col min="21" max="21" width="59.1640625" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="26.1640625" bestFit="1" customWidth="1"/>
+    <col min="23" max="24" width="26.1640625" customWidth="1"/>
+    <col min="25" max="25" width="5.1640625" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="8.33203125" style="4" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A1" s="6" t="s">
         <v>732</v>
       </c>
@@ -3333,41 +3356,44 @@
         <v>590</v>
       </c>
       <c r="N1" s="6" t="s">
+        <v>768</v>
+      </c>
+      <c r="O1" s="6" t="s">
         <v>187</v>
       </c>
-      <c r="O1" t="s">
+      <c r="P1" t="s">
         <v>575</v>
       </c>
-      <c r="P1" t="s">
+      <c r="Q1" t="s">
         <v>579</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="R1" t="s">
         <v>574</v>
       </c>
-      <c r="R1" t="s">
+      <c r="S1" t="s">
         <v>565</v>
       </c>
-      <c r="S1" t="s">
+      <c r="T1" t="s">
         <v>558</v>
       </c>
-      <c r="T1" t="s">
+      <c r="U1" t="s">
         <v>572</v>
       </c>
-      <c r="U1" t="s">
+      <c r="V1" t="s">
         <v>582</v>
       </c>
-      <c r="V1" t="s">
+      <c r="W1" t="s">
         <v>587</v>
       </c>
-      <c r="W1" t="s">
+      <c r="X1" t="s">
         <v>588</v>
       </c>
-      <c r="X1" s="5" t="s">
+      <c r="Y1" s="5" t="s">
         <v>573</v>
       </c>
-      <c r="Y1"/>
-    </row>
-    <row r="2" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z1"/>
+    </row>
+    <row r="2" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>733</v>
       </c>
@@ -3393,13 +3419,14 @@
       </c>
       <c r="M2" s="1"/>
       <c r="N2" s="1"/>
-      <c r="T2" s="25"/>
-      <c r="X2" s="4" t="s">
-        <v>570</v>
-      </c>
-      <c r="Y2"/>
-    </row>
-    <row r="3" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="O2" s="1"/>
+      <c r="U2" s="25"/>
+      <c r="Y2" s="4" t="s">
+        <v>570</v>
+      </c>
+      <c r="Z2"/>
+    </row>
+    <row r="3" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>733</v>
       </c>
@@ -3425,12 +3452,13 @@
       </c>
       <c r="M3" s="1"/>
       <c r="N3" s="1"/>
-      <c r="X3" s="4" t="s">
-        <v>570</v>
-      </c>
-      <c r="Y3"/>
-    </row>
-    <row r="4" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="O3" s="1"/>
+      <c r="Y3" s="4" t="s">
+        <v>570</v>
+      </c>
+      <c r="Z3"/>
+    </row>
+    <row r="4" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>733</v>
       </c>
@@ -3456,13 +3484,16 @@
       <c r="K4" s="1"/>
       <c r="L4" s="1"/>
       <c r="M4" s="1"/>
-      <c r="N4" s="1"/>
-      <c r="X4" s="4" t="s">
-        <v>570</v>
-      </c>
-      <c r="Y4"/>
-    </row>
-    <row r="5" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="N4" s="1">
+        <v>1</v>
+      </c>
+      <c r="O4" s="1"/>
+      <c r="Y4" s="4" t="s">
+        <v>570</v>
+      </c>
+      <c r="Z4"/>
+    </row>
+    <row r="5" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>733</v>
       </c>
@@ -3488,12 +3519,13 @@
       <c r="L5" s="1"/>
       <c r="M5" s="1"/>
       <c r="N5" s="1"/>
-      <c r="X5" s="4" t="s">
-        <v>570</v>
-      </c>
-      <c r="Y5"/>
-    </row>
-    <row r="6" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="O5" s="1"/>
+      <c r="Y5" s="4" t="s">
+        <v>570</v>
+      </c>
+      <c r="Z5"/>
+    </row>
+    <row r="6" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>733</v>
       </c>
@@ -3519,15 +3551,16 @@
       <c r="L6" s="1"/>
       <c r="M6" s="1"/>
       <c r="N6" s="1"/>
-      <c r="T6" t="s">
+      <c r="O6" s="1"/>
+      <c r="U6" t="s">
         <v>371</v>
       </c>
-      <c r="X6" s="4" t="s">
-        <v>570</v>
-      </c>
-      <c r="Y6"/>
-    </row>
-    <row r="7" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Y6" s="4" t="s">
+        <v>570</v>
+      </c>
+      <c r="Z6"/>
+    </row>
+    <row r="7" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>733</v>
       </c>
@@ -3558,18 +3591,19 @@
       <c r="L7" s="1"/>
       <c r="M7" s="1"/>
       <c r="N7" s="1"/>
-      <c r="T7" s="2" t="s">
+      <c r="O7" s="1"/>
+      <c r="U7" s="2" t="s">
         <v>553</v>
       </c>
-      <c r="U7" t="s">
+      <c r="V7" t="s">
         <v>552</v>
       </c>
-      <c r="X7" s="4" t="s">
-        <v>570</v>
-      </c>
-      <c r="Y7"/>
-    </row>
-    <row r="8" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Y7" s="4" t="s">
+        <v>570</v>
+      </c>
+      <c r="Z7"/>
+    </row>
+    <row r="8" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>733</v>
       </c>
@@ -3588,12 +3622,12 @@
       <c r="G8">
         <v>1</v>
       </c>
-      <c r="X8" s="4" t="s">
-        <v>570</v>
-      </c>
-      <c r="Y8"/>
-    </row>
-    <row r="9" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Y8" s="4" t="s">
+        <v>570</v>
+      </c>
+      <c r="Z8"/>
+    </row>
+    <row r="9" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>733</v>
       </c>
@@ -3612,12 +3646,12 @@
       <c r="G9">
         <v>1</v>
       </c>
-      <c r="X9" s="4" t="s">
-        <v>570</v>
-      </c>
-      <c r="Y9"/>
-    </row>
-    <row r="10" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Y9" s="4" t="s">
+        <v>570</v>
+      </c>
+      <c r="Z9"/>
+    </row>
+    <row r="10" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>733</v>
       </c>
@@ -3643,12 +3677,13 @@
       <c r="L10" s="1"/>
       <c r="M10" s="1"/>
       <c r="N10" s="1"/>
-      <c r="X10" s="4" t="s">
-        <v>570</v>
-      </c>
-      <c r="Y10"/>
-    </row>
-    <row r="11" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="O10" s="1"/>
+      <c r="Y10" s="4" t="s">
+        <v>570</v>
+      </c>
+      <c r="Z10"/>
+    </row>
+    <row r="11" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>733</v>
       </c>
@@ -3674,12 +3709,13 @@
       </c>
       <c r="M11" s="1"/>
       <c r="N11" s="1"/>
-      <c r="X11" s="4" t="s">
-        <v>570</v>
-      </c>
-      <c r="Y11"/>
-    </row>
-    <row r="12" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="O11" s="1"/>
+      <c r="Y11" s="4" t="s">
+        <v>570</v>
+      </c>
+      <c r="Z11"/>
+    </row>
+    <row r="12" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>733</v>
       </c>
@@ -3708,15 +3744,16 @@
       <c r="L12" s="1"/>
       <c r="M12" s="1"/>
       <c r="N12" s="1"/>
-      <c r="T12" t="s">
+      <c r="O12" s="1"/>
+      <c r="U12" t="s">
         <v>367</v>
       </c>
-      <c r="X12" s="4" t="s">
-        <v>570</v>
-      </c>
-      <c r="Y12"/>
-    </row>
-    <row r="13" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Y12" s="4" t="s">
+        <v>570</v>
+      </c>
+      <c r="Z12"/>
+    </row>
+    <row r="13" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>733</v>
       </c>
@@ -3742,12 +3779,13 @@
       </c>
       <c r="M13" s="1"/>
       <c r="N13" s="1"/>
-      <c r="X13" s="4" t="s">
-        <v>570</v>
-      </c>
-      <c r="Y13"/>
-    </row>
-    <row r="14" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="O13" s="1"/>
+      <c r="Y13" s="4" t="s">
+        <v>570</v>
+      </c>
+      <c r="Z13"/>
+    </row>
+    <row r="14" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>733</v>
       </c>
@@ -3773,13 +3811,16 @@
       <c r="K14" s="1"/>
       <c r="L14" s="1"/>
       <c r="M14" s="1"/>
-      <c r="N14" s="1"/>
-      <c r="X14" s="4" t="s">
-        <v>570</v>
-      </c>
-      <c r="Y14"/>
-    </row>
-    <row r="15" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="N14" s="1">
+        <v>1</v>
+      </c>
+      <c r="O14" s="1"/>
+      <c r="Y14" s="4" t="s">
+        <v>570</v>
+      </c>
+      <c r="Z14"/>
+    </row>
+    <row r="15" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>733</v>
       </c>
@@ -3805,12 +3846,13 @@
       <c r="L15" s="1"/>
       <c r="M15" s="1"/>
       <c r="N15" s="1"/>
-      <c r="X15" s="4" t="s">
-        <v>570</v>
-      </c>
-      <c r="Y15"/>
-    </row>
-    <row r="16" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="O15" s="1"/>
+      <c r="Y15" s="4" t="s">
+        <v>570</v>
+      </c>
+      <c r="Z15"/>
+    </row>
+    <row r="16" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>733</v>
       </c>
@@ -3829,12 +3871,12 @@
       <c r="H16">
         <v>1</v>
       </c>
-      <c r="X16" s="4" t="s">
-        <v>570</v>
-      </c>
-      <c r="Y16"/>
-    </row>
-    <row r="17" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Y16" s="4" t="s">
+        <v>570</v>
+      </c>
+      <c r="Z16"/>
+    </row>
+    <row r="17" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>733</v>
       </c>
@@ -3853,12 +3895,12 @@
       <c r="G17">
         <v>1</v>
       </c>
-      <c r="X17" s="4" t="s">
-        <v>570</v>
-      </c>
-      <c r="Y17"/>
-    </row>
-    <row r="18" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Y17" s="4" t="s">
+        <v>570</v>
+      </c>
+      <c r="Z17"/>
+    </row>
+    <row r="18" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>733</v>
       </c>
@@ -3884,15 +3926,16 @@
       <c r="L18" s="1"/>
       <c r="M18" s="1"/>
       <c r="N18" s="1"/>
-      <c r="T18" t="s">
+      <c r="O18" s="1"/>
+      <c r="U18" t="s">
         <v>427</v>
       </c>
-      <c r="X18" s="4" t="s">
-        <v>570</v>
-      </c>
-      <c r="Y18"/>
-    </row>
-    <row r="19" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Y18" s="4" t="s">
+        <v>570</v>
+      </c>
+      <c r="Z18"/>
+    </row>
+    <row r="19" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>733</v>
       </c>
@@ -3918,12 +3961,13 @@
       <c r="L19" s="1"/>
       <c r="M19" s="1"/>
       <c r="N19" s="1"/>
-      <c r="X19" s="4" t="s">
-        <v>570</v>
-      </c>
-      <c r="Y19"/>
-    </row>
-    <row r="20" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="O19" s="1"/>
+      <c r="Y19" s="4" t="s">
+        <v>570</v>
+      </c>
+      <c r="Z19"/>
+    </row>
+    <row r="20" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>733</v>
       </c>
@@ -3949,12 +3993,13 @@
       </c>
       <c r="M20" s="1"/>
       <c r="N20" s="1"/>
-      <c r="X20" s="4" t="s">
-        <v>570</v>
-      </c>
-      <c r="Y20"/>
-    </row>
-    <row r="21" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="O20" s="1"/>
+      <c r="Y20" s="4" t="s">
+        <v>570</v>
+      </c>
+      <c r="Z20"/>
+    </row>
+    <row r="21" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>733</v>
       </c>
@@ -3980,12 +4025,13 @@
       </c>
       <c r="M21" s="1"/>
       <c r="N21" s="1"/>
-      <c r="X21" s="4" t="s">
-        <v>570</v>
-      </c>
-      <c r="Y21"/>
-    </row>
-    <row r="22" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="O21" s="1"/>
+      <c r="Y21" s="4" t="s">
+        <v>570</v>
+      </c>
+      <c r="Z21"/>
+    </row>
+    <row r="22" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>733</v>
       </c>
@@ -4011,12 +4057,13 @@
       <c r="L22" s="1"/>
       <c r="M22" s="1"/>
       <c r="N22" s="1"/>
-      <c r="X22" s="4" t="s">
-        <v>570</v>
-      </c>
-      <c r="Y22"/>
-    </row>
-    <row r="23" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="O22" s="1"/>
+      <c r="Y22" s="4" t="s">
+        <v>570</v>
+      </c>
+      <c r="Z22"/>
+    </row>
+    <row r="23" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>733</v>
       </c>
@@ -4042,12 +4089,13 @@
       </c>
       <c r="M23" s="1"/>
       <c r="N23" s="1"/>
-      <c r="X23" s="4" t="s">
-        <v>570</v>
-      </c>
-      <c r="Y23"/>
-    </row>
-    <row r="24" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="O23" s="1"/>
+      <c r="Y23" s="4" t="s">
+        <v>570</v>
+      </c>
+      <c r="Z23"/>
+    </row>
+    <row r="24" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>733</v>
       </c>
@@ -4076,15 +4124,16 @@
       <c r="L24" s="1"/>
       <c r="M24" s="1"/>
       <c r="N24" s="1"/>
-      <c r="T24" t="s">
+      <c r="O24" s="1"/>
+      <c r="U24" t="s">
         <v>554</v>
       </c>
-      <c r="X24" s="4" t="s">
-        <v>570</v>
-      </c>
-      <c r="Y24"/>
-    </row>
-    <row r="25" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Y24" s="4" t="s">
+        <v>570</v>
+      </c>
+      <c r="Z24"/>
+    </row>
+    <row r="25" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>733</v>
       </c>
@@ -4110,12 +4159,13 @@
       <c r="L25" s="1"/>
       <c r="M25" s="1"/>
       <c r="N25" s="1"/>
-      <c r="X25" s="4" t="s">
-        <v>570</v>
-      </c>
-      <c r="Y25"/>
-    </row>
-    <row r="26" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="O25" s="1"/>
+      <c r="Y25" s="4" t="s">
+        <v>570</v>
+      </c>
+      <c r="Z25"/>
+    </row>
+    <row r="26" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>733</v>
       </c>
@@ -4141,15 +4191,16 @@
       <c r="L26" s="1"/>
       <c r="M26" s="1"/>
       <c r="N26" s="1"/>
-      <c r="T26" t="s">
+      <c r="O26" s="1"/>
+      <c r="U26" t="s">
         <v>361</v>
       </c>
-      <c r="X26" s="4" t="s">
-        <v>570</v>
-      </c>
-      <c r="Y26"/>
-    </row>
-    <row r="27" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Y26" s="4" t="s">
+        <v>570</v>
+      </c>
+      <c r="Z26"/>
+    </row>
+    <row r="27" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>733</v>
       </c>
@@ -4175,15 +4226,16 @@
       <c r="L27" s="1"/>
       <c r="M27" s="1"/>
       <c r="N27" s="1"/>
-      <c r="T27" t="s">
+      <c r="O27" s="1"/>
+      <c r="U27" t="s">
         <v>483</v>
       </c>
-      <c r="X27" s="4" t="s">
-        <v>570</v>
-      </c>
-      <c r="Y27"/>
-    </row>
-    <row r="28" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Y27" s="4" t="s">
+        <v>570</v>
+      </c>
+      <c r="Z27"/>
+    </row>
+    <row r="28" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>733</v>
       </c>
@@ -4209,12 +4261,13 @@
       </c>
       <c r="M28" s="1"/>
       <c r="N28" s="1"/>
-      <c r="X28" s="4" t="s">
-        <v>570</v>
-      </c>
-      <c r="Y28"/>
-    </row>
-    <row r="29" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="O28" s="1"/>
+      <c r="Y28" s="4" t="s">
+        <v>570</v>
+      </c>
+      <c r="Z28"/>
+    </row>
+    <row r="29" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>733</v>
       </c>
@@ -4243,12 +4296,13 @@
       <c r="L29" s="1"/>
       <c r="M29" s="1"/>
       <c r="N29" s="1"/>
-      <c r="X29" s="4" t="s">
-        <v>570</v>
-      </c>
-      <c r="Y29"/>
-    </row>
-    <row r="30" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="O29" s="1"/>
+      <c r="Y29" s="4" t="s">
+        <v>570</v>
+      </c>
+      <c r="Z29"/>
+    </row>
+    <row r="30" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>733</v>
       </c>
@@ -4267,12 +4321,12 @@
       <c r="L30">
         <v>1</v>
       </c>
-      <c r="X30" s="4" t="s">
-        <v>570</v>
-      </c>
-      <c r="Y30"/>
-    </row>
-    <row r="31" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Y30" s="4" t="s">
+        <v>570</v>
+      </c>
+      <c r="Z30"/>
+    </row>
+    <row r="31" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>733</v>
       </c>
@@ -4295,21 +4349,22 @@
       <c r="K31" s="1"/>
       <c r="L31" s="1"/>
       <c r="M31" s="1"/>
-      <c r="N31" s="1">
-        <v>1</v>
-      </c>
-      <c r="R31" t="s">
+      <c r="N31" s="1"/>
+      <c r="O31" s="1">
+        <v>1</v>
+      </c>
+      <c r="S31" t="s">
         <v>566</v>
       </c>
-      <c r="S31" t="s">
+      <c r="T31" t="s">
         <v>564</v>
       </c>
-      <c r="X31" s="4" t="s">
-        <v>570</v>
-      </c>
-      <c r="Y31"/>
-    </row>
-    <row r="32" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Y31" s="4" t="s">
+        <v>570</v>
+      </c>
+      <c r="Z31"/>
+    </row>
+    <row r="32" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A32" s="25" t="s">
         <v>734</v>
       </c>
@@ -4335,8 +4390,8 @@
         <v>1</v>
       </c>
       <c r="M32" s="27"/>
-      <c r="N32" s="28"/>
-      <c r="O32" s="25"/>
+      <c r="N32" s="27"/>
+      <c r="O32" s="28"/>
       <c r="P32" s="25"/>
       <c r="Q32" s="25"/>
       <c r="R32" s="25"/>
@@ -4345,12 +4400,13 @@
       <c r="U32" s="25"/>
       <c r="V32" s="25"/>
       <c r="W32" s="25"/>
-      <c r="X32" s="4" t="s">
-        <v>570</v>
-      </c>
-      <c r="Y32"/>
-    </row>
-    <row r="33" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="X32" s="25"/>
+      <c r="Y32" s="4" t="s">
+        <v>570</v>
+      </c>
+      <c r="Z32"/>
+    </row>
+    <row r="33" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>733</v>
       </c>
@@ -4373,21 +4429,22 @@
       <c r="K33" s="1"/>
       <c r="L33" s="1"/>
       <c r="M33" s="1"/>
-      <c r="N33" s="1">
-        <v>1</v>
-      </c>
-      <c r="R33" t="s">
+      <c r="N33" s="1"/>
+      <c r="O33" s="1">
+        <v>1</v>
+      </c>
+      <c r="S33" t="s">
         <v>567</v>
       </c>
-      <c r="S33" t="s">
+      <c r="T33" t="s">
         <v>3</v>
       </c>
-      <c r="X33" s="4" t="s">
-        <v>570</v>
-      </c>
-      <c r="Y33"/>
-    </row>
-    <row r="34" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Y33" s="4" t="s">
+        <v>570</v>
+      </c>
+      <c r="Z33"/>
+    </row>
+    <row r="34" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>733</v>
       </c>
@@ -4413,12 +4470,13 @@
       <c r="L34" s="1"/>
       <c r="M34" s="1"/>
       <c r="N34" s="1"/>
-      <c r="X34" s="4" t="s">
-        <v>570</v>
-      </c>
-      <c r="Y34"/>
-    </row>
-    <row r="35" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="O34" s="1"/>
+      <c r="Y34" s="4" t="s">
+        <v>570</v>
+      </c>
+      <c r="Z34"/>
+    </row>
+    <row r="35" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>733</v>
       </c>
@@ -4437,12 +4495,12 @@
       <c r="G35">
         <v>1</v>
       </c>
-      <c r="X35" s="4" t="s">
-        <v>570</v>
-      </c>
-      <c r="Y35"/>
-    </row>
-    <row r="36" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Y35" s="4" t="s">
+        <v>570</v>
+      </c>
+      <c r="Z35"/>
+    </row>
+    <row r="36" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>733</v>
       </c>
@@ -4461,12 +4519,12 @@
       <c r="G36">
         <v>1</v>
       </c>
-      <c r="X36" s="4" t="s">
-        <v>570</v>
-      </c>
-      <c r="Y36"/>
-    </row>
-    <row r="37" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Y36" s="4" t="s">
+        <v>570</v>
+      </c>
+      <c r="Z36"/>
+    </row>
+    <row r="37" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>733</v>
       </c>
@@ -4492,12 +4550,13 @@
       <c r="L37" s="1"/>
       <c r="M37" s="1"/>
       <c r="N37" s="1"/>
-      <c r="X37" s="4" t="s">
-        <v>570</v>
-      </c>
-      <c r="Y37"/>
-    </row>
-    <row r="38" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="O37" s="1"/>
+      <c r="Y37" s="4" t="s">
+        <v>570</v>
+      </c>
+      <c r="Z37"/>
+    </row>
+    <row r="38" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>733</v>
       </c>
@@ -4523,12 +4582,13 @@
       <c r="L38" s="1"/>
       <c r="M38" s="1"/>
       <c r="N38" s="1"/>
-      <c r="X38" s="4" t="s">
-        <v>570</v>
-      </c>
-      <c r="Y38"/>
-    </row>
-    <row r="39" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="O38" s="1"/>
+      <c r="Y38" s="4" t="s">
+        <v>570</v>
+      </c>
+      <c r="Z38"/>
+    </row>
+    <row r="39" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>733</v>
       </c>
@@ -4554,15 +4614,16 @@
       <c r="L39" s="1"/>
       <c r="M39" s="1"/>
       <c r="N39" s="1"/>
-      <c r="T39" t="s">
+      <c r="O39" s="1"/>
+      <c r="U39" t="s">
         <v>376</v>
       </c>
-      <c r="X39" s="4" t="s">
-        <v>570</v>
-      </c>
-      <c r="Y39"/>
-    </row>
-    <row r="40" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Y39" s="4" t="s">
+        <v>570</v>
+      </c>
+      <c r="Z39"/>
+    </row>
+    <row r="40" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
         <v>733</v>
       </c>
@@ -4588,12 +4649,13 @@
       <c r="L40" s="1"/>
       <c r="M40" s="1"/>
       <c r="N40" s="1"/>
-      <c r="X40" s="4" t="s">
-        <v>570</v>
-      </c>
-      <c r="Y40"/>
-    </row>
-    <row r="41" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="O40" s="1"/>
+      <c r="Y40" s="4" t="s">
+        <v>570</v>
+      </c>
+      <c r="Z40"/>
+    </row>
+    <row r="41" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
         <v>733</v>
       </c>
@@ -4621,18 +4683,19 @@
       <c r="L41" s="1"/>
       <c r="M41" s="1"/>
       <c r="N41" s="1"/>
-      <c r="O41" t="s">
+      <c r="O41" s="1"/>
+      <c r="P41" t="s">
         <v>576</v>
       </c>
-      <c r="Q41">
+      <c r="R41">
         <v>2</v>
       </c>
-      <c r="X41" s="4" t="s">
-        <v>570</v>
-      </c>
-      <c r="Y41"/>
-    </row>
-    <row r="42" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Y41" s="4" t="s">
+        <v>570</v>
+      </c>
+      <c r="Z41"/>
+    </row>
+    <row r="42" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
         <v>733</v>
       </c>
@@ -4660,18 +4723,19 @@
       <c r="L42" s="1"/>
       <c r="M42" s="1"/>
       <c r="N42" s="1"/>
-      <c r="O42" t="s">
+      <c r="O42" s="1"/>
+      <c r="P42" t="s">
         <v>576</v>
       </c>
-      <c r="Q42">
+      <c r="R42">
         <v>2</v>
       </c>
-      <c r="X42" s="4" t="s">
-        <v>570</v>
-      </c>
-      <c r="Y42"/>
-    </row>
-    <row r="43" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Y42" s="4" t="s">
+        <v>570</v>
+      </c>
+      <c r="Z42"/>
+    </row>
+    <row r="43" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
         <v>733</v>
       </c>
@@ -4697,15 +4761,16 @@
       <c r="L43" s="1"/>
       <c r="M43" s="1"/>
       <c r="N43" s="1"/>
-      <c r="T43" t="s">
+      <c r="O43" s="1"/>
+      <c r="U43" t="s">
         <v>354</v>
       </c>
-      <c r="X43" s="4" t="s">
-        <v>570</v>
-      </c>
-      <c r="Y43"/>
-    </row>
-    <row r="44" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Y43" s="4" t="s">
+        <v>570</v>
+      </c>
+      <c r="Z43"/>
+    </row>
+    <row r="44" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
         <v>733</v>
       </c>
@@ -4731,15 +4796,16 @@
       <c r="L44" s="1"/>
       <c r="M44" s="1"/>
       <c r="N44" s="1"/>
-      <c r="T44" t="s">
+      <c r="O44" s="1"/>
+      <c r="U44" t="s">
         <v>374</v>
       </c>
-      <c r="X44" s="4" t="s">
-        <v>570</v>
-      </c>
-      <c r="Y44"/>
-    </row>
-    <row r="45" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Y44" s="4" t="s">
+        <v>570</v>
+      </c>
+      <c r="Z44"/>
+    </row>
+    <row r="45" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
         <v>733</v>
       </c>
@@ -4765,12 +4831,13 @@
       <c r="L45" s="1"/>
       <c r="M45" s="1"/>
       <c r="N45" s="1"/>
-      <c r="X45" s="4" t="s">
-        <v>570</v>
-      </c>
-      <c r="Y45"/>
-    </row>
-    <row r="46" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="O45" s="1"/>
+      <c r="Y45" s="4" t="s">
+        <v>570</v>
+      </c>
+      <c r="Z45"/>
+    </row>
+    <row r="46" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
         <v>733</v>
       </c>
@@ -4796,19 +4863,20 @@
       <c r="L46" s="1"/>
       <c r="M46" s="1"/>
       <c r="N46" s="1"/>
-      <c r="O46" s="2" t="s">
+      <c r="O46" s="1"/>
+      <c r="P46" s="2" t="s">
         <v>576</v>
       </c>
-      <c r="P46" s="2"/>
-      <c r="Q46" s="2">
+      <c r="Q46" s="2"/>
+      <c r="R46" s="2">
         <v>-1</v>
       </c>
-      <c r="X46" s="4" t="s">
-        <v>570</v>
-      </c>
-      <c r="Y46"/>
-    </row>
-    <row r="47" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Y46" s="4" t="s">
+        <v>570</v>
+      </c>
+      <c r="Z46"/>
+    </row>
+    <row r="47" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
         <v>733</v>
       </c>
@@ -4834,12 +4902,13 @@
       </c>
       <c r="M47" s="1"/>
       <c r="N47" s="1"/>
-      <c r="X47" s="4" t="s">
-        <v>570</v>
-      </c>
-      <c r="Y47"/>
-    </row>
-    <row r="48" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="O47" s="1"/>
+      <c r="Y47" s="4" t="s">
+        <v>570</v>
+      </c>
+      <c r="Z47"/>
+    </row>
+    <row r="48" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
         <v>733</v>
       </c>
@@ -4865,12 +4934,13 @@
       <c r="L48" s="1"/>
       <c r="M48" s="1"/>
       <c r="N48" s="1"/>
-      <c r="X48" s="4" t="s">
-        <v>570</v>
-      </c>
-      <c r="Y48"/>
-    </row>
-    <row r="49" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="O48" s="1"/>
+      <c r="Y48" s="4" t="s">
+        <v>570</v>
+      </c>
+      <c r="Z48"/>
+    </row>
+    <row r="49" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
         <v>733</v>
       </c>
@@ -4896,12 +4966,13 @@
       <c r="L49" s="1"/>
       <c r="M49" s="1"/>
       <c r="N49" s="1"/>
-      <c r="X49" s="4" t="s">
-        <v>570</v>
-      </c>
-      <c r="Y49"/>
-    </row>
-    <row r="50" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="O49" s="1"/>
+      <c r="Y49" s="4" t="s">
+        <v>570</v>
+      </c>
+      <c r="Z49"/>
+    </row>
+    <row r="50" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
         <v>733</v>
       </c>
@@ -4927,12 +4998,13 @@
       <c r="L50" s="1"/>
       <c r="M50" s="1"/>
       <c r="N50" s="1"/>
-      <c r="X50" s="4" t="s">
-        <v>570</v>
-      </c>
-      <c r="Y50"/>
-    </row>
-    <row r="51" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="O50" s="1"/>
+      <c r="Y50" s="4" t="s">
+        <v>570</v>
+      </c>
+      <c r="Z50"/>
+    </row>
+    <row r="51" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
         <v>733</v>
       </c>
@@ -4963,21 +5035,22 @@
       <c r="L51" s="1"/>
       <c r="M51" s="1"/>
       <c r="N51" s="1"/>
-      <c r="O51" t="s">
+      <c r="O51" s="1"/>
+      <c r="P51" t="s">
         <v>576</v>
       </c>
-      <c r="Q51">
-        <v>1</v>
-      </c>
-      <c r="T51" t="s">
+      <c r="R51">
+        <v>1</v>
+      </c>
+      <c r="U51" t="s">
         <v>375</v>
       </c>
-      <c r="X51" s="4" t="s">
-        <v>570</v>
-      </c>
-      <c r="Y51"/>
-    </row>
-    <row r="52" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Y51" s="4" t="s">
+        <v>570</v>
+      </c>
+      <c r="Z51"/>
+    </row>
+    <row r="52" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
         <v>733</v>
       </c>
@@ -5008,21 +5081,22 @@
       <c r="L52" s="1"/>
       <c r="M52" s="1"/>
       <c r="N52" s="1"/>
-      <c r="O52" t="s">
+      <c r="O52" s="1"/>
+      <c r="P52" t="s">
         <v>576</v>
       </c>
-      <c r="Q52">
-        <v>1</v>
-      </c>
-      <c r="T52" t="s">
+      <c r="R52">
+        <v>1</v>
+      </c>
+      <c r="U52" t="s">
         <v>375</v>
       </c>
-      <c r="X52" s="4" t="s">
-        <v>570</v>
-      </c>
-      <c r="Y52"/>
-    </row>
-    <row r="53" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Y52" s="4" t="s">
+        <v>570</v>
+      </c>
+      <c r="Z52"/>
+    </row>
+    <row r="53" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
         <v>733</v>
       </c>
@@ -5047,19 +5121,22 @@
       <c r="K53" s="1"/>
       <c r="L53" s="1"/>
       <c r="M53" s="1"/>
-      <c r="N53" s="1"/>
-      <c r="O53" t="s">
+      <c r="N53" s="1">
+        <v>1</v>
+      </c>
+      <c r="O53" s="1"/>
+      <c r="P53" t="s">
         <v>576</v>
       </c>
-      <c r="Q53">
-        <v>1</v>
-      </c>
-      <c r="X53" s="4" t="s">
-        <v>570</v>
-      </c>
-      <c r="Y53"/>
-    </row>
-    <row r="54" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="R53">
+        <v>1</v>
+      </c>
+      <c r="Y53" s="4" t="s">
+        <v>570</v>
+      </c>
+      <c r="Z53"/>
+    </row>
+    <row r="54" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
         <v>733</v>
       </c>
@@ -5081,12 +5158,12 @@
       <c r="M54">
         <v>1</v>
       </c>
-      <c r="X54" s="4" t="s">
-        <v>570</v>
-      </c>
-      <c r="Y54"/>
-    </row>
-    <row r="55" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Y54" s="4" t="s">
+        <v>570</v>
+      </c>
+      <c r="Z54"/>
+    </row>
+    <row r="55" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
         <v>733</v>
       </c>
@@ -5105,12 +5182,12 @@
       <c r="L55">
         <v>1</v>
       </c>
-      <c r="X55" s="4" t="s">
-        <v>570</v>
-      </c>
-      <c r="Y55"/>
-    </row>
-    <row r="56" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Y55" s="4" t="s">
+        <v>570</v>
+      </c>
+      <c r="Z55"/>
+    </row>
+    <row r="56" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A56" s="25" t="s">
         <v>734</v>
       </c>
@@ -5136,8 +5213,8 @@
       <c r="K56" s="28"/>
       <c r="L56" s="27"/>
       <c r="M56" s="27"/>
-      <c r="N56" s="28"/>
-      <c r="O56" s="25"/>
+      <c r="N56" s="27"/>
+      <c r="O56" s="28"/>
       <c r="P56" s="25"/>
       <c r="Q56" s="25"/>
       <c r="R56" s="25"/>
@@ -5146,12 +5223,13 @@
       <c r="U56" s="25"/>
       <c r="V56" s="25"/>
       <c r="W56" s="25"/>
-      <c r="X56" s="4" t="s">
-        <v>570</v>
-      </c>
-      <c r="Y56"/>
-    </row>
-    <row r="57" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="X56" s="25"/>
+      <c r="Y56" s="4" t="s">
+        <v>570</v>
+      </c>
+      <c r="Z56"/>
+    </row>
+    <row r="57" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
         <v>733</v>
       </c>
@@ -5177,12 +5255,13 @@
       <c r="L57" s="1"/>
       <c r="M57" s="1"/>
       <c r="N57" s="1"/>
-      <c r="X57" s="4" t="s">
-        <v>570</v>
-      </c>
-      <c r="Y57"/>
-    </row>
-    <row r="58" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="O57" s="1"/>
+      <c r="Y57" s="4" t="s">
+        <v>570</v>
+      </c>
+      <c r="Z57"/>
+    </row>
+    <row r="58" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
         <v>733</v>
       </c>
@@ -5211,12 +5290,13 @@
       <c r="L58" s="1"/>
       <c r="M58" s="1"/>
       <c r="N58" s="1"/>
-      <c r="X58" s="4" t="s">
-        <v>570</v>
-      </c>
-      <c r="Y58"/>
-    </row>
-    <row r="59" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="O58" s="1"/>
+      <c r="Y58" s="4" t="s">
+        <v>570</v>
+      </c>
+      <c r="Z58"/>
+    </row>
+    <row r="59" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
         <v>733</v>
       </c>
@@ -5242,12 +5322,13 @@
       <c r="L59" s="1"/>
       <c r="M59" s="1"/>
       <c r="N59" s="1"/>
-      <c r="X59" s="4" t="s">
-        <v>570</v>
-      </c>
-      <c r="Y59"/>
-    </row>
-    <row r="60" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="O59" s="1"/>
+      <c r="Y59" s="4" t="s">
+        <v>570</v>
+      </c>
+      <c r="Z59"/>
+    </row>
+    <row r="60" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
         <v>733</v>
       </c>
@@ -5275,18 +5356,19 @@
         <v>1</v>
       </c>
       <c r="N60" s="1"/>
-      <c r="O60" t="s">
+      <c r="O60" s="1"/>
+      <c r="P60" t="s">
         <v>576</v>
       </c>
-      <c r="Q60">
+      <c r="R60">
         <v>2</v>
       </c>
-      <c r="X60" s="4" t="s">
-        <v>570</v>
-      </c>
-      <c r="Y60"/>
-    </row>
-    <row r="61" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Y60" s="4" t="s">
+        <v>570</v>
+      </c>
+      <c r="Z60"/>
+    </row>
+    <row r="61" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
         <v>733</v>
       </c>
@@ -5312,12 +5394,13 @@
       <c r="L61" s="1"/>
       <c r="M61" s="1"/>
       <c r="N61" s="1"/>
-      <c r="X61" s="4" t="s">
-        <v>570</v>
-      </c>
-      <c r="Y61"/>
-    </row>
-    <row r="62" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="O61" s="1"/>
+      <c r="Y61" s="4" t="s">
+        <v>570</v>
+      </c>
+      <c r="Z61"/>
+    </row>
+    <row r="62" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
         <v>733</v>
       </c>
@@ -5343,12 +5426,13 @@
       <c r="L62" s="1"/>
       <c r="M62" s="1"/>
       <c r="N62" s="1"/>
-      <c r="X62" s="4" t="s">
-        <v>570</v>
-      </c>
-      <c r="Y62"/>
-    </row>
-    <row r="63" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="O62" s="1"/>
+      <c r="Y62" s="4" t="s">
+        <v>570</v>
+      </c>
+      <c r="Z62"/>
+    </row>
+    <row r="63" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
         <v>733</v>
       </c>
@@ -5374,12 +5458,13 @@
       <c r="L63" s="1"/>
       <c r="M63" s="1"/>
       <c r="N63" s="1"/>
-      <c r="X63" s="4" t="s">
-        <v>570</v>
-      </c>
-      <c r="Y63"/>
-    </row>
-    <row r="64" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="O63" s="1"/>
+      <c r="Y63" s="4" t="s">
+        <v>570</v>
+      </c>
+      <c r="Z63"/>
+    </row>
+    <row r="64" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
         <v>733</v>
       </c>
@@ -5403,12 +5488,13 @@
       <c r="L64" s="1"/>
       <c r="M64" s="1"/>
       <c r="N64" s="1"/>
-      <c r="X64" s="4" t="s">
-        <v>570</v>
-      </c>
-      <c r="Y64"/>
-    </row>
-    <row r="65" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="O64" s="1"/>
+      <c r="Y64" s="4" t="s">
+        <v>570</v>
+      </c>
+      <c r="Z64"/>
+    </row>
+    <row r="65" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
         <v>733</v>
       </c>
@@ -5434,12 +5520,13 @@
       <c r="L65" s="1"/>
       <c r="M65" s="1"/>
       <c r="N65" s="1"/>
-      <c r="X65" s="4" t="s">
-        <v>570</v>
-      </c>
-      <c r="Y65"/>
-    </row>
-    <row r="66" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="O65" s="1"/>
+      <c r="Y65" s="4" t="s">
+        <v>570</v>
+      </c>
+      <c r="Z65"/>
+    </row>
+    <row r="66" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
         <v>733</v>
       </c>
@@ -5465,12 +5552,13 @@
       </c>
       <c r="M66" s="1"/>
       <c r="N66" s="1"/>
-      <c r="X66" s="4" t="s">
-        <v>570</v>
-      </c>
-      <c r="Y66"/>
-    </row>
-    <row r="67" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="O66" s="1"/>
+      <c r="Y66" s="4" t="s">
+        <v>570</v>
+      </c>
+      <c r="Z66"/>
+    </row>
+    <row r="67" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A67" s="25" t="s">
         <v>734</v>
       </c>
@@ -5498,8 +5586,10 @@
       <c r="M67" s="27">
         <v>1</v>
       </c>
-      <c r="N67" s="28"/>
-      <c r="O67" s="25"/>
+      <c r="N67" s="27">
+        <v>1</v>
+      </c>
+      <c r="O67" s="28"/>
       <c r="P67" s="25"/>
       <c r="Q67" s="25"/>
       <c r="R67" s="25"/>
@@ -5508,12 +5598,13 @@
       <c r="U67" s="25"/>
       <c r="V67" s="25"/>
       <c r="W67" s="25"/>
-      <c r="X67" s="4" t="s">
-        <v>570</v>
-      </c>
-      <c r="Y67"/>
-    </row>
-    <row r="68" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="X67" s="25"/>
+      <c r="Y67" s="4" t="s">
+        <v>570</v>
+      </c>
+      <c r="Z67"/>
+    </row>
+    <row r="68" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
         <v>733</v>
       </c>
@@ -5542,18 +5633,19 @@
       <c r="L68" s="1"/>
       <c r="M68" s="1"/>
       <c r="N68" s="1"/>
-      <c r="O68" t="s">
+      <c r="O68" s="1"/>
+      <c r="P68" t="s">
         <v>577</v>
       </c>
-      <c r="Q68" s="2">
+      <c r="R68" s="2">
         <v>-1</v>
       </c>
-      <c r="X68" s="4" t="s">
-        <v>570</v>
-      </c>
-      <c r="Y68"/>
-    </row>
-    <row r="69" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Y68" s="4" t="s">
+        <v>570</v>
+      </c>
+      <c r="Z68"/>
+    </row>
+    <row r="69" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
         <v>733</v>
       </c>
@@ -5581,15 +5673,16 @@
       <c r="L69" s="1"/>
       <c r="M69" s="1"/>
       <c r="N69" s="1"/>
-      <c r="T69" s="2" t="s">
+      <c r="O69" s="1"/>
+      <c r="U69" s="2" t="s">
         <v>425</v>
       </c>
-      <c r="X69" s="4" t="s">
-        <v>570</v>
-      </c>
-      <c r="Y69"/>
-    </row>
-    <row r="70" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Y69" s="4" t="s">
+        <v>570</v>
+      </c>
+      <c r="Z69"/>
+    </row>
+    <row r="70" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
         <v>733</v>
       </c>
@@ -5615,12 +5708,13 @@
       <c r="L70" s="1"/>
       <c r="M70" s="1"/>
       <c r="N70" s="1"/>
-      <c r="X70" s="4" t="s">
-        <v>570</v>
-      </c>
-      <c r="Y70"/>
-    </row>
-    <row r="71" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="O70" s="1"/>
+      <c r="Y70" s="4" t="s">
+        <v>570</v>
+      </c>
+      <c r="Z70"/>
+    </row>
+    <row r="71" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
         <v>733</v>
       </c>
@@ -5639,15 +5733,15 @@
       <c r="I71">
         <v>1</v>
       </c>
-      <c r="T71" t="s">
+      <c r="U71" t="s">
         <v>351</v>
       </c>
-      <c r="X71" s="4" t="s">
-        <v>570</v>
-      </c>
-      <c r="Y71"/>
-    </row>
-    <row r="72" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Y71" s="4" t="s">
+        <v>570</v>
+      </c>
+      <c r="Z71"/>
+    </row>
+    <row r="72" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
         <v>733</v>
       </c>
@@ -5666,15 +5760,15 @@
       <c r="I72">
         <v>1</v>
       </c>
-      <c r="T72" t="s">
+      <c r="U72" t="s">
         <v>351</v>
       </c>
-      <c r="X72" s="4" t="s">
-        <v>570</v>
-      </c>
-      <c r="Y72"/>
-    </row>
-    <row r="73" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Y72" s="4" t="s">
+        <v>570</v>
+      </c>
+      <c r="Z72"/>
+    </row>
+    <row r="73" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
         <v>733</v>
       </c>
@@ -5700,12 +5794,13 @@
       </c>
       <c r="M73" s="1"/>
       <c r="N73" s="1"/>
-      <c r="X73" s="4" t="s">
-        <v>570</v>
-      </c>
-      <c r="Y73"/>
-    </row>
-    <row r="74" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="O73" s="1"/>
+      <c r="Y73" s="4" t="s">
+        <v>570</v>
+      </c>
+      <c r="Z73"/>
+    </row>
+    <row r="74" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
         <v>733</v>
       </c>
@@ -5721,21 +5816,21 @@
       <c r="E74" t="s">
         <v>102</v>
       </c>
-      <c r="N74">
-        <v>1</v>
-      </c>
-      <c r="R74" t="s">
+      <c r="O74">
+        <v>1</v>
+      </c>
+      <c r="S74" t="s">
         <v>568</v>
       </c>
-      <c r="S74" t="s">
+      <c r="T74" t="s">
         <v>559</v>
       </c>
-      <c r="X74" s="4" t="s">
-        <v>570</v>
-      </c>
-      <c r="Y74"/>
-    </row>
-    <row r="75" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Y74" s="4" t="s">
+        <v>570</v>
+      </c>
+      <c r="Z74"/>
+    </row>
+    <row r="75" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
         <v>733</v>
       </c>
@@ -5751,21 +5846,21 @@
       <c r="E75" t="s">
         <v>102</v>
       </c>
-      <c r="N75">
-        <v>1</v>
-      </c>
-      <c r="R75" t="s">
+      <c r="O75">
+        <v>1</v>
+      </c>
+      <c r="S75" t="s">
         <v>568</v>
       </c>
-      <c r="S75" t="s">
+      <c r="T75" t="s">
         <v>559</v>
       </c>
-      <c r="X75" s="4" t="s">
-        <v>570</v>
-      </c>
-      <c r="Y75"/>
-    </row>
-    <row r="76" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Y75" s="4" t="s">
+        <v>570</v>
+      </c>
+      <c r="Z75"/>
+    </row>
+    <row r="76" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
         <v>733</v>
       </c>
@@ -5793,12 +5888,13 @@
         <v>1</v>
       </c>
       <c r="N76" s="1"/>
-      <c r="X76" s="4" t="s">
-        <v>570</v>
-      </c>
-      <c r="Y76"/>
-    </row>
-    <row r="77" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="O76" s="1"/>
+      <c r="Y76" s="4" t="s">
+        <v>570</v>
+      </c>
+      <c r="Z76"/>
+    </row>
+    <row r="77" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
         <v>733</v>
       </c>
@@ -5824,12 +5920,13 @@
       </c>
       <c r="M77" s="1"/>
       <c r="N77" s="1"/>
-      <c r="X77" s="4" t="s">
-        <v>570</v>
-      </c>
-      <c r="Y77"/>
-    </row>
-    <row r="78" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="O77" s="1"/>
+      <c r="Y77" s="4" t="s">
+        <v>570</v>
+      </c>
+      <c r="Z77"/>
+    </row>
+    <row r="78" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
         <v>733</v>
       </c>
@@ -5855,12 +5952,13 @@
         <v>1</v>
       </c>
       <c r="N78" s="1"/>
-      <c r="X78" s="4" t="s">
-        <v>570</v>
-      </c>
-      <c r="Y78"/>
-    </row>
-    <row r="79" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="O78" s="1"/>
+      <c r="Y78" s="4" t="s">
+        <v>570</v>
+      </c>
+      <c r="Z78"/>
+    </row>
+    <row r="79" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
         <v>733</v>
       </c>
@@ -5886,13 +5984,16 @@
       <c r="K79" s="1"/>
       <c r="L79" s="1"/>
       <c r="M79" s="1"/>
-      <c r="N79" s="1"/>
-      <c r="X79" s="4" t="s">
-        <v>570</v>
-      </c>
-      <c r="Y79"/>
-    </row>
-    <row r="80" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="N79" s="1">
+        <v>1</v>
+      </c>
+      <c r="O79" s="1"/>
+      <c r="Y79" s="4" t="s">
+        <v>570</v>
+      </c>
+      <c r="Z79"/>
+    </row>
+    <row r="80" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
         <v>733</v>
       </c>
@@ -5911,12 +6012,12 @@
       <c r="G80">
         <v>1</v>
       </c>
-      <c r="X80" s="4" t="s">
-        <v>570</v>
-      </c>
-      <c r="Y80"/>
-    </row>
-    <row r="81" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Y80" s="4" t="s">
+        <v>570</v>
+      </c>
+      <c r="Z80"/>
+    </row>
+    <row r="81" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
         <v>733</v>
       </c>
@@ -5935,12 +6036,12 @@
       <c r="L81">
         <v>1</v>
       </c>
-      <c r="X81" s="4" t="s">
-        <v>570</v>
-      </c>
-      <c r="Y81"/>
-    </row>
-    <row r="82" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Y81" s="4" t="s">
+        <v>570</v>
+      </c>
+      <c r="Z81"/>
+    </row>
+    <row r="82" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
         <v>733</v>
       </c>
@@ -5959,12 +6060,12 @@
       <c r="L82">
         <v>1</v>
       </c>
-      <c r="X82" s="4" t="s">
-        <v>570</v>
-      </c>
-      <c r="Y82"/>
-    </row>
-    <row r="83" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Y82" s="4" t="s">
+        <v>570</v>
+      </c>
+      <c r="Z82"/>
+    </row>
+    <row r="83" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
         <v>733</v>
       </c>
@@ -5990,12 +6091,13 @@
       <c r="L83" s="1"/>
       <c r="M83" s="1"/>
       <c r="N83" s="1"/>
-      <c r="X83" s="4" t="s">
-        <v>570</v>
-      </c>
-      <c r="Y83"/>
-    </row>
-    <row r="84" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="O83" s="1"/>
+      <c r="Y83" s="4" t="s">
+        <v>570</v>
+      </c>
+      <c r="Z83"/>
+    </row>
+    <row r="84" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
         <v>733</v>
       </c>
@@ -6021,12 +6123,13 @@
       </c>
       <c r="M84" s="1"/>
       <c r="N84" s="1"/>
-      <c r="X84" s="4" t="s">
-        <v>570</v>
-      </c>
-      <c r="Y84"/>
-    </row>
-    <row r="85" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="O84" s="1"/>
+      <c r="Y84" s="4" t="s">
+        <v>570</v>
+      </c>
+      <c r="Z84"/>
+    </row>
+    <row r="85" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
         <v>733</v>
       </c>
@@ -6052,12 +6155,13 @@
       <c r="L85" s="1"/>
       <c r="M85" s="1"/>
       <c r="N85" s="1"/>
-      <c r="X85" s="4" t="s">
-        <v>570</v>
-      </c>
-      <c r="Y85"/>
-    </row>
-    <row r="86" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="O85" s="1"/>
+      <c r="Y85" s="4" t="s">
+        <v>570</v>
+      </c>
+      <c r="Z85"/>
+    </row>
+    <row r="86" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
         <v>733</v>
       </c>
@@ -6083,12 +6187,13 @@
       </c>
       <c r="M86" s="1"/>
       <c r="N86" s="1"/>
-      <c r="X86" s="4" t="s">
-        <v>570</v>
-      </c>
-      <c r="Y86"/>
-    </row>
-    <row r="87" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="O86" s="1"/>
+      <c r="Y86" s="4" t="s">
+        <v>570</v>
+      </c>
+      <c r="Z86"/>
+    </row>
+    <row r="87" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
         <v>733</v>
       </c>
@@ -6109,15 +6214,15 @@
       </c>
       <c r="J87" s="1"/>
       <c r="K87" s="1"/>
-      <c r="T87" t="s">
+      <c r="U87" t="s">
         <v>366</v>
       </c>
-      <c r="X87" s="4" t="s">
-        <v>570</v>
-      </c>
-      <c r="Y87"/>
-    </row>
-    <row r="88" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Y87" s="4" t="s">
+        <v>570</v>
+      </c>
+      <c r="Z87"/>
+    </row>
+    <row r="88" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A88" t="s">
         <v>733</v>
       </c>
@@ -6143,18 +6248,19 @@
       <c r="L88" s="1"/>
       <c r="M88" s="1"/>
       <c r="N88" s="1"/>
-      <c r="O88" t="s">
+      <c r="O88" s="1"/>
+      <c r="P88" t="s">
         <v>576</v>
       </c>
-      <c r="Q88">
-        <v>1</v>
-      </c>
-      <c r="X88" s="4" t="s">
-        <v>570</v>
-      </c>
-      <c r="Y88"/>
-    </row>
-    <row r="89" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="R88">
+        <v>1</v>
+      </c>
+      <c r="Y88" s="4" t="s">
+        <v>570</v>
+      </c>
+      <c r="Z88"/>
+    </row>
+    <row r="89" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
         <v>733</v>
       </c>
@@ -6180,12 +6286,13 @@
       </c>
       <c r="M89" s="1"/>
       <c r="N89" s="1"/>
-      <c r="X89" s="4" t="s">
-        <v>570</v>
-      </c>
-      <c r="Y89"/>
-    </row>
-    <row r="90" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="O89" s="1"/>
+      <c r="Y89" s="4" t="s">
+        <v>570</v>
+      </c>
+      <c r="Z89"/>
+    </row>
+    <row r="90" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A90" t="s">
         <v>733</v>
       </c>
@@ -6204,12 +6311,15 @@
       <c r="F90">
         <v>1</v>
       </c>
-      <c r="X90" s="4" t="s">
-        <v>570</v>
-      </c>
-      <c r="Y90"/>
-    </row>
-    <row r="91" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="N90">
+        <v>1</v>
+      </c>
+      <c r="Y90" s="4" t="s">
+        <v>570</v>
+      </c>
+      <c r="Z90"/>
+    </row>
+    <row r="91" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A91" t="s">
         <v>733</v>
       </c>
@@ -6228,12 +6338,12 @@
       <c r="H91">
         <v>1</v>
       </c>
-      <c r="X91" s="4" t="s">
-        <v>570</v>
-      </c>
-      <c r="Y91"/>
-    </row>
-    <row r="92" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Y91" s="4" t="s">
+        <v>570</v>
+      </c>
+      <c r="Z91"/>
+    </row>
+    <row r="92" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A92" t="s">
         <v>733</v>
       </c>
@@ -6259,15 +6369,16 @@
       <c r="L92" s="1"/>
       <c r="M92" s="1"/>
       <c r="N92" s="1"/>
-      <c r="T92" t="s">
+      <c r="O92" s="1"/>
+      <c r="U92" t="s">
         <v>355</v>
       </c>
-      <c r="X92" s="4" t="s">
-        <v>570</v>
-      </c>
-      <c r="Y92"/>
-    </row>
-    <row r="93" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Y92" s="4" t="s">
+        <v>570</v>
+      </c>
+      <c r="Z92"/>
+    </row>
+    <row r="93" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A93" t="s">
         <v>733</v>
       </c>
@@ -6286,12 +6397,12 @@
       <c r="G93">
         <v>1</v>
       </c>
-      <c r="X93" s="4" t="s">
-        <v>570</v>
-      </c>
-      <c r="Y93"/>
-    </row>
-    <row r="94" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Y93" s="4" t="s">
+        <v>570</v>
+      </c>
+      <c r="Z93"/>
+    </row>
+    <row r="94" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A94" t="s">
         <v>733</v>
       </c>
@@ -6314,21 +6425,22 @@
       <c r="K94" s="1"/>
       <c r="L94" s="1"/>
       <c r="M94" s="1"/>
-      <c r="N94" s="1">
-        <v>1</v>
-      </c>
-      <c r="R94" t="s">
+      <c r="N94" s="1"/>
+      <c r="O94" s="1">
+        <v>1</v>
+      </c>
+      <c r="S94" t="s">
         <v>566</v>
       </c>
-      <c r="S94" t="s">
+      <c r="T94" t="s">
         <v>3</v>
       </c>
-      <c r="X94" s="4" t="s">
-        <v>570</v>
-      </c>
-      <c r="Y94"/>
-    </row>
-    <row r="95" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Y94" s="4" t="s">
+        <v>570</v>
+      </c>
+      <c r="Z94"/>
+    </row>
+    <row r="95" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A95" t="s">
         <v>733</v>
       </c>
@@ -6354,12 +6466,13 @@
       <c r="L95" s="1"/>
       <c r="M95" s="1"/>
       <c r="N95" s="1"/>
-      <c r="X95" s="4" t="s">
-        <v>570</v>
-      </c>
-      <c r="Y95"/>
-    </row>
-    <row r="96" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="O95" s="1"/>
+      <c r="Y95" s="4" t="s">
+        <v>570</v>
+      </c>
+      <c r="Z95"/>
+    </row>
+    <row r="96" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A96" t="s">
         <v>733</v>
       </c>
@@ -6385,12 +6498,13 @@
       <c r="L96" s="1"/>
       <c r="M96" s="1"/>
       <c r="N96" s="1"/>
-      <c r="X96" s="4" t="s">
-        <v>570</v>
-      </c>
-      <c r="Y96"/>
-    </row>
-    <row r="97" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="O96" s="1"/>
+      <c r="Y96" s="4" t="s">
+        <v>570</v>
+      </c>
+      <c r="Z96"/>
+    </row>
+    <row r="97" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A97" t="s">
         <v>733</v>
       </c>
@@ -6409,12 +6523,12 @@
       <c r="G97">
         <v>1</v>
       </c>
-      <c r="X97" s="4" t="s">
-        <v>570</v>
-      </c>
-      <c r="Y97"/>
-    </row>
-    <row r="98" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Y97" s="4" t="s">
+        <v>570</v>
+      </c>
+      <c r="Z97"/>
+    </row>
+    <row r="98" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A98" t="s">
         <v>733</v>
       </c>
@@ -6440,12 +6554,13 @@
       <c r="L98" s="1"/>
       <c r="M98" s="1"/>
       <c r="N98" s="1"/>
-      <c r="X98" s="4" t="s">
-        <v>570</v>
-      </c>
-      <c r="Y98"/>
-    </row>
-    <row r="99" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="O98" s="1"/>
+      <c r="Y98" s="4" t="s">
+        <v>570</v>
+      </c>
+      <c r="Z98"/>
+    </row>
+    <row r="99" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A99" t="s">
         <v>733</v>
       </c>
@@ -6476,12 +6591,13 @@
         <v>1</v>
       </c>
       <c r="N99" s="1"/>
-      <c r="X99" s="4" t="s">
-        <v>570</v>
-      </c>
-      <c r="Y99"/>
-    </row>
-    <row r="100" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="O99" s="1"/>
+      <c r="Y99" s="4" t="s">
+        <v>570</v>
+      </c>
+      <c r="Z99"/>
+    </row>
+    <row r="100" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A100" t="s">
         <v>733</v>
       </c>
@@ -6500,15 +6616,15 @@
       <c r="I100">
         <v>1</v>
       </c>
-      <c r="T100" t="s">
+      <c r="U100" t="s">
         <v>350</v>
       </c>
-      <c r="X100" s="4" t="s">
-        <v>570</v>
-      </c>
-      <c r="Y100"/>
-    </row>
-    <row r="101" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Y100" s="4" t="s">
+        <v>570</v>
+      </c>
+      <c r="Z100"/>
+    </row>
+    <row r="101" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A101" t="s">
         <v>733</v>
       </c>
@@ -6531,13 +6647,16 @@
       <c r="K101" s="1"/>
       <c r="L101" s="1"/>
       <c r="M101" s="1"/>
-      <c r="N101" s="1"/>
-      <c r="X101" s="4" t="s">
-        <v>570</v>
-      </c>
-      <c r="Y101"/>
-    </row>
-    <row r="102" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="N101" s="1">
+        <v>1</v>
+      </c>
+      <c r="O101" s="1"/>
+      <c r="Y101" s="4" t="s">
+        <v>570</v>
+      </c>
+      <c r="Z101"/>
+    </row>
+    <row r="102" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A102" t="s">
         <v>733</v>
       </c>
@@ -6566,12 +6685,13 @@
         <v>1</v>
       </c>
       <c r="N102" s="1"/>
-      <c r="X102" s="4" t="s">
-        <v>570</v>
-      </c>
-      <c r="Y102"/>
-    </row>
-    <row r="103" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="O102" s="1"/>
+      <c r="Y102" s="4" t="s">
+        <v>570</v>
+      </c>
+      <c r="Z102"/>
+    </row>
+    <row r="103" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A103" t="s">
         <v>733</v>
       </c>
@@ -6597,15 +6717,16 @@
       <c r="L103" s="1"/>
       <c r="M103" s="1"/>
       <c r="N103" s="1"/>
-      <c r="T103" t="s">
+      <c r="O103" s="1"/>
+      <c r="U103" t="s">
         <v>474</v>
       </c>
-      <c r="X103" s="4" t="s">
-        <v>570</v>
-      </c>
-      <c r="Y103"/>
-    </row>
-    <row r="104" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Y103" s="4" t="s">
+        <v>570</v>
+      </c>
+      <c r="Z103"/>
+    </row>
+    <row r="104" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A104" t="s">
         <v>733</v>
       </c>
@@ -6631,12 +6752,13 @@
       <c r="L104" s="1"/>
       <c r="M104" s="1"/>
       <c r="N104" s="1"/>
-      <c r="X104" s="4" t="s">
-        <v>570</v>
-      </c>
-      <c r="Y104"/>
-    </row>
-    <row r="105" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="O104" s="1"/>
+      <c r="Y104" s="4" t="s">
+        <v>570</v>
+      </c>
+      <c r="Z104"/>
+    </row>
+    <row r="105" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A105" t="s">
         <v>733</v>
       </c>
@@ -6660,12 +6782,13 @@
       <c r="L105" s="1"/>
       <c r="M105" s="1"/>
       <c r="N105" s="1"/>
-      <c r="X105" s="4" t="s">
-        <v>570</v>
-      </c>
-      <c r="Y105"/>
-    </row>
-    <row r="106" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="O105" s="1"/>
+      <c r="Y105" s="4" t="s">
+        <v>570</v>
+      </c>
+      <c r="Z105"/>
+    </row>
+    <row r="106" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A106" t="s">
         <v>733</v>
       </c>
@@ -6691,12 +6814,13 @@
       <c r="L106" s="1"/>
       <c r="M106" s="1"/>
       <c r="N106" s="1"/>
-      <c r="X106" s="4" t="s">
-        <v>570</v>
-      </c>
-      <c r="Y106"/>
-    </row>
-    <row r="107" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="O106" s="1"/>
+      <c r="Y106" s="4" t="s">
+        <v>570</v>
+      </c>
+      <c r="Z106"/>
+    </row>
+    <row r="107" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A107" t="s">
         <v>733</v>
       </c>
@@ -6727,18 +6851,19 @@
         <v>1</v>
       </c>
       <c r="N107" s="1"/>
-      <c r="O107" t="s">
+      <c r="O107" s="1"/>
+      <c r="P107" t="s">
         <v>576</v>
       </c>
-      <c r="Q107">
-        <v>1</v>
-      </c>
-      <c r="X107" s="4" t="s">
-        <v>570</v>
-      </c>
-      <c r="Y107"/>
-    </row>
-    <row r="108" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="R107">
+        <v>1</v>
+      </c>
+      <c r="Y107" s="4" t="s">
+        <v>570</v>
+      </c>
+      <c r="Z107"/>
+    </row>
+    <row r="108" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A108" t="s">
         <v>733</v>
       </c>
@@ -6764,12 +6889,13 @@
       </c>
       <c r="M108" s="1"/>
       <c r="N108" s="1"/>
-      <c r="X108" s="4" t="s">
-        <v>570</v>
-      </c>
-      <c r="Y108"/>
-    </row>
-    <row r="109" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="O108" s="1"/>
+      <c r="Y108" s="4" t="s">
+        <v>570</v>
+      </c>
+      <c r="Z108"/>
+    </row>
+    <row r="109" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A109" t="s">
         <v>733</v>
       </c>
@@ -6798,15 +6924,16 @@
       <c r="L109" s="1"/>
       <c r="M109" s="1"/>
       <c r="N109" s="1"/>
-      <c r="U109" t="s">
+      <c r="O109" s="1"/>
+      <c r="V109" t="s">
         <v>584</v>
       </c>
-      <c r="X109" s="4" t="s">
-        <v>570</v>
-      </c>
-      <c r="Y109"/>
-    </row>
-    <row r="110" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Y109" s="4" t="s">
+        <v>570</v>
+      </c>
+      <c r="Z109"/>
+    </row>
+    <row r="110" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A110" t="s">
         <v>733</v>
       </c>
@@ -6832,12 +6959,13 @@
       </c>
       <c r="M110" s="1"/>
       <c r="N110" s="1"/>
-      <c r="X110" s="4" t="s">
-        <v>570</v>
-      </c>
-      <c r="Y110"/>
-    </row>
-    <row r="111" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="O110" s="1"/>
+      <c r="Y110" s="4" t="s">
+        <v>570</v>
+      </c>
+      <c r="Z110"/>
+    </row>
+    <row r="111" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A111" t="s">
         <v>733</v>
       </c>
@@ -6863,12 +6991,13 @@
       </c>
       <c r="M111" s="1"/>
       <c r="N111" s="1"/>
-      <c r="X111" s="4" t="s">
-        <v>570</v>
-      </c>
-      <c r="Y111"/>
-    </row>
-    <row r="112" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="O111" s="1"/>
+      <c r="Y111" s="4" t="s">
+        <v>570</v>
+      </c>
+      <c r="Z111"/>
+    </row>
+    <row r="112" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A112" t="s">
         <v>733</v>
       </c>
@@ -6894,12 +7023,13 @@
       </c>
       <c r="M112" s="1"/>
       <c r="N112" s="1"/>
-      <c r="X112" s="4" t="s">
-        <v>570</v>
-      </c>
-      <c r="Y112"/>
-    </row>
-    <row r="113" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="O112" s="1"/>
+      <c r="Y112" s="4" t="s">
+        <v>570</v>
+      </c>
+      <c r="Z112"/>
+    </row>
+    <row r="113" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A113" t="s">
         <v>733</v>
       </c>
@@ -6925,12 +7055,13 @@
       <c r="L113" s="1"/>
       <c r="M113" s="1"/>
       <c r="N113" s="1"/>
-      <c r="X113" s="4" t="s">
-        <v>570</v>
-      </c>
-      <c r="Y113"/>
-    </row>
-    <row r="114" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="O113" s="1"/>
+      <c r="Y113" s="4" t="s">
+        <v>570</v>
+      </c>
+      <c r="Z113"/>
+    </row>
+    <row r="114" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A114" t="s">
         <v>733</v>
       </c>
@@ -6956,18 +7087,19 @@
       <c r="L114" s="1"/>
       <c r="M114" s="1"/>
       <c r="N114" s="1"/>
-      <c r="O114" t="s">
+      <c r="O114" s="1"/>
+      <c r="P114" t="s">
         <v>576</v>
       </c>
-      <c r="Q114">
-        <v>1</v>
-      </c>
-      <c r="X114" s="4" t="s">
-        <v>570</v>
-      </c>
-      <c r="Y114"/>
-    </row>
-    <row r="115" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="R114">
+        <v>1</v>
+      </c>
+      <c r="Y114" s="4" t="s">
+        <v>570</v>
+      </c>
+      <c r="Z114"/>
+    </row>
+    <row r="115" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A115" t="s">
         <v>733</v>
       </c>
@@ -6989,19 +7121,19 @@
       <c r="J115">
         <v>1</v>
       </c>
-      <c r="O115" s="2" t="s">
+      <c r="P115" s="2" t="s">
         <v>578</v>
       </c>
-      <c r="P115" s="2"/>
-      <c r="Q115">
-        <v>1</v>
-      </c>
-      <c r="X115" s="4" t="s">
-        <v>570</v>
-      </c>
-      <c r="Y115"/>
-    </row>
-    <row r="116" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Q115" s="2"/>
+      <c r="R115">
+        <v>1</v>
+      </c>
+      <c r="Y115" s="4" t="s">
+        <v>570</v>
+      </c>
+      <c r="Z115"/>
+    </row>
+    <row r="116" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A116" t="s">
         <v>733</v>
       </c>
@@ -7023,19 +7155,19 @@
       <c r="J116">
         <v>1</v>
       </c>
-      <c r="O116" s="2" t="s">
+      <c r="P116" s="2" t="s">
         <v>578</v>
       </c>
-      <c r="P116" s="2"/>
-      <c r="Q116">
-        <v>1</v>
-      </c>
-      <c r="X116" s="4" t="s">
-        <v>570</v>
-      </c>
-      <c r="Y116"/>
-    </row>
-    <row r="117" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Q116" s="2"/>
+      <c r="R116">
+        <v>1</v>
+      </c>
+      <c r="Y116" s="4" t="s">
+        <v>570</v>
+      </c>
+      <c r="Z116"/>
+    </row>
+    <row r="117" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A117" t="s">
         <v>733</v>
       </c>
@@ -7062,12 +7194,13 @@
       <c r="L117" s="1"/>
       <c r="M117" s="1"/>
       <c r="N117" s="1"/>
-      <c r="X117" s="4" t="s">
-        <v>570</v>
-      </c>
-      <c r="Y117"/>
-    </row>
-    <row r="118" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="O117" s="1"/>
+      <c r="Y117" s="4" t="s">
+        <v>570</v>
+      </c>
+      <c r="Z117"/>
+    </row>
+    <row r="118" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A118" t="s">
         <v>733</v>
       </c>
@@ -7093,18 +7226,19 @@
       <c r="L118" s="1"/>
       <c r="M118" s="1"/>
       <c r="N118" s="1"/>
-      <c r="O118" t="s">
+      <c r="O118" s="1"/>
+      <c r="P118" t="s">
         <v>576</v>
       </c>
-      <c r="Q118">
-        <v>1</v>
-      </c>
-      <c r="X118" s="4" t="s">
-        <v>570</v>
-      </c>
-      <c r="Y118"/>
-    </row>
-    <row r="119" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="R118">
+        <v>1</v>
+      </c>
+      <c r="Y118" s="4" t="s">
+        <v>570</v>
+      </c>
+      <c r="Z118"/>
+    </row>
+    <row r="119" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A119" t="s">
         <v>733</v>
       </c>
@@ -7130,12 +7264,13 @@
       </c>
       <c r="M119" s="1"/>
       <c r="N119" s="1"/>
-      <c r="X119" s="4" t="s">
-        <v>570</v>
-      </c>
-      <c r="Y119"/>
-    </row>
-    <row r="120" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="O119" s="1"/>
+      <c r="Y119" s="4" t="s">
+        <v>570</v>
+      </c>
+      <c r="Z119"/>
+    </row>
+    <row r="120" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A120" t="s">
         <v>733</v>
       </c>
@@ -7161,12 +7296,13 @@
       </c>
       <c r="M120" s="1"/>
       <c r="N120" s="1"/>
-      <c r="X120" s="4" t="s">
-        <v>570</v>
-      </c>
-      <c r="Y120"/>
-    </row>
-    <row r="121" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="O120" s="1"/>
+      <c r="Y120" s="4" t="s">
+        <v>570</v>
+      </c>
+      <c r="Z120"/>
+    </row>
+    <row r="121" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A121" t="s">
         <v>733</v>
       </c>
@@ -7192,12 +7328,13 @@
       <c r="L121" s="1"/>
       <c r="M121" s="1"/>
       <c r="N121" s="1"/>
-      <c r="X121" s="4" t="s">
-        <v>570</v>
-      </c>
-      <c r="Y121"/>
-    </row>
-    <row r="122" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="O121" s="1"/>
+      <c r="Y121" s="4" t="s">
+        <v>570</v>
+      </c>
+      <c r="Z121"/>
+    </row>
+    <row r="122" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A122" t="s">
         <v>733</v>
       </c>
@@ -7223,12 +7360,13 @@
       </c>
       <c r="M122" s="1"/>
       <c r="N122" s="1"/>
-      <c r="X122" s="4" t="s">
-        <v>570</v>
-      </c>
-      <c r="Y122"/>
-    </row>
-    <row r="123" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="O122" s="1"/>
+      <c r="Y122" s="4" t="s">
+        <v>570</v>
+      </c>
+      <c r="Z122"/>
+    </row>
+    <row r="123" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A123" t="s">
         <v>733</v>
       </c>
@@ -7254,12 +7392,13 @@
       </c>
       <c r="M123" s="1"/>
       <c r="N123" s="1"/>
-      <c r="X123" s="4" t="s">
-        <v>570</v>
-      </c>
-      <c r="Y123"/>
-    </row>
-    <row r="124" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="O123" s="1"/>
+      <c r="Y123" s="4" t="s">
+        <v>570</v>
+      </c>
+      <c r="Z123"/>
+    </row>
+    <row r="124" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A124" t="s">
         <v>733</v>
       </c>
@@ -7282,13 +7421,16 @@
       <c r="K124" s="1"/>
       <c r="L124" s="1"/>
       <c r="M124" s="1"/>
-      <c r="N124" s="1"/>
-      <c r="X124" s="4" t="s">
-        <v>570</v>
-      </c>
-      <c r="Y124"/>
-    </row>
-    <row r="125" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="N124" s="1">
+        <v>1</v>
+      </c>
+      <c r="O124" s="1"/>
+      <c r="Y124" s="4" t="s">
+        <v>570</v>
+      </c>
+      <c r="Z124"/>
+    </row>
+    <row r="125" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A125" t="s">
         <v>733</v>
       </c>
@@ -7314,12 +7456,13 @@
       <c r="L125" s="1"/>
       <c r="M125" s="1"/>
       <c r="N125" s="1"/>
-      <c r="X125" s="4" t="s">
-        <v>570</v>
-      </c>
-      <c r="Y125"/>
-    </row>
-    <row r="126" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="O125" s="1"/>
+      <c r="Y125" s="4" t="s">
+        <v>570</v>
+      </c>
+      <c r="Z125"/>
+    </row>
+    <row r="126" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A126" t="s">
         <v>733</v>
       </c>
@@ -7345,12 +7488,13 @@
       </c>
       <c r="M126" s="1"/>
       <c r="N126" s="1"/>
-      <c r="X126" s="4" t="s">
-        <v>570</v>
-      </c>
-      <c r="Y126"/>
-    </row>
-    <row r="127" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="O126" s="1"/>
+      <c r="Y126" s="4" t="s">
+        <v>570</v>
+      </c>
+      <c r="Z126"/>
+    </row>
+    <row r="127" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A127" t="s">
         <v>733</v>
       </c>
@@ -7376,15 +7520,16 @@
       <c r="L127" s="1"/>
       <c r="M127" s="1"/>
       <c r="N127" s="1"/>
-      <c r="T127" t="s">
+      <c r="O127" s="1"/>
+      <c r="U127" t="s">
         <v>377</v>
       </c>
-      <c r="X127" s="4" t="s">
-        <v>570</v>
-      </c>
-      <c r="Y127"/>
-    </row>
-    <row r="128" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Y127" s="4" t="s">
+        <v>570</v>
+      </c>
+      <c r="Z127"/>
+    </row>
+    <row r="128" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A128" t="s">
         <v>733</v>
       </c>
@@ -7410,15 +7555,16 @@
       <c r="L128" s="1"/>
       <c r="M128" s="1"/>
       <c r="N128" s="1"/>
-      <c r="T128" t="s">
+      <c r="O128" s="1"/>
+      <c r="U128" t="s">
         <v>363</v>
       </c>
-      <c r="X128" s="4" t="s">
-        <v>570</v>
-      </c>
-      <c r="Y128"/>
-    </row>
-    <row r="129" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Y128" s="4" t="s">
+        <v>570</v>
+      </c>
+      <c r="Z128"/>
+    </row>
+    <row r="129" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A129" t="s">
         <v>733</v>
       </c>
@@ -7444,12 +7590,13 @@
       </c>
       <c r="M129" s="1"/>
       <c r="N129" s="1"/>
-      <c r="X129" s="4" t="s">
-        <v>570</v>
-      </c>
-      <c r="Y129"/>
-    </row>
-    <row r="130" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="O129" s="1"/>
+      <c r="Y129" s="4" t="s">
+        <v>570</v>
+      </c>
+      <c r="Z129"/>
+    </row>
+    <row r="130" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A130" t="s">
         <v>733</v>
       </c>
@@ -7475,15 +7622,16 @@
       <c r="L130" s="1"/>
       <c r="M130" s="1"/>
       <c r="N130" s="1"/>
-      <c r="U130" t="s">
+      <c r="O130" s="1"/>
+      <c r="V130" t="s">
         <v>191</v>
       </c>
-      <c r="X130" s="4" t="s">
-        <v>570</v>
-      </c>
-      <c r="Y130"/>
-    </row>
-    <row r="131" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Y130" s="4" t="s">
+        <v>570</v>
+      </c>
+      <c r="Z130"/>
+    </row>
+    <row r="131" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A131" t="s">
         <v>733</v>
       </c>
@@ -7505,18 +7653,18 @@
       <c r="M131">
         <v>1</v>
       </c>
-      <c r="O131" t="s">
+      <c r="P131" t="s">
         <v>576</v>
       </c>
-      <c r="Q131">
+      <c r="R131">
         <v>2</v>
       </c>
-      <c r="X131" s="4" t="s">
-        <v>570</v>
-      </c>
-      <c r="Y131"/>
-    </row>
-    <row r="132" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Y131" s="4" t="s">
+        <v>570</v>
+      </c>
+      <c r="Z131"/>
+    </row>
+    <row r="132" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A132" s="25" t="s">
         <v>734</v>
       </c>
@@ -7540,26 +7688,29 @@
       <c r="K132" s="28"/>
       <c r="L132" s="27"/>
       <c r="M132" s="27"/>
-      <c r="N132" s="28"/>
-      <c r="O132" s="25"/>
+      <c r="N132" s="27">
+        <v>1</v>
+      </c>
+      <c r="O132" s="28"/>
       <c r="P132" s="25"/>
       <c r="Q132" s="25"/>
       <c r="R132" s="25"/>
       <c r="S132" s="25"/>
       <c r="T132" s="25"/>
       <c r="U132" s="25"/>
-      <c r="V132" s="25" t="s">
+      <c r="V132" s="25"/>
+      <c r="W132" s="25" t="s">
         <v>560</v>
       </c>
-      <c r="W132" s="25" t="s">
+      <c r="X132" s="25" t="s">
         <v>576</v>
       </c>
-      <c r="X132" s="4" t="s">
-        <v>570</v>
-      </c>
-      <c r="Y132"/>
-    </row>
-    <row r="133" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Y132" s="4" t="s">
+        <v>570</v>
+      </c>
+      <c r="Z132"/>
+    </row>
+    <row r="133" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A133" t="s">
         <v>733</v>
       </c>
@@ -7578,12 +7729,12 @@
       <c r="H133">
         <v>1</v>
       </c>
-      <c r="X133" s="4" t="s">
-        <v>570</v>
-      </c>
-      <c r="Y133"/>
-    </row>
-    <row r="134" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Y133" s="4" t="s">
+        <v>570</v>
+      </c>
+      <c r="Z133"/>
+    </row>
+    <row r="134" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A134" t="s">
         <v>733</v>
       </c>
@@ -7602,12 +7753,12 @@
       <c r="H134">
         <v>1</v>
       </c>
-      <c r="X134" s="4" t="s">
-        <v>570</v>
-      </c>
-      <c r="Y134"/>
-    </row>
-    <row r="135" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Y134" s="4" t="s">
+        <v>570</v>
+      </c>
+      <c r="Z134"/>
+    </row>
+    <row r="135" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A135" t="s">
         <v>733</v>
       </c>
@@ -7633,12 +7784,13 @@
       </c>
       <c r="M135" s="1"/>
       <c r="N135" s="1"/>
-      <c r="X135" s="4" t="s">
-        <v>570</v>
-      </c>
-      <c r="Y135"/>
-    </row>
-    <row r="136" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="O135" s="1"/>
+      <c r="Y135" s="4" t="s">
+        <v>570</v>
+      </c>
+      <c r="Z135"/>
+    </row>
+    <row r="136" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A136" t="s">
         <v>733</v>
       </c>
@@ -7663,24 +7815,25 @@
       <c r="K136" s="1"/>
       <c r="L136" s="1"/>
       <c r="M136" s="1"/>
-      <c r="N136" s="1">
-        <v>1</v>
-      </c>
-      <c r="R136" t="s">
+      <c r="N136" s="1"/>
+      <c r="O136" s="1">
+        <v>1</v>
+      </c>
+      <c r="S136" t="s">
         <v>176</v>
       </c>
-      <c r="S136" t="s">
+      <c r="T136" t="s">
         <v>3</v>
       </c>
-      <c r="T136" t="s">
+      <c r="U136" t="s">
         <v>356</v>
       </c>
-      <c r="X136" s="4" t="s">
-        <v>570</v>
-      </c>
-      <c r="Y136"/>
-    </row>
-    <row r="137" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Y136" s="4" t="s">
+        <v>570</v>
+      </c>
+      <c r="Z136"/>
+    </row>
+    <row r="137" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A137" t="s">
         <v>733</v>
       </c>
@@ -7705,24 +7858,25 @@
       <c r="K137" s="1"/>
       <c r="L137" s="1"/>
       <c r="M137" s="1"/>
-      <c r="N137" s="1">
-        <v>1</v>
-      </c>
-      <c r="R137" t="s">
+      <c r="N137" s="1"/>
+      <c r="O137" s="1">
+        <v>1</v>
+      </c>
+      <c r="S137" t="s">
         <v>176</v>
       </c>
-      <c r="S137" t="s">
+      <c r="T137" t="s">
         <v>3</v>
       </c>
-      <c r="T137" t="s">
+      <c r="U137" t="s">
         <v>356</v>
       </c>
-      <c r="X137" s="4" t="s">
-        <v>570</v>
-      </c>
-      <c r="Y137"/>
-    </row>
-    <row r="138" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Y137" s="4" t="s">
+        <v>570</v>
+      </c>
+      <c r="Z137"/>
+    </row>
+    <row r="138" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A138" t="s">
         <v>733</v>
       </c>
@@ -7748,15 +7902,16 @@
       <c r="L138" s="1"/>
       <c r="M138" s="1"/>
       <c r="N138" s="1"/>
-      <c r="T138" t="s">
+      <c r="O138" s="1"/>
+      <c r="U138" t="s">
         <v>372</v>
       </c>
-      <c r="X138" s="4" t="s">
-        <v>570</v>
-      </c>
-      <c r="Y138"/>
-    </row>
-    <row r="139" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Y138" s="4" t="s">
+        <v>570</v>
+      </c>
+      <c r="Z138"/>
+    </row>
+    <row r="139" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A139" t="s">
         <v>733</v>
       </c>
@@ -7782,12 +7937,13 @@
       <c r="L139" s="1"/>
       <c r="M139" s="1"/>
       <c r="N139" s="1"/>
-      <c r="X139" s="4" t="s">
-        <v>570</v>
-      </c>
-      <c r="Y139"/>
-    </row>
-    <row r="140" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="O139" s="1"/>
+      <c r="Y139" s="4" t="s">
+        <v>570</v>
+      </c>
+      <c r="Z139"/>
+    </row>
+    <row r="140" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A140" s="25" t="s">
         <v>734</v>
       </c>
@@ -7815,26 +7971,27 @@
       <c r="K140" s="28"/>
       <c r="L140" s="27"/>
       <c r="M140" s="27"/>
-      <c r="N140" s="28"/>
-      <c r="O140" s="25" t="s">
+      <c r="N140" s="27"/>
+      <c r="O140" s="28"/>
+      <c r="P140" s="25" t="s">
         <v>576</v>
       </c>
-      <c r="P140" s="25"/>
-      <c r="Q140" s="25">
+      <c r="Q140" s="25"/>
+      <c r="R140" s="25">
         <v>3</v>
       </c>
-      <c r="R140" s="25"/>
       <c r="S140" s="25"/>
       <c r="T140" s="25"/>
       <c r="U140" s="25"/>
       <c r="V140" s="25"/>
       <c r="W140" s="25"/>
-      <c r="X140" s="4" t="s">
-        <v>570</v>
-      </c>
-      <c r="Y140"/>
-    </row>
-    <row r="141" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="X140" s="25"/>
+      <c r="Y140" s="4" t="s">
+        <v>570</v>
+      </c>
+      <c r="Z140"/>
+    </row>
+    <row r="141" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A141" t="s">
         <v>733</v>
       </c>
@@ -7860,12 +8017,13 @@
       <c r="L141" s="1"/>
       <c r="M141" s="1"/>
       <c r="N141" s="1"/>
-      <c r="X141" s="4" t="s">
-        <v>570</v>
-      </c>
-      <c r="Y141"/>
-    </row>
-    <row r="142" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="O141" s="1"/>
+      <c r="Y141" s="4" t="s">
+        <v>570</v>
+      </c>
+      <c r="Z141"/>
+    </row>
+    <row r="142" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A142" t="s">
         <v>733</v>
       </c>
@@ -7891,12 +8049,13 @@
       </c>
       <c r="M142" s="1"/>
       <c r="N142" s="1"/>
-      <c r="X142" s="4" t="s">
-        <v>570</v>
-      </c>
-      <c r="Y142"/>
-    </row>
-    <row r="143" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="O142" s="1"/>
+      <c r="Y142" s="4" t="s">
+        <v>570</v>
+      </c>
+      <c r="Z142"/>
+    </row>
+    <row r="143" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A143" t="s">
         <v>733</v>
       </c>
@@ -7922,12 +8081,13 @@
       </c>
       <c r="M143" s="1"/>
       <c r="N143" s="1"/>
-      <c r="X143" s="4" t="s">
-        <v>570</v>
-      </c>
-      <c r="Y143"/>
-    </row>
-    <row r="144" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="O143" s="1"/>
+      <c r="Y143" s="4" t="s">
+        <v>570</v>
+      </c>
+      <c r="Z143"/>
+    </row>
+    <row r="144" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A144" t="s">
         <v>733</v>
       </c>
@@ -7956,15 +8116,16 @@
       <c r="L144" s="1"/>
       <c r="M144" s="1"/>
       <c r="N144" s="1"/>
-      <c r="T144" t="s">
+      <c r="O144" s="1"/>
+      <c r="U144" t="s">
         <v>458</v>
       </c>
-      <c r="X144" s="4" t="s">
-        <v>570</v>
-      </c>
-      <c r="Y144"/>
-    </row>
-    <row r="145" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Y144" s="4" t="s">
+        <v>570</v>
+      </c>
+      <c r="Z144"/>
+    </row>
+    <row r="145" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A145" t="s">
         <v>733</v>
       </c>
@@ -7990,13 +8151,16 @@
       <c r="K145" s="1"/>
       <c r="L145" s="1"/>
       <c r="M145" s="1"/>
-      <c r="N145" s="1"/>
-      <c r="X145" s="4" t="s">
-        <v>570</v>
-      </c>
-      <c r="Y145"/>
-    </row>
-    <row r="146" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="N145" s="1">
+        <v>1</v>
+      </c>
+      <c r="O145" s="1"/>
+      <c r="Y145" s="4" t="s">
+        <v>570</v>
+      </c>
+      <c r="Z145"/>
+    </row>
+    <row r="146" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A146" t="s">
         <v>733</v>
       </c>
@@ -8022,12 +8186,13 @@
       <c r="L146" s="1"/>
       <c r="M146" s="1"/>
       <c r="N146" s="1"/>
-      <c r="X146" s="4" t="s">
-        <v>570</v>
-      </c>
-      <c r="Y146"/>
-    </row>
-    <row r="147" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="O146" s="1"/>
+      <c r="Y146" s="4" t="s">
+        <v>570</v>
+      </c>
+      <c r="Z146"/>
+    </row>
+    <row r="147" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A147" t="s">
         <v>733</v>
       </c>
@@ -8053,15 +8218,16 @@
       <c r="L147" s="1"/>
       <c r="M147" s="1"/>
       <c r="N147" s="1"/>
-      <c r="T147" t="s">
-        <v>570</v>
-      </c>
-      <c r="X147" s="4" t="s">
-        <v>570</v>
-      </c>
-      <c r="Y147"/>
-    </row>
-    <row r="148" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="O147" s="1"/>
+      <c r="U147" t="s">
+        <v>570</v>
+      </c>
+      <c r="Y147" s="4" t="s">
+        <v>570</v>
+      </c>
+      <c r="Z147"/>
+    </row>
+    <row r="148" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A148" t="s">
         <v>733</v>
       </c>
@@ -8090,12 +8256,13 @@
         <v>1</v>
       </c>
       <c r="N148" s="1"/>
-      <c r="X148" s="4" t="s">
-        <v>570</v>
-      </c>
-      <c r="Y148"/>
-    </row>
-    <row r="149" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="O148" s="1"/>
+      <c r="Y148" s="4" t="s">
+        <v>570</v>
+      </c>
+      <c r="Z148"/>
+    </row>
+    <row r="149" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A149" t="s">
         <v>733</v>
       </c>
@@ -8122,12 +8289,13 @@
       <c r="L149" s="1"/>
       <c r="M149" s="1"/>
       <c r="N149" s="1"/>
-      <c r="X149" s="4" t="s">
-        <v>570</v>
-      </c>
-      <c r="Y149"/>
-    </row>
-    <row r="150" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="O149" s="1"/>
+      <c r="Y149" s="4" t="s">
+        <v>570</v>
+      </c>
+      <c r="Z149"/>
+    </row>
+    <row r="150" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A150" t="s">
         <v>733</v>
       </c>
@@ -8153,12 +8321,13 @@
       <c r="L150" s="1"/>
       <c r="M150" s="1"/>
       <c r="N150" s="1"/>
-      <c r="X150" s="4" t="s">
-        <v>570</v>
-      </c>
-      <c r="Y150"/>
-    </row>
-    <row r="151" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="O150" s="1"/>
+      <c r="Y150" s="4" t="s">
+        <v>570</v>
+      </c>
+      <c r="Z150"/>
+    </row>
+    <row r="151" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A151" t="s">
         <v>733</v>
       </c>
@@ -8184,12 +8353,13 @@
       <c r="L151" s="1"/>
       <c r="M151" s="1"/>
       <c r="N151" s="1"/>
-      <c r="X151" s="4" t="s">
-        <v>570</v>
-      </c>
-      <c r="Y151"/>
-    </row>
-    <row r="152" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="O151" s="1"/>
+      <c r="Y151" s="4" t="s">
+        <v>570</v>
+      </c>
+      <c r="Z151"/>
+    </row>
+    <row r="152" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A152" t="s">
         <v>733</v>
       </c>
@@ -8215,12 +8385,13 @@
       <c r="L152" s="1"/>
       <c r="M152" s="1"/>
       <c r="N152" s="1"/>
-      <c r="X152" s="4" t="s">
-        <v>570</v>
-      </c>
-      <c r="Y152"/>
-    </row>
-    <row r="153" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="O152" s="1"/>
+      <c r="Y152" s="4" t="s">
+        <v>570</v>
+      </c>
+      <c r="Z152"/>
+    </row>
+    <row r="153" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A153" t="s">
         <v>733</v>
       </c>
@@ -8249,15 +8420,16 @@
       <c r="L153" s="1"/>
       <c r="M153" s="1"/>
       <c r="N153" s="1"/>
-      <c r="U153" s="23"/>
-      <c r="V153" s="2"/>
+      <c r="O153" s="1"/>
+      <c r="V153" s="23"/>
       <c r="W153" s="2"/>
-      <c r="X153" s="4" t="s">
-        <v>570</v>
-      </c>
-      <c r="Y153"/>
-    </row>
-    <row r="154" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="X153" s="2"/>
+      <c r="Y153" s="4" t="s">
+        <v>570</v>
+      </c>
+      <c r="Z153"/>
+    </row>
+    <row r="154" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A154" t="s">
         <v>733</v>
       </c>
@@ -8283,15 +8455,16 @@
       <c r="L154" s="1"/>
       <c r="M154" s="1"/>
       <c r="N154" s="1"/>
-      <c r="T154" t="s">
+      <c r="O154" s="1"/>
+      <c r="U154" t="s">
         <v>370</v>
       </c>
-      <c r="X154" s="4" t="s">
-        <v>570</v>
-      </c>
-      <c r="Y154"/>
-    </row>
-    <row r="155" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Y154" s="4" t="s">
+        <v>570</v>
+      </c>
+      <c r="Z154"/>
+    </row>
+    <row r="155" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A155" t="s">
         <v>733</v>
       </c>
@@ -8310,12 +8483,12 @@
       <c r="L155">
         <v>1</v>
       </c>
-      <c r="X155" s="4" t="s">
-        <v>570</v>
-      </c>
-      <c r="Y155"/>
-    </row>
-    <row r="156" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Y155" s="4" t="s">
+        <v>570</v>
+      </c>
+      <c r="Z155"/>
+    </row>
+    <row r="156" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A156" s="25" t="s">
         <v>734</v>
       </c>
@@ -8341,8 +8514,10 @@
       <c r="K156" s="28"/>
       <c r="L156" s="27"/>
       <c r="M156" s="27"/>
-      <c r="N156" s="28"/>
-      <c r="O156" s="25"/>
+      <c r="N156" s="27">
+        <v>1</v>
+      </c>
+      <c r="O156" s="28"/>
       <c r="P156" s="25"/>
       <c r="Q156" s="25"/>
       <c r="R156" s="25"/>
@@ -8351,12 +8526,13 @@
       <c r="U156" s="25"/>
       <c r="V156" s="25"/>
       <c r="W156" s="25"/>
-      <c r="X156" s="4" t="s">
-        <v>570</v>
-      </c>
-      <c r="Y156"/>
-    </row>
-    <row r="157" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="X156" s="25"/>
+      <c r="Y156" s="4" t="s">
+        <v>570</v>
+      </c>
+      <c r="Z156"/>
+    </row>
+    <row r="157" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A157" s="25" t="s">
         <v>734</v>
       </c>
@@ -8384,26 +8560,27 @@
       <c r="K157" s="28"/>
       <c r="L157" s="27"/>
       <c r="M157" s="27"/>
-      <c r="N157" s="28"/>
-      <c r="O157" s="25" t="s">
+      <c r="N157" s="27"/>
+      <c r="O157" s="28"/>
+      <c r="P157" s="25" t="s">
         <v>576</v>
       </c>
-      <c r="P157" s="25"/>
-      <c r="Q157" s="25">
+      <c r="Q157" s="25"/>
+      <c r="R157" s="25">
         <v>-2</v>
       </c>
-      <c r="R157" s="25"/>
       <c r="S157" s="25"/>
       <c r="T157" s="25"/>
       <c r="U157" s="25"/>
       <c r="V157" s="25"/>
       <c r="W157" s="25"/>
-      <c r="X157" s="4" t="s">
-        <v>570</v>
-      </c>
-      <c r="Y157"/>
-    </row>
-    <row r="158" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="X157" s="25"/>
+      <c r="Y157" s="4" t="s">
+        <v>570</v>
+      </c>
+      <c r="Z157"/>
+    </row>
+    <row r="158" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A158" t="s">
         <v>733</v>
       </c>
@@ -8427,15 +8604,15 @@
       </c>
       <c r="J158" s="1"/>
       <c r="K158" s="1"/>
-      <c r="T158" t="s">
+      <c r="U158" t="s">
         <v>365</v>
       </c>
-      <c r="X158" s="4" t="s">
-        <v>570</v>
-      </c>
-      <c r="Y158"/>
-    </row>
-    <row r="159" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Y158" s="4" t="s">
+        <v>570</v>
+      </c>
+      <c r="Z158"/>
+    </row>
+    <row r="159" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A159" t="s">
         <v>733</v>
       </c>
@@ -8461,12 +8638,13 @@
       <c r="L159" s="1"/>
       <c r="M159" s="1"/>
       <c r="N159" s="1"/>
-      <c r="X159" s="4" t="s">
-        <v>570</v>
-      </c>
-      <c r="Y159"/>
-    </row>
-    <row r="160" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="O159" s="1"/>
+      <c r="Y159" s="4" t="s">
+        <v>570</v>
+      </c>
+      <c r="Z159"/>
+    </row>
+    <row r="160" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A160" t="s">
         <v>733</v>
       </c>
@@ -8495,19 +8673,20 @@
       <c r="L160" s="1"/>
       <c r="M160" s="1"/>
       <c r="N160" s="1"/>
-      <c r="O160" s="2" t="s">
+      <c r="O160" s="1"/>
+      <c r="P160" s="2" t="s">
         <v>576</v>
       </c>
-      <c r="P160" s="2"/>
-      <c r="Q160" s="2">
+      <c r="Q160" s="2"/>
+      <c r="R160" s="2">
         <v>-2</v>
       </c>
-      <c r="X160" s="4" t="s">
-        <v>570</v>
-      </c>
-      <c r="Y160"/>
-    </row>
-    <row r="161" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Y160" s="4" t="s">
+        <v>570</v>
+      </c>
+      <c r="Z160"/>
+    </row>
+    <row r="161" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A161" t="s">
         <v>733</v>
       </c>
@@ -8535,19 +8714,20 @@
       <c r="L161" s="1"/>
       <c r="M161" s="1"/>
       <c r="N161" s="1"/>
-      <c r="O161" s="2" t="s">
+      <c r="O161" s="1"/>
+      <c r="P161" s="2" t="s">
         <v>576</v>
       </c>
-      <c r="P161" s="2"/>
-      <c r="Q161" s="2">
+      <c r="Q161" s="2"/>
+      <c r="R161" s="2">
         <v>-1</v>
       </c>
-      <c r="X161" s="4" t="s">
-        <v>570</v>
-      </c>
-      <c r="Y161"/>
-    </row>
-    <row r="162" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Y161" s="4" t="s">
+        <v>570</v>
+      </c>
+      <c r="Z161"/>
+    </row>
+    <row r="162" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A162" t="s">
         <v>733</v>
       </c>
@@ -8573,12 +8753,13 @@
       <c r="L162" s="1"/>
       <c r="M162" s="1"/>
       <c r="N162" s="1"/>
-      <c r="X162" s="4" t="s">
-        <v>570</v>
-      </c>
-      <c r="Y162"/>
-    </row>
-    <row r="163" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="O162" s="1"/>
+      <c r="Y162" s="4" t="s">
+        <v>570</v>
+      </c>
+      <c r="Z162"/>
+    </row>
+    <row r="163" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A163" t="s">
         <v>733</v>
       </c>
@@ -8604,12 +8785,13 @@
       <c r="L163" s="1"/>
       <c r="M163" s="1"/>
       <c r="N163" s="1"/>
-      <c r="X163" s="4" t="s">
-        <v>570</v>
-      </c>
-      <c r="Y163"/>
-    </row>
-    <row r="164" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="O163" s="1"/>
+      <c r="Y163" s="4" t="s">
+        <v>570</v>
+      </c>
+      <c r="Z163"/>
+    </row>
+    <row r="164" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A164" t="s">
         <v>733</v>
       </c>
@@ -8635,12 +8817,13 @@
       <c r="L164" s="1"/>
       <c r="M164" s="1"/>
       <c r="N164" s="1"/>
-      <c r="X164" s="4" t="s">
-        <v>570</v>
-      </c>
-      <c r="Y164"/>
-    </row>
-    <row r="165" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="O164" s="1"/>
+      <c r="Y164" s="4" t="s">
+        <v>570</v>
+      </c>
+      <c r="Z164"/>
+    </row>
+    <row r="165" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A165" t="s">
         <v>733</v>
       </c>
@@ -8666,19 +8849,22 @@
       <c r="K165" s="1"/>
       <c r="L165" s="1"/>
       <c r="M165" s="1"/>
-      <c r="N165" s="1"/>
-      <c r="V165" t="s">
+      <c r="N165" s="1">
+        <v>1</v>
+      </c>
+      <c r="O165" s="1"/>
+      <c r="W165" t="s">
         <v>589</v>
       </c>
-      <c r="W165" t="s">
+      <c r="X165" t="s">
         <v>585</v>
       </c>
-      <c r="X165" s="4" t="s">
-        <v>570</v>
-      </c>
-      <c r="Y165"/>
-    </row>
-    <row r="166" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Y165" s="4" t="s">
+        <v>570</v>
+      </c>
+      <c r="Z165"/>
+    </row>
+    <row r="166" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A166" t="s">
         <v>733</v>
       </c>
@@ -8704,12 +8890,13 @@
       <c r="L166" s="1"/>
       <c r="M166" s="1"/>
       <c r="N166" s="1"/>
-      <c r="X166" s="4" t="s">
-        <v>570</v>
-      </c>
-      <c r="Y166"/>
-    </row>
-    <row r="167" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="O166" s="1"/>
+      <c r="Y166" s="4" t="s">
+        <v>570</v>
+      </c>
+      <c r="Z166"/>
+    </row>
+    <row r="167" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A167" t="s">
         <v>733</v>
       </c>
@@ -8735,12 +8922,13 @@
       <c r="L167" s="1"/>
       <c r="M167" s="1"/>
       <c r="N167" s="1"/>
-      <c r="X167" s="4" t="s">
-        <v>570</v>
-      </c>
-      <c r="Y167"/>
-    </row>
-    <row r="168" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="O167" s="1"/>
+      <c r="Y167" s="4" t="s">
+        <v>570</v>
+      </c>
+      <c r="Z167"/>
+    </row>
+    <row r="168" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A168" t="s">
         <v>733</v>
       </c>
@@ -8766,18 +8954,19 @@
       <c r="L168" s="1"/>
       <c r="M168" s="1"/>
       <c r="N168" s="1"/>
-      <c r="O168" t="s">
+      <c r="O168" s="1"/>
+      <c r="P168" t="s">
         <v>576</v>
       </c>
-      <c r="Q168">
-        <v>1</v>
-      </c>
-      <c r="X168" s="4" t="s">
-        <v>570</v>
-      </c>
-      <c r="Y168"/>
-    </row>
-    <row r="169" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="R168">
+        <v>1</v>
+      </c>
+      <c r="Y168" s="4" t="s">
+        <v>570</v>
+      </c>
+      <c r="Z168"/>
+    </row>
+    <row r="169" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A169" t="s">
         <v>733</v>
       </c>
@@ -8803,15 +8992,16 @@
       <c r="L169" s="1"/>
       <c r="M169" s="1"/>
       <c r="N169" s="1"/>
-      <c r="T169" t="s">
+      <c r="O169" s="1"/>
+      <c r="U169" t="s">
         <v>369</v>
       </c>
-      <c r="X169" s="4" t="s">
-        <v>570</v>
-      </c>
-      <c r="Y169"/>
-    </row>
-    <row r="170" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Y169" s="4" t="s">
+        <v>570</v>
+      </c>
+      <c r="Z169"/>
+    </row>
+    <row r="170" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A170" t="s">
         <v>733</v>
       </c>
@@ -8837,15 +9027,16 @@
       <c r="L170" s="1"/>
       <c r="M170" s="1"/>
       <c r="N170" s="1"/>
-      <c r="T170" t="s">
+      <c r="O170" s="1"/>
+      <c r="U170" t="s">
         <v>369</v>
       </c>
-      <c r="X170" s="4" t="s">
-        <v>570</v>
-      </c>
-      <c r="Y170"/>
-    </row>
-    <row r="171" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Y170" s="4" t="s">
+        <v>570</v>
+      </c>
+      <c r="Z170"/>
+    </row>
+    <row r="171" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A171" t="s">
         <v>733</v>
       </c>
@@ -8871,15 +9062,16 @@
       <c r="L171" s="1"/>
       <c r="M171" s="1"/>
       <c r="N171" s="1"/>
-      <c r="T171" t="s">
+      <c r="O171" s="1"/>
+      <c r="U171" t="s">
         <v>369</v>
       </c>
-      <c r="X171" s="4" t="s">
-        <v>570</v>
-      </c>
-      <c r="Y171"/>
-    </row>
-    <row r="172" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Y171" s="4" t="s">
+        <v>570</v>
+      </c>
+      <c r="Z171"/>
+    </row>
+    <row r="172" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A172" t="s">
         <v>733</v>
       </c>
@@ -8905,15 +9097,16 @@
       <c r="L172" s="1"/>
       <c r="M172" s="1"/>
       <c r="N172" s="1"/>
-      <c r="T172" t="s">
+      <c r="O172" s="1"/>
+      <c r="U172" t="s">
         <v>369</v>
       </c>
-      <c r="X172" s="4" t="s">
-        <v>570</v>
-      </c>
-      <c r="Y172"/>
-    </row>
-    <row r="173" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Y172" s="4" t="s">
+        <v>570</v>
+      </c>
+      <c r="Z172"/>
+    </row>
+    <row r="173" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A173" t="s">
         <v>733</v>
       </c>
@@ -8939,15 +9132,16 @@
       <c r="L173" s="1"/>
       <c r="M173" s="1"/>
       <c r="N173" s="1"/>
-      <c r="T173" t="s">
+      <c r="O173" s="1"/>
+      <c r="U173" t="s">
         <v>369</v>
       </c>
-      <c r="X173" s="4" t="s">
-        <v>570</v>
-      </c>
-      <c r="Y173"/>
-    </row>
-    <row r="174" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Y173" s="4" t="s">
+        <v>570</v>
+      </c>
+      <c r="Z173"/>
+    </row>
+    <row r="174" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A174" t="s">
         <v>733</v>
       </c>
@@ -8973,15 +9167,16 @@
       <c r="L174" s="1"/>
       <c r="M174" s="1"/>
       <c r="N174" s="1"/>
-      <c r="T174" t="s">
+      <c r="O174" s="1"/>
+      <c r="U174" t="s">
         <v>369</v>
       </c>
-      <c r="X174" s="4" t="s">
-        <v>570</v>
-      </c>
-      <c r="Y174"/>
-    </row>
-    <row r="175" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Y174" s="4" t="s">
+        <v>570</v>
+      </c>
+      <c r="Z174"/>
+    </row>
+    <row r="175" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A175" t="s">
         <v>733</v>
       </c>
@@ -9007,15 +9202,16 @@
       <c r="L175" s="1"/>
       <c r="M175" s="1"/>
       <c r="N175" s="1"/>
-      <c r="T175" t="s">
+      <c r="O175" s="1"/>
+      <c r="U175" t="s">
         <v>369</v>
       </c>
-      <c r="X175" s="4" t="s">
-        <v>570</v>
-      </c>
-      <c r="Y175"/>
-    </row>
-    <row r="176" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Y175" s="4" t="s">
+        <v>570</v>
+      </c>
+      <c r="Z175"/>
+    </row>
+    <row r="176" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A176" t="s">
         <v>733</v>
       </c>
@@ -9041,15 +9237,16 @@
       <c r="L176" s="1"/>
       <c r="M176" s="1"/>
       <c r="N176" s="1"/>
-      <c r="T176" t="s">
+      <c r="O176" s="1"/>
+      <c r="U176" t="s">
         <v>369</v>
       </c>
-      <c r="X176" s="4" t="s">
-        <v>570</v>
-      </c>
-      <c r="Y176"/>
-    </row>
-    <row r="177" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Y176" s="4" t="s">
+        <v>570</v>
+      </c>
+      <c r="Z176"/>
+    </row>
+    <row r="177" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A177" t="s">
         <v>733</v>
       </c>
@@ -9075,15 +9272,16 @@
       <c r="L177" s="1"/>
       <c r="M177" s="1"/>
       <c r="N177" s="1"/>
-      <c r="T177" t="s">
+      <c r="O177" s="1"/>
+      <c r="U177" t="s">
         <v>369</v>
       </c>
-      <c r="X177" s="4" t="s">
-        <v>570</v>
-      </c>
-      <c r="Y177"/>
-    </row>
-    <row r="178" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Y177" s="4" t="s">
+        <v>570</v>
+      </c>
+      <c r="Z177"/>
+    </row>
+    <row r="178" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A178" t="s">
         <v>733</v>
       </c>
@@ -9109,15 +9307,16 @@
       <c r="L178" s="1"/>
       <c r="M178" s="1"/>
       <c r="N178" s="1"/>
-      <c r="T178" t="s">
+      <c r="O178" s="1"/>
+      <c r="U178" t="s">
         <v>369</v>
       </c>
-      <c r="X178" s="4" t="s">
-        <v>570</v>
-      </c>
-      <c r="Y178"/>
-    </row>
-    <row r="179" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Y178" s="4" t="s">
+        <v>570</v>
+      </c>
+      <c r="Z178"/>
+    </row>
+    <row r="179" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A179" t="s">
         <v>733</v>
       </c>
@@ -9143,15 +9342,16 @@
       <c r="L179" s="1"/>
       <c r="M179" s="1"/>
       <c r="N179" s="1"/>
-      <c r="T179" t="s">
+      <c r="O179" s="1"/>
+      <c r="U179" t="s">
         <v>369</v>
       </c>
-      <c r="X179" s="4" t="s">
-        <v>570</v>
-      </c>
-      <c r="Y179"/>
-    </row>
-    <row r="180" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Y179" s="4" t="s">
+        <v>570</v>
+      </c>
+      <c r="Z179"/>
+    </row>
+    <row r="180" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A180" t="s">
         <v>733</v>
       </c>
@@ -9177,15 +9377,16 @@
       <c r="L180" s="1"/>
       <c r="M180" s="1"/>
       <c r="N180" s="1"/>
-      <c r="T180" t="s">
+      <c r="O180" s="1"/>
+      <c r="U180" t="s">
         <v>369</v>
       </c>
-      <c r="X180" s="4" t="s">
-        <v>570</v>
-      </c>
-      <c r="Y180"/>
-    </row>
-    <row r="181" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Y180" s="4" t="s">
+        <v>570</v>
+      </c>
+      <c r="Z180"/>
+    </row>
+    <row r="181" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A181" t="s">
         <v>733</v>
       </c>
@@ -9211,12 +9412,13 @@
       <c r="L181" s="1"/>
       <c r="M181" s="1"/>
       <c r="N181" s="1"/>
-      <c r="X181" s="4" t="s">
-        <v>570</v>
-      </c>
-      <c r="Y181"/>
-    </row>
-    <row r="182" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="O181" s="1"/>
+      <c r="Y181" s="4" t="s">
+        <v>570</v>
+      </c>
+      <c r="Z181"/>
+    </row>
+    <row r="182" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A182" t="s">
         <v>733</v>
       </c>
@@ -9242,12 +9444,13 @@
       </c>
       <c r="M182" s="1"/>
       <c r="N182" s="1"/>
-      <c r="X182" s="4" t="s">
-        <v>570</v>
-      </c>
-      <c r="Y182"/>
-    </row>
-    <row r="183" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="O182" s="1"/>
+      <c r="Y182" s="4" t="s">
+        <v>570</v>
+      </c>
+      <c r="Z182"/>
+    </row>
+    <row r="183" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A183" t="s">
         <v>733</v>
       </c>
@@ -9266,12 +9469,12 @@
       <c r="F183">
         <v>1</v>
       </c>
-      <c r="X183" s="4" t="s">
-        <v>570</v>
-      </c>
-      <c r="Y183"/>
-    </row>
-    <row r="184" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Y183" s="4" t="s">
+        <v>570</v>
+      </c>
+      <c r="Z183"/>
+    </row>
+    <row r="184" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A184" t="s">
         <v>733</v>
       </c>
@@ -9302,18 +9505,19 @@
       <c r="L184" s="1"/>
       <c r="M184" s="1"/>
       <c r="N184" s="1"/>
-      <c r="T184" t="s">
+      <c r="O184" s="1"/>
+      <c r="U184" t="s">
         <v>531</v>
       </c>
-      <c r="U184" t="s">
+      <c r="V184" t="s">
         <v>583</v>
       </c>
-      <c r="X184" s="4" t="s">
-        <v>570</v>
-      </c>
-      <c r="Y184"/>
-    </row>
-    <row r="185" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Y184" s="4" t="s">
+        <v>570</v>
+      </c>
+      <c r="Z184"/>
+    </row>
+    <row r="185" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A185" t="s">
         <v>733</v>
       </c>
@@ -9339,12 +9543,13 @@
       <c r="L185" s="1"/>
       <c r="M185" s="1"/>
       <c r="N185" s="1"/>
-      <c r="X185" s="4" t="s">
-        <v>570</v>
-      </c>
-      <c r="Y185"/>
-    </row>
-    <row r="186" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="O185" s="1"/>
+      <c r="Y185" s="4" t="s">
+        <v>570</v>
+      </c>
+      <c r="Z185"/>
+    </row>
+    <row r="186" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A186" t="s">
         <v>733</v>
       </c>
@@ -9367,21 +9572,22 @@
       <c r="K186" s="1"/>
       <c r="L186" s="1"/>
       <c r="M186" s="1"/>
-      <c r="N186" s="1">
-        <v>1</v>
-      </c>
-      <c r="R186" t="s">
+      <c r="N186" s="1"/>
+      <c r="O186" s="1">
+        <v>1</v>
+      </c>
+      <c r="S186" t="s">
         <v>566</v>
       </c>
-      <c r="S186" t="s">
+      <c r="T186" t="s">
         <v>563</v>
       </c>
-      <c r="X186" s="4" t="s">
-        <v>570</v>
-      </c>
-      <c r="Y186"/>
-    </row>
-    <row r="187" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Y186" s="4" t="s">
+        <v>570</v>
+      </c>
+      <c r="Z186"/>
+    </row>
+    <row r="187" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A187" t="s">
         <v>733</v>
       </c>
@@ -9404,21 +9610,22 @@
       <c r="K187" s="1"/>
       <c r="L187" s="1"/>
       <c r="M187" s="1"/>
-      <c r="N187" s="1">
-        <v>1</v>
-      </c>
-      <c r="R187" t="s">
+      <c r="N187" s="1"/>
+      <c r="O187" s="1">
+        <v>1</v>
+      </c>
+      <c r="S187" t="s">
         <v>566</v>
       </c>
-      <c r="S187" t="s">
+      <c r="T187" t="s">
         <v>563</v>
       </c>
-      <c r="X187" s="4" t="s">
-        <v>570</v>
-      </c>
-      <c r="Y187"/>
-    </row>
-    <row r="188" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Y187" s="4" t="s">
+        <v>570</v>
+      </c>
+      <c r="Z187"/>
+    </row>
+    <row r="188" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A188" s="25" t="s">
         <v>734</v>
       </c>
@@ -9444,8 +9651,10 @@
       <c r="K188" s="28"/>
       <c r="L188" s="27"/>
       <c r="M188" s="27"/>
-      <c r="N188" s="28"/>
-      <c r="O188" s="25"/>
+      <c r="N188" s="27">
+        <v>1</v>
+      </c>
+      <c r="O188" s="28"/>
       <c r="P188" s="25"/>
       <c r="Q188" s="25"/>
       <c r="R188" s="25"/>
@@ -9454,12 +9663,13 @@
       <c r="U188" s="25"/>
       <c r="V188" s="25"/>
       <c r="W188" s="25"/>
-      <c r="X188" s="4" t="s">
-        <v>570</v>
-      </c>
-      <c r="Y188"/>
-    </row>
-    <row r="189" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="X188" s="25"/>
+      <c r="Y188" s="4" t="s">
+        <v>570</v>
+      </c>
+      <c r="Z188"/>
+    </row>
+    <row r="189" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A189" t="s">
         <v>733</v>
       </c>
@@ -9485,12 +9695,13 @@
       </c>
       <c r="M189" s="1"/>
       <c r="N189" s="1"/>
-      <c r="X189" s="4" t="s">
-        <v>570</v>
-      </c>
-      <c r="Y189"/>
-    </row>
-    <row r="190" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="O189" s="1"/>
+      <c r="Y189" s="4" t="s">
+        <v>570</v>
+      </c>
+      <c r="Z189"/>
+    </row>
+    <row r="190" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A190" t="s">
         <v>733</v>
       </c>
@@ -9516,14 +9727,15 @@
       <c r="L190" s="1"/>
       <c r="M190" s="1"/>
       <c r="N190" s="1"/>
-      <c r="X190" s="4" t="s">
-        <v>570</v>
-      </c>
-      <c r="Y190"/>
-    </row>
-    <row r="191" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="O190" s="1"/>
+      <c r="Y190" s="4" t="s">
+        <v>570</v>
+      </c>
+      <c r="Z190"/>
+    </row>
+    <row r="191" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A191" t="s">
-        <v>734</v>
+        <v>733</v>
       </c>
       <c r="B191" t="s">
         <v>486</v>
@@ -9547,12 +9759,13 @@
       </c>
       <c r="M191" s="1"/>
       <c r="N191" s="1"/>
-      <c r="X191" s="4" t="s">
-        <v>570</v>
-      </c>
-      <c r="Y191"/>
-    </row>
-    <row r="192" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="O191" s="1"/>
+      <c r="Y191" s="4" t="s">
+        <v>570</v>
+      </c>
+      <c r="Z191"/>
+    </row>
+    <row r="192" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A192" t="s">
         <v>733</v>
       </c>
@@ -9573,26 +9786,26 @@
       </c>
       <c r="J192" s="1"/>
       <c r="K192" s="1"/>
-      <c r="N192">
-        <v>1</v>
-      </c>
-      <c r="R192" t="s">
+      <c r="O192">
+        <v>1</v>
+      </c>
+      <c r="S192" t="s">
         <v>190</v>
       </c>
-      <c r="S192" t="s">
+      <c r="T192" t="s">
         <v>3</v>
       </c>
-      <c r="T192" t="s">
+      <c r="U192" t="s">
         <v>358</v>
       </c>
-      <c r="X192" s="4" t="s">
-        <v>570</v>
-      </c>
-      <c r="Y192"/>
-    </row>
-    <row r="193" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Y192" s="4" t="s">
+        <v>570</v>
+      </c>
+      <c r="Z192"/>
+    </row>
+    <row r="193" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A193" t="s">
-        <v>734</v>
+        <v>733</v>
       </c>
       <c r="B193" t="s">
         <v>104</v>
@@ -9611,24 +9824,24 @@
       </c>
       <c r="J193" s="1"/>
       <c r="K193" s="1"/>
-      <c r="N193">
-        <v>1</v>
-      </c>
-      <c r="R193" t="s">
+      <c r="O193">
+        <v>1</v>
+      </c>
+      <c r="S193" t="s">
         <v>190</v>
       </c>
-      <c r="S193" t="s">
+      <c r="T193" t="s">
         <v>3</v>
       </c>
-      <c r="T193" t="s">
+      <c r="U193" t="s">
         <v>358</v>
       </c>
-      <c r="X193" s="4" t="s">
-        <v>570</v>
-      </c>
-      <c r="Y193"/>
-    </row>
-    <row r="194" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Y193" s="4" t="s">
+        <v>570</v>
+      </c>
+      <c r="Z193"/>
+    </row>
+    <row r="194" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A194" s="25" t="s">
         <v>734</v>
       </c>
@@ -9654,8 +9867,8 @@
       <c r="K194" s="28"/>
       <c r="L194" s="27"/>
       <c r="M194" s="27"/>
-      <c r="N194" s="28"/>
-      <c r="O194" s="25"/>
+      <c r="N194" s="27"/>
+      <c r="O194" s="28"/>
       <c r="P194" s="25"/>
       <c r="Q194" s="25"/>
       <c r="R194" s="25"/>
@@ -9664,12 +9877,13 @@
       <c r="U194" s="25"/>
       <c r="V194" s="25"/>
       <c r="W194" s="25"/>
-      <c r="X194" s="4" t="s">
-        <v>570</v>
-      </c>
-      <c r="Y194"/>
-    </row>
-    <row r="195" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="X194" s="25"/>
+      <c r="Y194" s="4" t="s">
+        <v>570</v>
+      </c>
+      <c r="Z194"/>
+    </row>
+    <row r="195" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A195" t="s">
         <v>733</v>
       </c>
@@ -9692,19 +9906,22 @@
       <c r="K195" s="1"/>
       <c r="L195" s="1"/>
       <c r="M195" s="1"/>
-      <c r="N195" s="1"/>
-      <c r="V195" t="s">
+      <c r="N195" s="1">
+        <v>1</v>
+      </c>
+      <c r="O195" s="1"/>
+      <c r="W195" t="s">
         <v>764</v>
       </c>
-      <c r="W195" t="s">
+      <c r="X195" t="s">
         <v>586</v>
       </c>
-      <c r="X195" s="4" t="s">
-        <v>570</v>
-      </c>
-      <c r="Y195"/>
-    </row>
-    <row r="196" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Y195" s="4" t="s">
+        <v>570</v>
+      </c>
+      <c r="Z195"/>
+    </row>
+    <row r="196" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A196" t="s">
         <v>733</v>
       </c>
@@ -9730,12 +9947,13 @@
       <c r="L196" s="1"/>
       <c r="M196" s="1"/>
       <c r="N196" s="1"/>
-      <c r="X196" s="4" t="s">
-        <v>570</v>
-      </c>
-      <c r="Y196"/>
-    </row>
-    <row r="197" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="O196" s="1"/>
+      <c r="Y196" s="4" t="s">
+        <v>570</v>
+      </c>
+      <c r="Z196"/>
+    </row>
+    <row r="197" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A197" t="s">
         <v>733</v>
       </c>
@@ -9764,12 +9982,13 @@
         <v>1</v>
       </c>
       <c r="N197" s="1"/>
-      <c r="X197" s="4" t="s">
-        <v>570</v>
-      </c>
-      <c r="Y197"/>
-    </row>
-    <row r="198" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="O197" s="1"/>
+      <c r="Y197" s="4" t="s">
+        <v>570</v>
+      </c>
+      <c r="Z197"/>
+    </row>
+    <row r="198" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A198" t="s">
         <v>733</v>
       </c>
@@ -9788,12 +10007,12 @@
       <c r="G198">
         <v>1</v>
       </c>
-      <c r="X198" s="4" t="s">
-        <v>570</v>
-      </c>
-      <c r="Y198"/>
-    </row>
-    <row r="199" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Y198" s="4" t="s">
+        <v>570</v>
+      </c>
+      <c r="Z198"/>
+    </row>
+    <row r="199" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A199" t="s">
         <v>733</v>
       </c>
@@ -9819,12 +10038,13 @@
       </c>
       <c r="M199" s="1"/>
       <c r="N199" s="1"/>
-      <c r="X199" s="4" t="s">
-        <v>570</v>
-      </c>
-      <c r="Y199"/>
-    </row>
-    <row r="200" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="O199" s="1"/>
+      <c r="Y199" s="4" t="s">
+        <v>570</v>
+      </c>
+      <c r="Z199"/>
+    </row>
+    <row r="200" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A200" t="s">
         <v>733</v>
       </c>
@@ -9850,13 +10070,16 @@
       <c r="K200" s="1"/>
       <c r="L200" s="1"/>
       <c r="M200" s="1"/>
-      <c r="N200" s="1"/>
-      <c r="X200" s="4" t="s">
-        <v>570</v>
-      </c>
-      <c r="Y200"/>
-    </row>
-    <row r="201" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="N200" s="1">
+        <v>1</v>
+      </c>
+      <c r="O200" s="1"/>
+      <c r="Y200" s="4" t="s">
+        <v>570</v>
+      </c>
+      <c r="Z200"/>
+    </row>
+    <row r="201" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A201" t="s">
         <v>733</v>
       </c>
@@ -9882,15 +10105,16 @@
       <c r="L201" s="1"/>
       <c r="M201" s="1"/>
       <c r="N201" s="1"/>
-      <c r="T201" t="s">
+      <c r="O201" s="1"/>
+      <c r="U201" t="s">
         <v>348</v>
       </c>
-      <c r="X201" s="4" t="s">
-        <v>570</v>
-      </c>
-      <c r="Y201"/>
-    </row>
-    <row r="202" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Y201" s="4" t="s">
+        <v>570</v>
+      </c>
+      <c r="Z201"/>
+    </row>
+    <row r="202" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A202" t="s">
         <v>733</v>
       </c>
@@ -9916,18 +10140,19 @@
       <c r="L202" s="1"/>
       <c r="M202" s="1"/>
       <c r="N202" s="1"/>
-      <c r="O202" t="s">
+      <c r="O202" s="1"/>
+      <c r="P202" t="s">
         <v>576</v>
       </c>
-      <c r="Q202">
-        <v>1</v>
-      </c>
-      <c r="X202" s="4" t="s">
-        <v>570</v>
-      </c>
-      <c r="Y202"/>
-    </row>
-    <row r="203" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="R202">
+        <v>1</v>
+      </c>
+      <c r="Y202" s="4" t="s">
+        <v>570</v>
+      </c>
+      <c r="Z202"/>
+    </row>
+    <row r="203" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A203" t="s">
         <v>733</v>
       </c>
@@ -9953,12 +10178,13 @@
       </c>
       <c r="M203" s="1"/>
       <c r="N203" s="1"/>
-      <c r="X203" s="4" t="s">
-        <v>570</v>
-      </c>
-      <c r="Y203"/>
-    </row>
-    <row r="204" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="O203" s="1"/>
+      <c r="Y203" s="4" t="s">
+        <v>570</v>
+      </c>
+      <c r="Z203"/>
+    </row>
+    <row r="204" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A204" t="s">
         <v>733</v>
       </c>
@@ -9984,12 +10210,13 @@
         <v>1</v>
       </c>
       <c r="N204" s="1"/>
-      <c r="X204" s="4" t="s">
-        <v>570</v>
-      </c>
-      <c r="Y204"/>
-    </row>
-    <row r="205" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="O204" s="1"/>
+      <c r="Y204" s="4" t="s">
+        <v>570</v>
+      </c>
+      <c r="Z204"/>
+    </row>
+    <row r="205" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A205" t="s">
         <v>733</v>
       </c>
@@ -10017,18 +10244,19 @@
       <c r="L205" s="1"/>
       <c r="M205" s="1"/>
       <c r="N205" s="1"/>
-      <c r="O205" t="s">
+      <c r="O205" s="1"/>
+      <c r="P205" t="s">
         <v>576</v>
       </c>
-      <c r="Q205">
-        <v>1</v>
-      </c>
-      <c r="X205" s="4" t="s">
-        <v>570</v>
-      </c>
-      <c r="Y205"/>
-    </row>
-    <row r="206" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="R205">
+        <v>1</v>
+      </c>
+      <c r="Y205" s="4" t="s">
+        <v>570</v>
+      </c>
+      <c r="Z205"/>
+    </row>
+    <row r="206" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A206" s="25" t="s">
         <v>734</v>
       </c>
@@ -10054,8 +10282,8 @@
       <c r="K206" s="28"/>
       <c r="L206" s="27"/>
       <c r="M206" s="27"/>
-      <c r="N206" s="28"/>
-      <c r="O206" s="25"/>
+      <c r="N206" s="27"/>
+      <c r="O206" s="28"/>
       <c r="P206" s="25"/>
       <c r="Q206" s="25"/>
       <c r="R206" s="25"/>
@@ -10064,12 +10292,13 @@
       <c r="U206" s="25"/>
       <c r="V206" s="25"/>
       <c r="W206" s="25"/>
-      <c r="X206" s="4" t="s">
-        <v>570</v>
-      </c>
-      <c r="Y206"/>
-    </row>
-    <row r="207" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="X206" s="25"/>
+      <c r="Y206" s="4" t="s">
+        <v>570</v>
+      </c>
+      <c r="Z206"/>
+    </row>
+    <row r="207" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A207" t="s">
         <v>733</v>
       </c>
@@ -10100,12 +10329,13 @@
         <v>1</v>
       </c>
       <c r="N207" s="1"/>
-      <c r="X207" s="4" t="s">
-        <v>570</v>
-      </c>
-      <c r="Y207"/>
-    </row>
-    <row r="208" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="O207" s="1"/>
+      <c r="Y207" s="4" t="s">
+        <v>570</v>
+      </c>
+      <c r="Z207"/>
+    </row>
+    <row r="208" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A208" t="s">
         <v>733</v>
       </c>
@@ -10136,21 +10366,22 @@
       <c r="L208" s="1"/>
       <c r="M208" s="1"/>
       <c r="N208" s="1"/>
-      <c r="O208" t="s">
+      <c r="O208" s="1"/>
+      <c r="P208" t="s">
         <v>577</v>
       </c>
-      <c r="Q208">
-        <v>1</v>
-      </c>
-      <c r="T208" t="s">
+      <c r="R208">
+        <v>1</v>
+      </c>
+      <c r="U208" t="s">
         <v>505</v>
       </c>
-      <c r="X208" s="4" t="s">
-        <v>570</v>
-      </c>
-      <c r="Y208"/>
-    </row>
-    <row r="209" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Y208" s="4" t="s">
+        <v>570</v>
+      </c>
+      <c r="Z208"/>
+    </row>
+    <row r="209" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A209" t="s">
         <v>733</v>
       </c>
@@ -10173,13 +10404,16 @@
       <c r="K209" s="1"/>
       <c r="L209" s="1"/>
       <c r="M209" s="1"/>
-      <c r="N209" s="1"/>
-      <c r="X209" s="4" t="s">
-        <v>570</v>
-      </c>
-      <c r="Y209"/>
-    </row>
-    <row r="210" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="N209" s="1">
+        <v>1</v>
+      </c>
+      <c r="O209" s="1"/>
+      <c r="Y209" s="4" t="s">
+        <v>570</v>
+      </c>
+      <c r="Z209"/>
+    </row>
+    <row r="210" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A210" t="s">
         <v>733</v>
       </c>
@@ -10202,13 +10436,16 @@
       <c r="K210" s="1"/>
       <c r="L210" s="1"/>
       <c r="M210" s="1"/>
-      <c r="N210" s="1"/>
-      <c r="X210" s="4" t="s">
-        <v>570</v>
-      </c>
-      <c r="Y210"/>
-    </row>
-    <row r="211" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="N210" s="1">
+        <v>1</v>
+      </c>
+      <c r="O210" s="1"/>
+      <c r="Y210" s="4" t="s">
+        <v>570</v>
+      </c>
+      <c r="Z210"/>
+    </row>
+    <row r="211" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A211" t="s">
         <v>733</v>
       </c>
@@ -10229,24 +10466,24 @@
       </c>
       <c r="J211" s="1"/>
       <c r="K211" s="1"/>
-      <c r="N211">
-        <v>1</v>
-      </c>
-      <c r="R211" t="s">
+      <c r="O211">
+        <v>1</v>
+      </c>
+      <c r="S211" t="s">
         <v>566</v>
       </c>
-      <c r="S211" t="s">
+      <c r="T211" t="s">
         <v>3</v>
       </c>
-      <c r="T211" t="s">
+      <c r="U211" t="s">
         <v>373</v>
       </c>
-      <c r="X211" s="4" t="s">
-        <v>570</v>
-      </c>
-      <c r="Y211"/>
-    </row>
-    <row r="212" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Y211" s="4" t="s">
+        <v>570</v>
+      </c>
+      <c r="Z211"/>
+    </row>
+    <row r="212" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A212" t="s">
         <v>733</v>
       </c>
@@ -10267,24 +10504,24 @@
       </c>
       <c r="J212" s="1"/>
       <c r="K212" s="1"/>
-      <c r="N212">
-        <v>1</v>
-      </c>
-      <c r="R212" t="s">
+      <c r="O212">
+        <v>1</v>
+      </c>
+      <c r="S212" t="s">
         <v>566</v>
       </c>
-      <c r="S212" t="s">
+      <c r="T212" t="s">
         <v>3</v>
       </c>
-      <c r="T212" t="s">
+      <c r="U212" t="s">
         <v>373</v>
       </c>
-      <c r="X212" s="4" t="s">
-        <v>570</v>
-      </c>
-      <c r="Y212"/>
-    </row>
-    <row r="213" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Y212" s="4" t="s">
+        <v>570</v>
+      </c>
+      <c r="Z212"/>
+    </row>
+    <row r="213" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A213" t="s">
         <v>733</v>
       </c>
@@ -10303,12 +10540,12 @@
       <c r="H213">
         <v>1</v>
       </c>
-      <c r="X213" s="4" t="s">
-        <v>570</v>
-      </c>
-      <c r="Y213"/>
-    </row>
-    <row r="214" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Y213" s="4" t="s">
+        <v>570</v>
+      </c>
+      <c r="Z213"/>
+    </row>
+    <row r="214" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A214" t="s">
         <v>733</v>
       </c>
@@ -10337,13 +10574,14 @@
       <c r="L214" s="1"/>
       <c r="M214" s="1"/>
       <c r="N214" s="1"/>
-      <c r="U214" s="24"/>
-      <c r="X214" s="4" t="s">
-        <v>570</v>
-      </c>
-      <c r="Y214"/>
-    </row>
-    <row r="215" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="O214" s="1"/>
+      <c r="V214" s="24"/>
+      <c r="Y214" s="4" t="s">
+        <v>570</v>
+      </c>
+      <c r="Z214"/>
+    </row>
+    <row r="215" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A215" t="s">
         <v>733</v>
       </c>
@@ -10371,15 +10609,16 @@
       <c r="L215" s="1"/>
       <c r="M215" s="1"/>
       <c r="N215" s="1"/>
-      <c r="T215" t="s">
+      <c r="O215" s="1"/>
+      <c r="U215" t="s">
         <v>571</v>
       </c>
-      <c r="X215" s="4" t="s">
-        <v>570</v>
-      </c>
-      <c r="Y215"/>
-    </row>
-    <row r="216" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Y215" s="4" t="s">
+        <v>570</v>
+      </c>
+      <c r="Z215"/>
+    </row>
+    <row r="216" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A216" t="s">
         <v>733</v>
       </c>
@@ -10398,12 +10637,12 @@
       <c r="G216">
         <v>1</v>
       </c>
-      <c r="X216" s="4" t="s">
-        <v>570</v>
-      </c>
-      <c r="Y216"/>
-    </row>
-    <row r="217" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Y216" s="4" t="s">
+        <v>570</v>
+      </c>
+      <c r="Z216"/>
+    </row>
+    <row r="217" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A217" t="s">
         <v>733</v>
       </c>
@@ -10429,12 +10668,13 @@
       <c r="L217" s="1"/>
       <c r="M217" s="1"/>
       <c r="N217" s="1"/>
-      <c r="X217" s="4" t="s">
-        <v>570</v>
-      </c>
-      <c r="Y217"/>
-    </row>
-    <row r="218" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="O217" s="1"/>
+      <c r="Y217" s="4" t="s">
+        <v>570</v>
+      </c>
+      <c r="Z217"/>
+    </row>
+    <row r="218" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A218" t="s">
         <v>733</v>
       </c>
@@ -10460,12 +10700,13 @@
       </c>
       <c r="M218" s="1"/>
       <c r="N218" s="1"/>
-      <c r="X218" s="4" t="s">
-        <v>570</v>
-      </c>
-      <c r="Y218"/>
-    </row>
-    <row r="219" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="O218" s="1"/>
+      <c r="Y218" s="4" t="s">
+        <v>570</v>
+      </c>
+      <c r="Z218"/>
+    </row>
+    <row r="219" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A219" t="s">
         <v>733</v>
       </c>
@@ -10491,12 +10732,13 @@
       <c r="L219" s="1"/>
       <c r="M219" s="1"/>
       <c r="N219" s="1"/>
-      <c r="X219" s="4" t="s">
-        <v>570</v>
-      </c>
-      <c r="Y219"/>
-    </row>
-    <row r="220" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="O219" s="1"/>
+      <c r="Y219" s="4" t="s">
+        <v>570</v>
+      </c>
+      <c r="Z219"/>
+    </row>
+    <row r="220" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A220" t="s">
         <v>733</v>
       </c>
@@ -10524,15 +10766,16 @@
       <c r="L220" s="1"/>
       <c r="M220" s="1"/>
       <c r="N220" s="1"/>
-      <c r="T220" s="2" t="s">
+      <c r="O220" s="1"/>
+      <c r="U220" s="2" t="s">
         <v>542</v>
       </c>
-      <c r="X220" s="4" t="s">
-        <v>570</v>
-      </c>
-      <c r="Y220"/>
-    </row>
-    <row r="221" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Y220" s="4" t="s">
+        <v>570</v>
+      </c>
+      <c r="Z220"/>
+    </row>
+    <row r="221" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A221" t="s">
         <v>733</v>
       </c>
@@ -10561,15 +10804,16 @@
       <c r="L221" s="1"/>
       <c r="M221" s="1"/>
       <c r="N221" s="1"/>
-      <c r="T221" t="s">
+      <c r="O221" s="1"/>
+      <c r="U221" t="s">
         <v>556</v>
       </c>
-      <c r="X221" s="4" t="s">
-        <v>570</v>
-      </c>
-      <c r="Y221"/>
-    </row>
-    <row r="222" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Y221" s="4" t="s">
+        <v>570</v>
+      </c>
+      <c r="Z221"/>
+    </row>
+    <row r="222" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A222" t="s">
         <v>733</v>
       </c>
@@ -10595,12 +10839,13 @@
       <c r="L222" s="1"/>
       <c r="M222" s="1"/>
       <c r="N222" s="1"/>
-      <c r="X222" s="4" t="s">
-        <v>570</v>
-      </c>
-      <c r="Y222"/>
-    </row>
-    <row r="223" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="O222" s="1"/>
+      <c r="Y222" s="4" t="s">
+        <v>570</v>
+      </c>
+      <c r="Z222"/>
+    </row>
+    <row r="223" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A223" t="s">
         <v>733</v>
       </c>
@@ -10635,9 +10880,7 @@
         <v>1</v>
       </c>
       <c r="N223" s="1"/>
-      <c r="O223" t="s">
-        <v>481</v>
-      </c>
+      <c r="O223" s="1"/>
       <c r="P223" t="s">
         <v>481</v>
       </c>
@@ -10662,12 +10905,15 @@
       <c r="W223" t="s">
         <v>481</v>
       </c>
-      <c r="X223" s="4" t="s">
-        <v>570</v>
-      </c>
-      <c r="Y223"/>
-    </row>
-    <row r="224" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="X223" t="s">
+        <v>481</v>
+      </c>
+      <c r="Y223" s="4" t="s">
+        <v>570</v>
+      </c>
+      <c r="Z223"/>
+    </row>
+    <row r="224" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A224" t="s">
         <v>733</v>
       </c>
@@ -10694,12 +10940,13 @@
       <c r="L224" s="1"/>
       <c r="M224" s="1"/>
       <c r="N224" s="1"/>
-      <c r="X224" s="4" t="s">
-        <v>570</v>
-      </c>
-      <c r="Y224"/>
-    </row>
-    <row r="225" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="O224" s="1"/>
+      <c r="Y224" s="4" t="s">
+        <v>570</v>
+      </c>
+      <c r="Z224"/>
+    </row>
+    <row r="225" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A225" t="s">
         <v>733</v>
       </c>
@@ -10718,12 +10965,12 @@
       <c r="H225">
         <v>1</v>
       </c>
-      <c r="X225" s="4" t="s">
-        <v>570</v>
-      </c>
-      <c r="Y225"/>
-    </row>
-    <row r="226" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Y225" s="4" t="s">
+        <v>570</v>
+      </c>
+      <c r="Z225"/>
+    </row>
+    <row r="226" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A226" t="s">
         <v>733</v>
       </c>
@@ -10742,12 +10989,12 @@
       <c r="H226">
         <v>1</v>
       </c>
-      <c r="X226" s="4" t="s">
-        <v>570</v>
-      </c>
-      <c r="Y226"/>
-    </row>
-    <row r="227" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Y226" s="4" t="s">
+        <v>570</v>
+      </c>
+      <c r="Z226"/>
+    </row>
+    <row r="227" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A227" t="s">
         <v>733</v>
       </c>
@@ -10773,15 +11020,16 @@
       <c r="L227" s="1"/>
       <c r="M227" s="1"/>
       <c r="N227" s="1"/>
-      <c r="T227" t="s">
+      <c r="O227" s="1"/>
+      <c r="U227" t="s">
         <v>359</v>
       </c>
-      <c r="X227" s="4" t="s">
-        <v>570</v>
-      </c>
-      <c r="Y227"/>
-    </row>
-    <row r="228" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Y227" s="4" t="s">
+        <v>570</v>
+      </c>
+      <c r="Z227"/>
+    </row>
+    <row r="228" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A228" t="s">
         <v>733</v>
       </c>
@@ -10810,15 +11058,16 @@
       <c r="L228" s="1"/>
       <c r="M228" s="1"/>
       <c r="N228" s="1"/>
-      <c r="T228" t="s">
+      <c r="O228" s="1"/>
+      <c r="U228" t="s">
         <v>378</v>
       </c>
-      <c r="X228" s="4" t="s">
-        <v>570</v>
-      </c>
-      <c r="Y228"/>
-    </row>
-    <row r="229" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Y228" s="4" t="s">
+        <v>570</v>
+      </c>
+      <c r="Z228"/>
+    </row>
+    <row r="229" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A229" t="s">
         <v>733</v>
       </c>
@@ -10847,15 +11096,16 @@
       <c r="L229" s="1"/>
       <c r="M229" s="1"/>
       <c r="N229" s="1"/>
-      <c r="T229" t="s">
+      <c r="O229" s="1"/>
+      <c r="U229" t="s">
         <v>378</v>
       </c>
-      <c r="X229" s="4" t="s">
-        <v>570</v>
-      </c>
-      <c r="Y229"/>
-    </row>
-    <row r="230" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Y229" s="4" t="s">
+        <v>570</v>
+      </c>
+      <c r="Z229"/>
+    </row>
+    <row r="230" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A230" t="s">
         <v>733</v>
       </c>
@@ -10881,12 +11131,13 @@
       <c r="L230" s="1"/>
       <c r="M230" s="1"/>
       <c r="N230" s="1"/>
-      <c r="X230" s="4" t="s">
-        <v>570</v>
-      </c>
-      <c r="Y230"/>
-    </row>
-    <row r="231" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="O230" s="1"/>
+      <c r="Y230" s="4" t="s">
+        <v>570</v>
+      </c>
+      <c r="Z230"/>
+    </row>
+    <row r="231" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A231" t="s">
         <v>733</v>
       </c>
@@ -10912,12 +11163,13 @@
       <c r="L231" s="1"/>
       <c r="M231" s="1"/>
       <c r="N231" s="1"/>
-      <c r="X231" s="4" t="s">
-        <v>570</v>
-      </c>
-      <c r="Y231"/>
-    </row>
-    <row r="232" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="O231" s="1"/>
+      <c r="Y231" s="4" t="s">
+        <v>570</v>
+      </c>
+      <c r="Z231"/>
+    </row>
+    <row r="232" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A232" t="s">
         <v>733</v>
       </c>
@@ -10946,12 +11198,13 @@
       <c r="L232" s="1"/>
       <c r="M232" s="1"/>
       <c r="N232" s="1"/>
-      <c r="X232" s="4" t="s">
-        <v>570</v>
-      </c>
-      <c r="Y232"/>
-    </row>
-    <row r="233" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="O232" s="1"/>
+      <c r="Y232" s="4" t="s">
+        <v>570</v>
+      </c>
+      <c r="Z232"/>
+    </row>
+    <row r="233" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A233" t="s">
         <v>733</v>
       </c>
@@ -10977,12 +11230,13 @@
       <c r="L233" s="1"/>
       <c r="M233" s="1"/>
       <c r="N233" s="1"/>
-      <c r="X233" s="4" t="s">
-        <v>570</v>
-      </c>
-      <c r="Y233"/>
-    </row>
-    <row r="234" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="O233" s="1"/>
+      <c r="Y233" s="4" t="s">
+        <v>570</v>
+      </c>
+      <c r="Z233"/>
+    </row>
+    <row r="234" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A234" t="s">
         <v>733</v>
       </c>
@@ -11008,12 +11262,13 @@
       <c r="L234" s="1"/>
       <c r="M234" s="1"/>
       <c r="N234" s="1"/>
-      <c r="X234" s="4" t="s">
-        <v>570</v>
-      </c>
-      <c r="Y234"/>
-    </row>
-    <row r="235" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="O234" s="1"/>
+      <c r="Y234" s="4" t="s">
+        <v>570</v>
+      </c>
+      <c r="Z234"/>
+    </row>
+    <row r="235" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A235" t="s">
         <v>733</v>
       </c>
@@ -11039,12 +11294,13 @@
       <c r="L235" s="1"/>
       <c r="M235" s="1"/>
       <c r="N235" s="1"/>
-      <c r="X235" s="4" t="s">
-        <v>570</v>
-      </c>
-      <c r="Y235"/>
-    </row>
-    <row r="236" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="O235" s="1"/>
+      <c r="Y235" s="4" t="s">
+        <v>570</v>
+      </c>
+      <c r="Z235"/>
+    </row>
+    <row r="236" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A236" t="s">
         <v>733</v>
       </c>
@@ -11070,12 +11326,13 @@
       <c r="L236" s="1"/>
       <c r="M236" s="1"/>
       <c r="N236" s="1"/>
-      <c r="X236" s="4" t="s">
-        <v>570</v>
-      </c>
-      <c r="Y236"/>
-    </row>
-    <row r="237" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="O236" s="1"/>
+      <c r="Y236" s="4" t="s">
+        <v>570</v>
+      </c>
+      <c r="Z236"/>
+    </row>
+    <row r="237" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A237" t="s">
         <v>733</v>
       </c>
@@ -11101,12 +11358,13 @@
       <c r="L237" s="1"/>
       <c r="M237" s="1"/>
       <c r="N237" s="1"/>
-      <c r="X237" s="4" t="s">
-        <v>570</v>
-      </c>
-      <c r="Y237"/>
-    </row>
-    <row r="238" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="O237" s="1"/>
+      <c r="Y237" s="4" t="s">
+        <v>570</v>
+      </c>
+      <c r="Z237"/>
+    </row>
+    <row r="238" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A238" t="s">
         <v>733</v>
       </c>
@@ -11132,12 +11390,13 @@
       <c r="L238" s="1"/>
       <c r="M238" s="1"/>
       <c r="N238" s="1"/>
-      <c r="X238" s="4" t="s">
-        <v>570</v>
-      </c>
-      <c r="Y238"/>
-    </row>
-    <row r="239" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="O238" s="1"/>
+      <c r="Y238" s="4" t="s">
+        <v>570</v>
+      </c>
+      <c r="Z238"/>
+    </row>
+    <row r="239" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A239" t="s">
         <v>733</v>
       </c>
@@ -11163,12 +11422,13 @@
       <c r="L239" s="1"/>
       <c r="M239" s="1"/>
       <c r="N239" s="1"/>
-      <c r="X239" s="4" t="s">
-        <v>570</v>
-      </c>
-      <c r="Y239"/>
-    </row>
-    <row r="240" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="O239" s="1"/>
+      <c r="Y239" s="4" t="s">
+        <v>570</v>
+      </c>
+      <c r="Z239"/>
+    </row>
+    <row r="240" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A240" t="s">
         <v>733</v>
       </c>
@@ -11194,15 +11454,16 @@
       <c r="L240" s="1"/>
       <c r="M240" s="1"/>
       <c r="N240" s="1"/>
-      <c r="T240" t="s">
+      <c r="O240" s="1"/>
+      <c r="U240" t="s">
         <v>362</v>
       </c>
-      <c r="X240" s="4" t="s">
-        <v>570</v>
-      </c>
-      <c r="Y240"/>
-    </row>
-    <row r="241" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Y240" s="4" t="s">
+        <v>570</v>
+      </c>
+      <c r="Z240"/>
+    </row>
+    <row r="241" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A241" t="s">
         <v>733</v>
       </c>
@@ -11228,12 +11489,13 @@
       <c r="L241" s="1"/>
       <c r="M241" s="1"/>
       <c r="N241" s="1"/>
-      <c r="X241" s="4" t="s">
-        <v>570</v>
-      </c>
-      <c r="Y241"/>
-    </row>
-    <row r="242" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="O241" s="1"/>
+      <c r="Y241" s="4" t="s">
+        <v>570</v>
+      </c>
+      <c r="Z241"/>
+    </row>
+    <row r="242" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A242" t="s">
         <v>733</v>
       </c>
@@ -11259,12 +11521,13 @@
       <c r="L242" s="1"/>
       <c r="M242" s="1"/>
       <c r="N242" s="1"/>
-      <c r="X242" s="4" t="s">
-        <v>570</v>
-      </c>
-      <c r="Y242"/>
-    </row>
-    <row r="243" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="O242" s="1"/>
+      <c r="Y242" s="4" t="s">
+        <v>570</v>
+      </c>
+      <c r="Z242"/>
+    </row>
+    <row r="243" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A243" t="s">
         <v>733</v>
       </c>
@@ -11290,12 +11553,13 @@
       <c r="L243" s="1"/>
       <c r="M243" s="1"/>
       <c r="N243" s="1"/>
-      <c r="X243" s="4" t="s">
-        <v>570</v>
-      </c>
-      <c r="Y243"/>
-    </row>
-    <row r="244" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="O243" s="1"/>
+      <c r="Y243" s="4" t="s">
+        <v>570</v>
+      </c>
+      <c r="Z243"/>
+    </row>
+    <row r="244" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A244" t="s">
         <v>733</v>
       </c>
@@ -11321,15 +11585,16 @@
       <c r="L244" s="1"/>
       <c r="M244" s="1"/>
       <c r="N244" s="1"/>
-      <c r="T244" t="s">
+      <c r="O244" s="1"/>
+      <c r="U244" t="s">
         <v>473</v>
       </c>
-      <c r="X244" s="4" t="s">
-        <v>570</v>
-      </c>
-      <c r="Y244"/>
-    </row>
-    <row r="245" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Y244" s="4" t="s">
+        <v>570</v>
+      </c>
+      <c r="Z244"/>
+    </row>
+    <row r="245" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A245" t="s">
         <v>733</v>
       </c>
@@ -11355,12 +11620,13 @@
       <c r="L245" s="1"/>
       <c r="M245" s="1"/>
       <c r="N245" s="1"/>
-      <c r="X245" s="4" t="s">
-        <v>570</v>
-      </c>
-      <c r="Y245"/>
-    </row>
-    <row r="246" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="O245" s="1"/>
+      <c r="Y245" s="4" t="s">
+        <v>570</v>
+      </c>
+      <c r="Z245"/>
+    </row>
+    <row r="246" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A246" t="s">
         <v>733</v>
       </c>
@@ -11379,12 +11645,12 @@
       <c r="G246">
         <v>1</v>
       </c>
-      <c r="X246" s="4" t="s">
-        <v>570</v>
-      </c>
-      <c r="Y246"/>
-    </row>
-    <row r="247" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Y246" s="4" t="s">
+        <v>570</v>
+      </c>
+      <c r="Z246"/>
+    </row>
+    <row r="247" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A247" t="s">
         <v>733</v>
       </c>
@@ -11413,15 +11679,16 @@
       <c r="L247" s="1"/>
       <c r="M247" s="1"/>
       <c r="N247" s="1"/>
-      <c r="T247" s="2" t="s">
+      <c r="O247" s="1"/>
+      <c r="U247" s="2" t="s">
         <v>462</v>
       </c>
-      <c r="X247" s="4" t="s">
-        <v>570</v>
-      </c>
-      <c r="Y247"/>
-    </row>
-    <row r="248" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Y247" s="4" t="s">
+        <v>570</v>
+      </c>
+      <c r="Z247"/>
+    </row>
+    <row r="248" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A248" t="s">
         <v>733</v>
       </c>
@@ -11447,12 +11714,13 @@
       <c r="L248" s="1"/>
       <c r="M248" s="1"/>
       <c r="N248" s="1"/>
-      <c r="X248" s="4" t="s">
-        <v>570</v>
-      </c>
-      <c r="Y248"/>
-    </row>
-    <row r="249" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="O248" s="1"/>
+      <c r="Y248" s="4" t="s">
+        <v>570</v>
+      </c>
+      <c r="Z248"/>
+    </row>
+    <row r="249" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A249" t="s">
         <v>733</v>
       </c>
@@ -11471,12 +11739,12 @@
       <c r="G249">
         <v>1</v>
       </c>
-      <c r="X249" s="4" t="s">
-        <v>570</v>
-      </c>
-      <c r="Y249"/>
-    </row>
-    <row r="250" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Y249" s="4" t="s">
+        <v>570</v>
+      </c>
+      <c r="Z249"/>
+    </row>
+    <row r="250" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A250" t="s">
         <v>733</v>
       </c>
@@ -11495,12 +11763,12 @@
       <c r="G250">
         <v>1</v>
       </c>
-      <c r="X250" s="4" t="s">
-        <v>570</v>
-      </c>
-      <c r="Y250"/>
-    </row>
-    <row r="251" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Y250" s="4" t="s">
+        <v>570</v>
+      </c>
+      <c r="Z250"/>
+    </row>
+    <row r="251" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A251" t="s">
         <v>733</v>
       </c>
@@ -11523,12 +11791,12 @@
       <c r="I251" s="1"/>
       <c r="J251" s="1"/>
       <c r="K251" s="1"/>
-      <c r="X251" s="4" t="s">
-        <v>570</v>
-      </c>
-      <c r="Y251"/>
-    </row>
-    <row r="252" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Y251" s="4" t="s">
+        <v>570</v>
+      </c>
+      <c r="Z251"/>
+    </row>
+    <row r="252" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A252" t="s">
         <v>733</v>
       </c>
@@ -11557,12 +11825,13 @@
       <c r="L252" s="1"/>
       <c r="M252" s="1"/>
       <c r="N252" s="1"/>
-      <c r="X252" s="4" t="s">
-        <v>570</v>
-      </c>
-      <c r="Y252"/>
-    </row>
-    <row r="253" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="O252" s="1"/>
+      <c r="Y252" s="4" t="s">
+        <v>570</v>
+      </c>
+      <c r="Z252"/>
+    </row>
+    <row r="253" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A253" t="s">
         <v>733</v>
       </c>
@@ -11591,12 +11860,13 @@
       <c r="L253" s="1"/>
       <c r="M253" s="1"/>
       <c r="N253" s="1"/>
-      <c r="X253" s="4" t="s">
-        <v>570</v>
-      </c>
-      <c r="Y253"/>
-    </row>
-    <row r="254" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="O253" s="1"/>
+      <c r="Y253" s="4" t="s">
+        <v>570</v>
+      </c>
+      <c r="Z253"/>
+    </row>
+    <row r="254" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A254" t="s">
         <v>733</v>
       </c>
@@ -11622,12 +11892,13 @@
       </c>
       <c r="M254" s="1"/>
       <c r="N254" s="1"/>
-      <c r="X254" s="4" t="s">
-        <v>570</v>
-      </c>
-      <c r="Y254"/>
-    </row>
-    <row r="255" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="O254" s="1"/>
+      <c r="Y254" s="4" t="s">
+        <v>570</v>
+      </c>
+      <c r="Z254"/>
+    </row>
+    <row r="255" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A255" t="s">
         <v>733</v>
       </c>
@@ -11653,12 +11924,13 @@
       <c r="L255" s="1"/>
       <c r="M255" s="1"/>
       <c r="N255" s="1"/>
-      <c r="X255" s="4" t="s">
-        <v>570</v>
-      </c>
-      <c r="Y255"/>
-    </row>
-    <row r="256" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="O255" s="1"/>
+      <c r="Y255" s="4" t="s">
+        <v>570</v>
+      </c>
+      <c r="Z255"/>
+    </row>
+    <row r="256" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A256" t="s">
         <v>733</v>
       </c>
@@ -11677,12 +11949,12 @@
       <c r="H256">
         <v>1</v>
       </c>
-      <c r="X256" s="4" t="s">
-        <v>570</v>
-      </c>
-      <c r="Y256"/>
-    </row>
-    <row r="257" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Y256" s="4" t="s">
+        <v>570</v>
+      </c>
+      <c r="Z256"/>
+    </row>
+    <row r="257" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A257" t="s">
         <v>733</v>
       </c>
@@ -11701,12 +11973,12 @@
       <c r="H257">
         <v>1</v>
       </c>
-      <c r="X257" s="4" t="s">
-        <v>570</v>
-      </c>
-      <c r="Y257"/>
-    </row>
-    <row r="258" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Y257" s="4" t="s">
+        <v>570</v>
+      </c>
+      <c r="Z257"/>
+    </row>
+    <row r="258" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A258" t="s">
         <v>733</v>
       </c>
@@ -11725,15 +11997,15 @@
       <c r="K258">
         <v>1</v>
       </c>
-      <c r="U258" t="s">
+      <c r="V258" t="s">
         <v>592</v>
       </c>
-      <c r="X258" s="4" t="s">
-        <v>570</v>
-      </c>
-      <c r="Y258"/>
-    </row>
-    <row r="259" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Y258" s="4" t="s">
+        <v>570</v>
+      </c>
+      <c r="Z258"/>
+    </row>
+    <row r="259" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A259" t="s">
         <v>733</v>
       </c>
@@ -11762,15 +12034,16 @@
       <c r="L259" s="1"/>
       <c r="M259" s="1"/>
       <c r="N259" s="1"/>
-      <c r="T259" s="2" t="s">
+      <c r="O259" s="1"/>
+      <c r="U259" s="2" t="s">
         <v>405</v>
       </c>
-      <c r="X259" s="4" t="s">
-        <v>570</v>
-      </c>
-      <c r="Y259"/>
-    </row>
-    <row r="260" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Y259" s="4" t="s">
+        <v>570</v>
+      </c>
+      <c r="Z259"/>
+    </row>
+    <row r="260" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A260" s="25" t="s">
         <v>734</v>
       </c>
@@ -11796,22 +12069,23 @@
       <c r="K260" s="28"/>
       <c r="L260" s="27"/>
       <c r="M260" s="27"/>
-      <c r="N260" s="28"/>
-      <c r="O260" s="25"/>
+      <c r="N260" s="27"/>
+      <c r="O260" s="28"/>
       <c r="P260" s="25"/>
       <c r="Q260" s="25"/>
       <c r="R260" s="25"/>
       <c r="S260" s="25"/>
-      <c r="T260" s="32"/>
-      <c r="U260" s="25"/>
+      <c r="T260" s="25"/>
+      <c r="U260" s="32"/>
       <c r="V260" s="25"/>
       <c r="W260" s="25"/>
-      <c r="X260" s="4" t="s">
-        <v>570</v>
-      </c>
-      <c r="Y260"/>
-    </row>
-    <row r="261" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="X260" s="25"/>
+      <c r="Y260" s="4" t="s">
+        <v>570</v>
+      </c>
+      <c r="Z260"/>
+    </row>
+    <row r="261" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A261" t="s">
         <v>733</v>
       </c>
@@ -11837,15 +12111,16 @@
       <c r="L261" s="1"/>
       <c r="M261" s="1"/>
       <c r="N261" s="1"/>
-      <c r="T261" t="s">
+      <c r="O261" s="1"/>
+      <c r="U261" t="s">
         <v>371</v>
       </c>
-      <c r="X261" s="4" t="s">
-        <v>570</v>
-      </c>
-      <c r="Y261"/>
-    </row>
-    <row r="262" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Y261" s="4" t="s">
+        <v>570</v>
+      </c>
+      <c r="Z261"/>
+    </row>
+    <row r="262" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A262" t="s">
         <v>733</v>
       </c>
@@ -11871,13 +12146,16 @@
       <c r="K262" s="1"/>
       <c r="L262" s="1"/>
       <c r="M262" s="1"/>
-      <c r="N262" s="1"/>
-      <c r="X262" s="4" t="s">
-        <v>570</v>
-      </c>
-      <c r="Y262"/>
-    </row>
-    <row r="263" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="N262" s="1">
+        <v>1</v>
+      </c>
+      <c r="O262" s="1"/>
+      <c r="Y262" s="4" t="s">
+        <v>570</v>
+      </c>
+      <c r="Z262"/>
+    </row>
+    <row r="263" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A263" t="s">
         <v>733</v>
       </c>
@@ -11903,12 +12181,13 @@
       <c r="L263" s="1"/>
       <c r="M263" s="1"/>
       <c r="N263" s="1"/>
-      <c r="X263" s="4" t="s">
-        <v>570</v>
-      </c>
-      <c r="Y263"/>
-    </row>
-    <row r="264" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="O263" s="1"/>
+      <c r="Y263" s="4" t="s">
+        <v>570</v>
+      </c>
+      <c r="Z263"/>
+    </row>
+    <row r="264" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A264" t="s">
         <v>733</v>
       </c>
@@ -11931,13 +12210,16 @@
       <c r="K264" s="1"/>
       <c r="L264" s="1"/>
       <c r="M264" s="1"/>
-      <c r="N264" s="1"/>
-      <c r="X264" s="4" t="s">
-        <v>570</v>
-      </c>
-      <c r="Y264"/>
-    </row>
-    <row r="265" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="N264" s="1">
+        <v>1</v>
+      </c>
+      <c r="O264" s="1"/>
+      <c r="Y264" s="4" t="s">
+        <v>570</v>
+      </c>
+      <c r="Z264"/>
+    </row>
+    <row r="265" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A265" t="s">
         <v>733</v>
       </c>
@@ -11960,13 +12242,16 @@
       <c r="K265" s="1"/>
       <c r="L265" s="1"/>
       <c r="M265" s="1"/>
-      <c r="N265" s="1"/>
-      <c r="X265" s="4" t="s">
-        <v>570</v>
-      </c>
-      <c r="Y265"/>
-    </row>
-    <row r="266" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="N265" s="1">
+        <v>1</v>
+      </c>
+      <c r="O265" s="1"/>
+      <c r="Y265" s="4" t="s">
+        <v>570</v>
+      </c>
+      <c r="Z265"/>
+    </row>
+    <row r="266" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A266" t="s">
         <v>733</v>
       </c>
@@ -11992,12 +12277,13 @@
         <v>1</v>
       </c>
       <c r="N266" s="1"/>
-      <c r="X266" s="4" t="s">
-        <v>570</v>
-      </c>
-      <c r="Y266"/>
-    </row>
-    <row r="267" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="O266" s="1"/>
+      <c r="Y266" s="4" t="s">
+        <v>570</v>
+      </c>
+      <c r="Z266"/>
+    </row>
+    <row r="267" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A267" t="s">
         <v>733</v>
       </c>
@@ -12016,12 +12302,12 @@
       <c r="H267">
         <v>1</v>
       </c>
-      <c r="X267" s="4" t="s">
-        <v>570</v>
-      </c>
-      <c r="Y267"/>
-    </row>
-    <row r="268" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Y267" s="4" t="s">
+        <v>570</v>
+      </c>
+      <c r="Z267"/>
+    </row>
+    <row r="268" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A268" t="s">
         <v>733</v>
       </c>
@@ -12047,12 +12333,13 @@
       <c r="L268" s="1"/>
       <c r="M268" s="1"/>
       <c r="N268" s="1"/>
-      <c r="X268" s="4" t="s">
-        <v>570</v>
-      </c>
-      <c r="Y268"/>
-    </row>
-    <row r="269" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="O268" s="1"/>
+      <c r="Y268" s="4" t="s">
+        <v>570</v>
+      </c>
+      <c r="Z268"/>
+    </row>
+    <row r="269" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A269" t="s">
         <v>733</v>
       </c>
@@ -12078,12 +12365,13 @@
       </c>
       <c r="M269" s="1"/>
       <c r="N269" s="1"/>
-      <c r="X269" s="4" t="s">
-        <v>570</v>
-      </c>
-      <c r="Y269"/>
-    </row>
-    <row r="270" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="O269" s="1"/>
+      <c r="Y269" s="4" t="s">
+        <v>570</v>
+      </c>
+      <c r="Z269"/>
+    </row>
+    <row r="270" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A270" t="s">
         <v>733</v>
       </c>
@@ -12109,21 +12397,22 @@
       <c r="K270" s="1"/>
       <c r="L270" s="1"/>
       <c r="M270" s="1"/>
-      <c r="N270" s="1">
-        <v>1</v>
-      </c>
-      <c r="R270" t="s">
+      <c r="N270" s="1"/>
+      <c r="O270" s="1">
+        <v>1</v>
+      </c>
+      <c r="S270" t="s">
         <v>566</v>
       </c>
-      <c r="S270" t="s">
+      <c r="T270" t="s">
         <v>560</v>
       </c>
-      <c r="X270" s="4" t="s">
-        <v>570</v>
-      </c>
-      <c r="Y270"/>
-    </row>
-    <row r="271" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Y270" s="4" t="s">
+        <v>570</v>
+      </c>
+      <c r="Z270"/>
+    </row>
+    <row r="271" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A271" t="s">
         <v>733</v>
       </c>
@@ -12149,21 +12438,22 @@
       <c r="K271" s="1"/>
       <c r="L271" s="1"/>
       <c r="M271" s="1"/>
-      <c r="N271" s="1">
-        <v>1</v>
-      </c>
-      <c r="R271" t="s">
+      <c r="N271" s="1"/>
+      <c r="O271" s="1">
+        <v>1</v>
+      </c>
+      <c r="S271" t="s">
         <v>566</v>
       </c>
-      <c r="S271" t="s">
+      <c r="T271" t="s">
         <v>560</v>
       </c>
-      <c r="X271" s="4" t="s">
-        <v>570</v>
-      </c>
-      <c r="Y271"/>
-    </row>
-    <row r="272" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Y271" s="4" t="s">
+        <v>570</v>
+      </c>
+      <c r="Z271"/>
+    </row>
+    <row r="272" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A272" t="s">
         <v>733</v>
       </c>
@@ -12189,18 +12479,19 @@
       <c r="L272" s="1"/>
       <c r="M272" s="1"/>
       <c r="N272" s="1"/>
-      <c r="O272" t="s">
+      <c r="O272" s="1"/>
+      <c r="P272" t="s">
         <v>576</v>
       </c>
-      <c r="Q272">
-        <v>1</v>
-      </c>
-      <c r="X272" s="4" t="s">
-        <v>570</v>
-      </c>
-      <c r="Y272"/>
-    </row>
-    <row r="273" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="R272">
+        <v>1</v>
+      </c>
+      <c r="Y272" s="4" t="s">
+        <v>570</v>
+      </c>
+      <c r="Z272"/>
+    </row>
+    <row r="273" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A273" t="s">
         <v>733</v>
       </c>
@@ -12226,12 +12517,13 @@
       <c r="L273" s="1"/>
       <c r="M273" s="1"/>
       <c r="N273" s="1"/>
-      <c r="X273" s="4" t="s">
-        <v>570</v>
-      </c>
-      <c r="Y273"/>
-    </row>
-    <row r="274" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="O273" s="1"/>
+      <c r="Y273" s="4" t="s">
+        <v>570</v>
+      </c>
+      <c r="Z273"/>
+    </row>
+    <row r="274" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A274" t="s">
         <v>733</v>
       </c>
@@ -12257,15 +12549,16 @@
       <c r="L274" s="1"/>
       <c r="M274" s="1"/>
       <c r="N274" s="1"/>
-      <c r="T274" t="s">
+      <c r="O274" s="1"/>
+      <c r="U274" t="s">
         <v>379</v>
       </c>
-      <c r="X274" s="4" t="s">
-        <v>570</v>
-      </c>
-      <c r="Y274"/>
-    </row>
-    <row r="275" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Y274" s="4" t="s">
+        <v>570</v>
+      </c>
+      <c r="Z274"/>
+    </row>
+    <row r="275" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A275" t="s">
         <v>733</v>
       </c>
@@ -12291,12 +12584,13 @@
       </c>
       <c r="M275" s="1"/>
       <c r="N275" s="1"/>
-      <c r="X275" s="4" t="s">
-        <v>570</v>
-      </c>
-      <c r="Y275"/>
-    </row>
-    <row r="276" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="O275" s="1"/>
+      <c r="Y275" s="4" t="s">
+        <v>570</v>
+      </c>
+      <c r="Z275"/>
+    </row>
+    <row r="276" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A276" t="s">
         <v>733</v>
       </c>
@@ -12322,13 +12616,16 @@
       <c r="K276" s="1"/>
       <c r="L276" s="1"/>
       <c r="M276" s="1"/>
-      <c r="N276" s="1"/>
-      <c r="X276" s="4" t="s">
-        <v>570</v>
-      </c>
-      <c r="Y276"/>
-    </row>
-    <row r="277" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="N276" s="1">
+        <v>1</v>
+      </c>
+      <c r="O276" s="1"/>
+      <c r="Y276" s="4" t="s">
+        <v>570</v>
+      </c>
+      <c r="Z276"/>
+    </row>
+    <row r="277" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A277" t="s">
         <v>733</v>
       </c>
@@ -12354,12 +12651,13 @@
       </c>
       <c r="M277" s="1"/>
       <c r="N277" s="1"/>
-      <c r="X277" s="4" t="s">
-        <v>570</v>
-      </c>
-      <c r="Y277"/>
-    </row>
-    <row r="278" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="O277" s="1"/>
+      <c r="Y277" s="4" t="s">
+        <v>570</v>
+      </c>
+      <c r="Z277"/>
+    </row>
+    <row r="278" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A278" t="s">
         <v>733</v>
       </c>
@@ -12385,12 +12683,13 @@
       <c r="L278" s="1"/>
       <c r="M278" s="1"/>
       <c r="N278" s="1"/>
-      <c r="X278" s="4" t="s">
-        <v>570</v>
-      </c>
-      <c r="Y278"/>
-    </row>
-    <row r="279" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="O278" s="1"/>
+      <c r="Y278" s="4" t="s">
+        <v>570</v>
+      </c>
+      <c r="Z278"/>
+    </row>
+    <row r="279" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A279" t="s">
         <v>733</v>
       </c>
@@ -12413,13 +12712,16 @@
       <c r="K279" s="1"/>
       <c r="L279" s="1"/>
       <c r="M279" s="1"/>
-      <c r="N279" s="1"/>
-      <c r="X279" s="4" t="s">
-        <v>570</v>
-      </c>
-      <c r="Y279"/>
-    </row>
-    <row r="280" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="N279" s="1">
+        <v>1</v>
+      </c>
+      <c r="O279" s="1"/>
+      <c r="Y279" s="4" t="s">
+        <v>570</v>
+      </c>
+      <c r="Z279"/>
+    </row>
+    <row r="280" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A280" t="s">
         <v>733</v>
       </c>
@@ -12445,12 +12747,13 @@
       <c r="L280" s="1"/>
       <c r="M280" s="1"/>
       <c r="N280" s="1"/>
-      <c r="X280" s="4" t="s">
-        <v>570</v>
-      </c>
-      <c r="Y280"/>
-    </row>
-    <row r="281" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="O280" s="1"/>
+      <c r="Y280" s="4" t="s">
+        <v>570</v>
+      </c>
+      <c r="Z280"/>
+    </row>
+    <row r="281" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A281" t="s">
         <v>733</v>
       </c>
@@ -12476,12 +12779,13 @@
       <c r="L281" s="1"/>
       <c r="M281" s="1"/>
       <c r="N281" s="1"/>
-      <c r="X281" s="4" t="s">
-        <v>570</v>
-      </c>
-      <c r="Y281"/>
-    </row>
-    <row r="282" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="O281" s="1"/>
+      <c r="Y281" s="4" t="s">
+        <v>570</v>
+      </c>
+      <c r="Z281"/>
+    </row>
+    <row r="282" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A282" t="s">
         <v>733</v>
       </c>
@@ -12507,12 +12811,13 @@
       <c r="L282" s="1"/>
       <c r="M282" s="1"/>
       <c r="N282" s="1"/>
-      <c r="X282" s="4" t="s">
-        <v>570</v>
-      </c>
-      <c r="Y282"/>
-    </row>
-    <row r="283" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="O282" s="1"/>
+      <c r="Y282" s="4" t="s">
+        <v>570</v>
+      </c>
+      <c r="Z282"/>
+    </row>
+    <row r="283" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A283" t="s">
         <v>733</v>
       </c>
@@ -12538,12 +12843,13 @@
       <c r="L283" s="1"/>
       <c r="M283" s="1"/>
       <c r="N283" s="1"/>
-      <c r="X283" s="4" t="s">
-        <v>570</v>
-      </c>
-      <c r="Y283"/>
-    </row>
-    <row r="284" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="O283" s="1"/>
+      <c r="Y283" s="4" t="s">
+        <v>570</v>
+      </c>
+      <c r="Z283"/>
+    </row>
+    <row r="284" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A284" t="s">
         <v>733</v>
       </c>
@@ -12568,13 +12874,16 @@
       <c r="K284" s="1"/>
       <c r="L284" s="1"/>
       <c r="M284" s="1"/>
-      <c r="N284" s="1"/>
-      <c r="X284" s="4" t="s">
-        <v>570</v>
-      </c>
-      <c r="Y284"/>
-    </row>
-    <row r="285" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="N284" s="1">
+        <v>1</v>
+      </c>
+      <c r="O284" s="1"/>
+      <c r="Y284" s="4" t="s">
+        <v>570</v>
+      </c>
+      <c r="Z284"/>
+    </row>
+    <row r="285" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A285" t="s">
         <v>733</v>
       </c>
@@ -12599,13 +12908,16 @@
       <c r="K285" s="1"/>
       <c r="L285" s="1"/>
       <c r="M285" s="1"/>
-      <c r="N285" s="1"/>
-      <c r="X285" s="4" t="s">
-        <v>570</v>
-      </c>
-      <c r="Y285"/>
-    </row>
-    <row r="286" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="N285" s="1">
+        <v>1</v>
+      </c>
+      <c r="O285" s="1"/>
+      <c r="Y285" s="4" t="s">
+        <v>570</v>
+      </c>
+      <c r="Z285"/>
+    </row>
+    <row r="286" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A286" t="s">
         <v>733</v>
       </c>
@@ -12631,12 +12943,13 @@
       <c r="L286" s="1"/>
       <c r="M286" s="1"/>
       <c r="N286" s="1"/>
-      <c r="X286" s="4" t="s">
-        <v>570</v>
-      </c>
-      <c r="Y286"/>
-    </row>
-    <row r="287" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="O286" s="1"/>
+      <c r="Y286" s="4" t="s">
+        <v>570</v>
+      </c>
+      <c r="Z286"/>
+    </row>
+    <row r="287" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A287" t="s">
         <v>733</v>
       </c>
@@ -12667,20 +12980,21 @@
       <c r="L287" s="1"/>
       <c r="M287" s="1"/>
       <c r="N287" s="1"/>
-      <c r="T287" t="s">
+      <c r="O287" s="1"/>
+      <c r="U287" t="s">
         <v>357</v>
       </c>
-      <c r="U287" s="2" t="s">
+      <c r="V287" s="2" t="s">
         <v>346</v>
       </c>
-      <c r="V287" s="2"/>
       <c r="W287" s="2"/>
-      <c r="X287" s="4" t="s">
-        <v>570</v>
-      </c>
-      <c r="Y287"/>
-    </row>
-    <row r="288" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="X287" s="2"/>
+      <c r="Y287" s="4" t="s">
+        <v>570</v>
+      </c>
+      <c r="Z287"/>
+    </row>
+    <row r="288" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A288" t="s">
         <v>733</v>
       </c>
@@ -12699,15 +13013,15 @@
       <c r="I288">
         <v>1</v>
       </c>
-      <c r="T288" t="s">
+      <c r="U288" t="s">
         <v>353</v>
       </c>
-      <c r="X288" s="4" t="s">
-        <v>570</v>
-      </c>
-      <c r="Y288"/>
-    </row>
-    <row r="289" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Y288" s="4" t="s">
+        <v>570</v>
+      </c>
+      <c r="Z288"/>
+    </row>
+    <row r="289" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A289" t="s">
         <v>733</v>
       </c>
@@ -12726,15 +13040,15 @@
       <c r="I289">
         <v>1</v>
       </c>
-      <c r="T289" t="s">
+      <c r="U289" t="s">
         <v>353</v>
       </c>
-      <c r="X289" s="4" t="s">
-        <v>570</v>
-      </c>
-      <c r="Y289"/>
-    </row>
-    <row r="290" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Y289" s="4" t="s">
+        <v>570</v>
+      </c>
+      <c r="Z289"/>
+    </row>
+    <row r="290" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A290" s="25" t="s">
         <v>734</v>
       </c>
@@ -12760,24 +13074,25 @@
       <c r="K290" s="28"/>
       <c r="L290" s="27"/>
       <c r="M290" s="27"/>
-      <c r="N290" s="28"/>
-      <c r="O290" s="25"/>
+      <c r="N290" s="27"/>
+      <c r="O290" s="28"/>
       <c r="P290" s="25"/>
       <c r="Q290" s="25"/>
       <c r="R290" s="25"/>
       <c r="S290" s="25"/>
-      <c r="T290" s="32" t="s">
+      <c r="T290" s="25"/>
+      <c r="U290" s="32" t="s">
         <v>761</v>
       </c>
-      <c r="U290" s="25"/>
       <c r="V290" s="25"/>
       <c r="W290" s="25"/>
-      <c r="X290" s="4" t="s">
-        <v>570</v>
-      </c>
-      <c r="Y290"/>
-    </row>
-    <row r="291" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="X290" s="25"/>
+      <c r="Y290" s="4" t="s">
+        <v>570</v>
+      </c>
+      <c r="Z290"/>
+    </row>
+    <row r="291" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A291" t="s">
         <v>733</v>
       </c>
@@ -12803,12 +13118,13 @@
       <c r="L291" s="1"/>
       <c r="M291" s="1"/>
       <c r="N291" s="1"/>
-      <c r="X291" s="4" t="s">
-        <v>570</v>
-      </c>
-      <c r="Y291"/>
-    </row>
-    <row r="292" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="O291" s="1"/>
+      <c r="Y291" s="4" t="s">
+        <v>570</v>
+      </c>
+      <c r="Z291"/>
+    </row>
+    <row r="292" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A292" t="s">
         <v>733</v>
       </c>
@@ -12834,15 +13150,16 @@
       <c r="L292" s="1"/>
       <c r="M292" s="1"/>
       <c r="N292" s="1"/>
-      <c r="T292" s="2" t="s">
+      <c r="O292" s="1"/>
+      <c r="U292" s="2" t="s">
         <v>441</v>
       </c>
-      <c r="X292" s="4" t="s">
-        <v>570</v>
-      </c>
-      <c r="Y292"/>
-    </row>
-    <row r="293" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Y292" s="4" t="s">
+        <v>570</v>
+      </c>
+      <c r="Z292"/>
+    </row>
+    <row r="293" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A293" t="s">
         <v>733</v>
       </c>
@@ -12868,15 +13185,16 @@
       <c r="L293" s="1"/>
       <c r="M293" s="1"/>
       <c r="N293" s="1"/>
-      <c r="T293" t="s">
+      <c r="O293" s="1"/>
+      <c r="U293" t="s">
         <v>428</v>
       </c>
-      <c r="X293" s="4" t="s">
-        <v>570</v>
-      </c>
-      <c r="Y293"/>
-    </row>
-    <row r="294" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Y293" s="4" t="s">
+        <v>570</v>
+      </c>
+      <c r="Z293"/>
+    </row>
+    <row r="294" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A294" t="s">
         <v>733</v>
       </c>
@@ -12904,18 +13222,19 @@
         <v>1</v>
       </c>
       <c r="N294" s="1"/>
-      <c r="O294" t="s">
+      <c r="O294" s="1"/>
+      <c r="P294" t="s">
         <v>576</v>
       </c>
-      <c r="Q294">
+      <c r="R294">
         <v>2</v>
       </c>
-      <c r="X294" s="4" t="s">
-        <v>570</v>
-      </c>
-      <c r="Y294"/>
-    </row>
-    <row r="295" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Y294" s="4" t="s">
+        <v>570</v>
+      </c>
+      <c r="Z294"/>
+    </row>
+    <row r="295" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A295" t="s">
         <v>733</v>
       </c>
@@ -12941,13 +13260,16 @@
       <c r="K295" s="1"/>
       <c r="L295" s="1"/>
       <c r="M295" s="1"/>
-      <c r="N295" s="1"/>
-      <c r="X295" s="4" t="s">
-        <v>570</v>
-      </c>
-      <c r="Y295"/>
-    </row>
-    <row r="296" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="N295" s="1">
+        <v>1</v>
+      </c>
+      <c r="O295" s="1"/>
+      <c r="Y295" s="4" t="s">
+        <v>570</v>
+      </c>
+      <c r="Z295"/>
+    </row>
+    <row r="296" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A296" t="s">
         <v>733</v>
       </c>
@@ -12973,12 +13295,13 @@
       <c r="L296" s="1"/>
       <c r="M296" s="1"/>
       <c r="N296" s="1"/>
-      <c r="X296" s="4" t="s">
-        <v>570</v>
-      </c>
-      <c r="Y296"/>
-    </row>
-    <row r="297" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="O296" s="1"/>
+      <c r="Y296" s="4" t="s">
+        <v>570</v>
+      </c>
+      <c r="Z296"/>
+    </row>
+    <row r="297" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A297" t="s">
         <v>733</v>
       </c>
@@ -13006,21 +13329,22 @@
       <c r="L297" s="1"/>
       <c r="M297" s="1"/>
       <c r="N297" s="1"/>
-      <c r="O297" t="s">
+      <c r="O297" s="1"/>
+      <c r="P297" t="s">
         <v>576</v>
       </c>
-      <c r="P297" t="s">
+      <c r="Q297" t="s">
         <v>580</v>
       </c>
-      <c r="Q297">
+      <c r="R297">
         <v>0</v>
       </c>
-      <c r="X297" s="4" t="s">
-        <v>570</v>
-      </c>
-      <c r="Y297"/>
-    </row>
-    <row r="298" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Y297" s="4" t="s">
+        <v>570</v>
+      </c>
+      <c r="Z297"/>
+    </row>
+    <row r="298" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A298" t="s">
         <v>733</v>
       </c>
@@ -13046,12 +13370,13 @@
       </c>
       <c r="M298" s="1"/>
       <c r="N298" s="1"/>
-      <c r="X298" s="4" t="s">
-        <v>570</v>
-      </c>
-      <c r="Y298"/>
-    </row>
-    <row r="299" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="O298" s="1"/>
+      <c r="Y298" s="4" t="s">
+        <v>570</v>
+      </c>
+      <c r="Z298"/>
+    </row>
+    <row r="299" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A299" t="s">
         <v>733</v>
       </c>
@@ -13080,12 +13405,13 @@
       <c r="L299" s="1"/>
       <c r="M299" s="1"/>
       <c r="N299" s="1"/>
-      <c r="X299" s="4" t="s">
-        <v>570</v>
-      </c>
-      <c r="Y299"/>
-    </row>
-    <row r="300" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="O299" s="1"/>
+      <c r="Y299" s="4" t="s">
+        <v>570</v>
+      </c>
+      <c r="Z299"/>
+    </row>
+    <row r="300" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A300" t="s">
         <v>733</v>
       </c>
@@ -13111,12 +13437,13 @@
       <c r="L300" s="1"/>
       <c r="M300" s="1"/>
       <c r="N300" s="1"/>
-      <c r="X300" s="4" t="s">
-        <v>570</v>
-      </c>
-      <c r="Y300"/>
-    </row>
-    <row r="301" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="O300" s="1"/>
+      <c r="Y300" s="4" t="s">
+        <v>570</v>
+      </c>
+      <c r="Z300"/>
+    </row>
+    <row r="301" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A301" t="s">
         <v>733</v>
       </c>
@@ -13142,12 +13469,13 @@
       <c r="L301" s="1"/>
       <c r="M301" s="1"/>
       <c r="N301" s="1"/>
-      <c r="X301" s="4" t="s">
-        <v>570</v>
-      </c>
-      <c r="Y301"/>
-    </row>
-    <row r="302" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="O301" s="1"/>
+      <c r="Y301" s="4" t="s">
+        <v>570</v>
+      </c>
+      <c r="Z301"/>
+    </row>
+    <row r="302" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A302" t="s">
         <v>733</v>
       </c>
@@ -13173,15 +13501,16 @@
       <c r="L302" s="1"/>
       <c r="M302" s="1"/>
       <c r="N302" s="1"/>
-      <c r="T302" t="s">
+      <c r="O302" s="1"/>
+      <c r="U302" t="s">
         <v>426</v>
       </c>
-      <c r="X302" s="4" t="s">
-        <v>570</v>
-      </c>
-      <c r="Y302"/>
-    </row>
-    <row r="303" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Y302" s="4" t="s">
+        <v>570</v>
+      </c>
+      <c r="Z302"/>
+    </row>
+    <row r="303" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A303" s="25" t="s">
         <v>734</v>
       </c>
@@ -13209,24 +13538,25 @@
       <c r="K303" s="28"/>
       <c r="L303" s="27"/>
       <c r="M303" s="27"/>
-      <c r="N303" s="28"/>
-      <c r="O303" s="25"/>
+      <c r="N303" s="27"/>
+      <c r="O303" s="28"/>
       <c r="P303" s="25"/>
       <c r="Q303" s="25"/>
       <c r="R303" s="25"/>
       <c r="S303" s="25"/>
-      <c r="T303" s="25" t="s">
+      <c r="T303" s="25"/>
+      <c r="U303" s="25" t="s">
         <v>763</v>
       </c>
-      <c r="U303" s="25"/>
       <c r="V303" s="25"/>
       <c r="W303" s="25"/>
-      <c r="X303" s="4" t="s">
-        <v>570</v>
-      </c>
-      <c r="Y303"/>
-    </row>
-    <row r="304" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="X303" s="25"/>
+      <c r="Y303" s="4" t="s">
+        <v>570</v>
+      </c>
+      <c r="Z303"/>
+    </row>
+    <row r="304" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A304" t="s">
         <v>733</v>
       </c>
@@ -13252,12 +13582,13 @@
       </c>
       <c r="M304" s="1"/>
       <c r="N304" s="1"/>
-      <c r="X304" s="4" t="s">
-        <v>570</v>
-      </c>
-      <c r="Y304"/>
-    </row>
-    <row r="305" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="O304" s="1"/>
+      <c r="Y304" s="4" t="s">
+        <v>570</v>
+      </c>
+      <c r="Z304"/>
+    </row>
+    <row r="305" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A305" t="s">
         <v>733</v>
       </c>
@@ -13283,12 +13614,13 @@
       </c>
       <c r="M305" s="1"/>
       <c r="N305" s="1"/>
-      <c r="X305" s="4" t="s">
-        <v>570</v>
-      </c>
-      <c r="Y305"/>
-    </row>
-    <row r="306" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="O305" s="1"/>
+      <c r="Y305" s="4" t="s">
+        <v>570</v>
+      </c>
+      <c r="Z305"/>
+    </row>
+    <row r="306" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A306" t="s">
         <v>733</v>
       </c>
@@ -13314,15 +13646,16 @@
       <c r="L306" s="1"/>
       <c r="M306" s="1"/>
       <c r="N306" s="1"/>
-      <c r="T306" t="s">
+      <c r="O306" s="1"/>
+      <c r="U306" t="s">
         <v>514</v>
       </c>
-      <c r="X306" s="4" t="s">
-        <v>570</v>
-      </c>
-      <c r="Y306"/>
-    </row>
-    <row r="307" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Y306" s="4" t="s">
+        <v>570</v>
+      </c>
+      <c r="Z306"/>
+    </row>
+    <row r="307" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A307" t="s">
         <v>733</v>
       </c>
@@ -13348,12 +13681,13 @@
       </c>
       <c r="M307" s="1"/>
       <c r="N307" s="1"/>
-      <c r="X307" s="4" t="s">
-        <v>570</v>
-      </c>
-      <c r="Y307"/>
-    </row>
-    <row r="308" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="O307" s="1"/>
+      <c r="Y307" s="4" t="s">
+        <v>570</v>
+      </c>
+      <c r="Z307"/>
+    </row>
+    <row r="308" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A308" t="s">
         <v>733</v>
       </c>
@@ -13378,22 +13712,25 @@
       <c r="K308" s="1"/>
       <c r="L308" s="1"/>
       <c r="M308" s="1"/>
-      <c r="N308" s="1"/>
-      <c r="O308" t="s">
+      <c r="N308" s="1">
+        <v>1</v>
+      </c>
+      <c r="O308" s="1"/>
+      <c r="P308" t="s">
         <v>576</v>
       </c>
-      <c r="P308" t="s">
+      <c r="Q308" t="s">
         <v>581</v>
       </c>
-      <c r="Q308">
-        <v>1</v>
-      </c>
-      <c r="X308" s="4" t="s">
-        <v>570</v>
-      </c>
-      <c r="Y308"/>
-    </row>
-    <row r="309" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="R308">
+        <v>1</v>
+      </c>
+      <c r="Y308" s="4" t="s">
+        <v>570</v>
+      </c>
+      <c r="Z308"/>
+    </row>
+    <row r="309" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A309" t="s">
         <v>733</v>
       </c>
@@ -13422,13 +13759,14 @@
       <c r="L309" s="1"/>
       <c r="M309" s="1"/>
       <c r="N309" s="1"/>
-      <c r="U309" s="24"/>
-      <c r="X309" s="4" t="s">
-        <v>570</v>
-      </c>
-      <c r="Y309"/>
-    </row>
-    <row r="310" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="O309" s="1"/>
+      <c r="V309" s="24"/>
+      <c r="Y309" s="4" t="s">
+        <v>570</v>
+      </c>
+      <c r="Z309"/>
+    </row>
+    <row r="310" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A310" t="s">
         <v>733</v>
       </c>
@@ -13454,12 +13792,13 @@
       <c r="L310" s="1"/>
       <c r="M310" s="1"/>
       <c r="N310" s="1"/>
-      <c r="X310" s="4" t="s">
-        <v>570</v>
-      </c>
-      <c r="Y310"/>
-    </row>
-    <row r="311" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="O310" s="1"/>
+      <c r="Y310" s="4" t="s">
+        <v>570</v>
+      </c>
+      <c r="Z310"/>
+    </row>
+    <row r="311" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A311" t="s">
         <v>733</v>
       </c>
@@ -13485,12 +13824,13 @@
       <c r="L311" s="1"/>
       <c r="M311" s="1"/>
       <c r="N311" s="1"/>
-      <c r="X311" s="4" t="s">
-        <v>570</v>
-      </c>
-      <c r="Y311"/>
-    </row>
-    <row r="312" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="O311" s="1"/>
+      <c r="Y311" s="4" t="s">
+        <v>570</v>
+      </c>
+      <c r="Z311"/>
+    </row>
+    <row r="312" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A312" t="s">
         <v>733</v>
       </c>
@@ -13516,15 +13856,16 @@
       <c r="L312" s="1"/>
       <c r="M312" s="1"/>
       <c r="N312" s="1"/>
-      <c r="T312" t="s">
+      <c r="O312" s="1"/>
+      <c r="U312" t="s">
         <v>360</v>
       </c>
-      <c r="X312" s="4" t="s">
-        <v>570</v>
-      </c>
-      <c r="Y312"/>
-    </row>
-    <row r="313" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Y312" s="4" t="s">
+        <v>570</v>
+      </c>
+      <c r="Z312"/>
+    </row>
+    <row r="313" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A313" t="s">
         <v>733</v>
       </c>
@@ -13550,12 +13891,13 @@
       </c>
       <c r="M313" s="1"/>
       <c r="N313" s="1"/>
-      <c r="X313" s="4" t="s">
-        <v>570</v>
-      </c>
-      <c r="Y313"/>
-    </row>
-    <row r="314" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="O313" s="1"/>
+      <c r="Y313" s="4" t="s">
+        <v>570</v>
+      </c>
+      <c r="Z313"/>
+    </row>
+    <row r="314" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A314" t="s">
         <v>733</v>
       </c>
@@ -13581,12 +13923,13 @@
       <c r="L314" s="1"/>
       <c r="M314" s="1"/>
       <c r="N314" s="1"/>
-      <c r="X314" s="4" t="s">
-        <v>570</v>
-      </c>
-      <c r="Y314"/>
-    </row>
-    <row r="315" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="O314" s="1"/>
+      <c r="Y314" s="4" t="s">
+        <v>570</v>
+      </c>
+      <c r="Z314"/>
+    </row>
+    <row r="315" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A315" t="s">
         <v>733</v>
       </c>
@@ -13612,12 +13955,13 @@
       </c>
       <c r="M315" s="1"/>
       <c r="N315" s="1"/>
-      <c r="X315" s="4" t="s">
-        <v>570</v>
-      </c>
-      <c r="Y315"/>
-    </row>
-    <row r="316" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="O315" s="1"/>
+      <c r="Y315" s="4" t="s">
+        <v>570</v>
+      </c>
+      <c r="Z315"/>
+    </row>
+    <row r="316" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A316" s="25" t="s">
         <v>734</v>
       </c>
@@ -13643,8 +13987,10 @@
       <c r="K316" s="28"/>
       <c r="L316" s="27"/>
       <c r="M316" s="27"/>
-      <c r="N316" s="28"/>
-      <c r="O316" s="25"/>
+      <c r="N316" s="27">
+        <v>1</v>
+      </c>
+      <c r="O316" s="28"/>
       <c r="P316" s="25"/>
       <c r="Q316" s="25"/>
       <c r="R316" s="25"/>
@@ -13653,12 +13999,13 @@
       <c r="U316" s="25"/>
       <c r="V316" s="25"/>
       <c r="W316" s="25"/>
-      <c r="X316" s="4" t="s">
-        <v>570</v>
-      </c>
-      <c r="Y316"/>
-    </row>
-    <row r="317" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="X316" s="25"/>
+      <c r="Y316" s="4" t="s">
+        <v>570</v>
+      </c>
+      <c r="Z316"/>
+    </row>
+    <row r="317" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A317" t="s">
         <v>733</v>
       </c>
@@ -13683,21 +14030,22 @@
       <c r="K317" s="1"/>
       <c r="L317" s="1"/>
       <c r="M317" s="1"/>
-      <c r="N317" s="1">
-        <v>1</v>
-      </c>
-      <c r="R317" t="s">
+      <c r="N317" s="1"/>
+      <c r="O317" s="1">
+        <v>1</v>
+      </c>
+      <c r="S317" t="s">
         <v>566</v>
       </c>
-      <c r="S317" t="s">
+      <c r="T317" t="s">
         <v>561</v>
       </c>
-      <c r="X317" s="4" t="s">
-        <v>570</v>
-      </c>
-      <c r="Y317"/>
-    </row>
-    <row r="318" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Y317" s="4" t="s">
+        <v>570</v>
+      </c>
+      <c r="Z317"/>
+    </row>
+    <row r="318" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A318" t="s">
         <v>733</v>
       </c>
@@ -13722,21 +14070,22 @@
       <c r="K318" s="1"/>
       <c r="L318" s="1"/>
       <c r="M318" s="1"/>
-      <c r="N318" s="1">
-        <v>1</v>
-      </c>
-      <c r="R318" t="s">
+      <c r="N318" s="1"/>
+      <c r="O318" s="1">
+        <v>1</v>
+      </c>
+      <c r="S318" t="s">
         <v>566</v>
       </c>
-      <c r="S318" t="s">
+      <c r="T318" t="s">
         <v>561</v>
       </c>
-      <c r="X318" s="4" t="s">
-        <v>570</v>
-      </c>
-      <c r="Y318"/>
-    </row>
-    <row r="319" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Y318" s="4" t="s">
+        <v>570</v>
+      </c>
+      <c r="Z318"/>
+    </row>
+    <row r="319" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A319" t="s">
         <v>733</v>
       </c>
@@ -13766,12 +14115,13 @@
         <v>1</v>
       </c>
       <c r="N319" s="1"/>
-      <c r="X319" s="4" t="s">
-        <v>570</v>
-      </c>
-      <c r="Y319"/>
-    </row>
-    <row r="320" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="O319" s="1"/>
+      <c r="Y319" s="4" t="s">
+        <v>570</v>
+      </c>
+      <c r="Z319"/>
+    </row>
+    <row r="320" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A320" t="s">
         <v>733</v>
       </c>
@@ -13797,19 +14147,20 @@
       <c r="L320" s="1"/>
       <c r="M320" s="1"/>
       <c r="N320" s="1"/>
-      <c r="O320" s="2" t="s">
+      <c r="O320" s="1"/>
+      <c r="P320" s="2" t="s">
         <v>578</v>
       </c>
-      <c r="P320" s="2"/>
-      <c r="Q320" s="2">
+      <c r="Q320" s="2"/>
+      <c r="R320" s="2">
         <v>-1</v>
       </c>
-      <c r="X320" s="4" t="s">
-        <v>570</v>
-      </c>
-      <c r="Y320"/>
-    </row>
-    <row r="321" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Y320" s="4" t="s">
+        <v>570</v>
+      </c>
+      <c r="Z320"/>
+    </row>
+    <row r="321" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A321" t="s">
         <v>733</v>
       </c>
@@ -13835,12 +14186,13 @@
       <c r="L321" s="1"/>
       <c r="M321" s="1"/>
       <c r="N321" s="1"/>
-      <c r="X321" s="4" t="s">
-        <v>570</v>
-      </c>
-      <c r="Y321"/>
-    </row>
-    <row r="322" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="O321" s="1"/>
+      <c r="Y321" s="4" t="s">
+        <v>570</v>
+      </c>
+      <c r="Z321"/>
+    </row>
+    <row r="322" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A322" t="s">
         <v>733</v>
       </c>
@@ -13866,15 +14218,16 @@
       <c r="L322" s="1"/>
       <c r="M322" s="1"/>
       <c r="N322" s="1"/>
-      <c r="T322" t="s">
+      <c r="O322" s="1"/>
+      <c r="U322" t="s">
         <v>368</v>
       </c>
-      <c r="X322" s="4" t="s">
-        <v>570</v>
-      </c>
-      <c r="Y322"/>
-    </row>
-    <row r="323" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Y322" s="4" t="s">
+        <v>570</v>
+      </c>
+      <c r="Z322"/>
+    </row>
+    <row r="323" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A323" t="s">
         <v>733</v>
       </c>
@@ -13900,15 +14253,16 @@
       <c r="L323" s="1"/>
       <c r="M323" s="1"/>
       <c r="N323" s="1"/>
-      <c r="T323" t="s">
+      <c r="O323" s="1"/>
+      <c r="U323" t="s">
         <v>368</v>
       </c>
-      <c r="X323" s="4" t="s">
-        <v>570</v>
-      </c>
-      <c r="Y323"/>
-    </row>
-    <row r="324" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Y323" s="4" t="s">
+        <v>570</v>
+      </c>
+      <c r="Z323"/>
+    </row>
+    <row r="324" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A324" t="s">
         <v>733</v>
       </c>
@@ -13934,15 +14288,16 @@
       <c r="L324" s="1"/>
       <c r="M324" s="1"/>
       <c r="N324" s="1"/>
-      <c r="T324" t="s">
+      <c r="O324" s="1"/>
+      <c r="U324" t="s">
         <v>368</v>
       </c>
-      <c r="X324" s="4" t="s">
-        <v>570</v>
-      </c>
-      <c r="Y324"/>
-    </row>
-    <row r="325" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Y324" s="4" t="s">
+        <v>570</v>
+      </c>
+      <c r="Z324"/>
+    </row>
+    <row r="325" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A325" t="s">
         <v>733</v>
       </c>
@@ -13968,15 +14323,16 @@
       <c r="L325" s="1"/>
       <c r="M325" s="1"/>
       <c r="N325" s="1"/>
-      <c r="T325" t="s">
+      <c r="O325" s="1"/>
+      <c r="U325" t="s">
         <v>368</v>
       </c>
-      <c r="X325" s="4" t="s">
-        <v>570</v>
-      </c>
-      <c r="Y325"/>
-    </row>
-    <row r="326" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Y325" s="4" t="s">
+        <v>570</v>
+      </c>
+      <c r="Z325"/>
+    </row>
+    <row r="326" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A326" t="s">
         <v>733</v>
       </c>
@@ -14002,15 +14358,16 @@
       <c r="L326" s="1"/>
       <c r="M326" s="1"/>
       <c r="N326" s="1"/>
-      <c r="T326" t="s">
+      <c r="O326" s="1"/>
+      <c r="U326" t="s">
         <v>368</v>
       </c>
-      <c r="X326" s="4" t="s">
-        <v>570</v>
-      </c>
-      <c r="Y326"/>
-    </row>
-    <row r="327" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Y326" s="4" t="s">
+        <v>570</v>
+      </c>
+      <c r="Z326"/>
+    </row>
+    <row r="327" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A327" t="s">
         <v>733</v>
       </c>
@@ -14036,15 +14393,16 @@
       <c r="L327" s="1"/>
       <c r="M327" s="1"/>
       <c r="N327" s="1"/>
-      <c r="T327" t="s">
+      <c r="O327" s="1"/>
+      <c r="U327" t="s">
         <v>368</v>
       </c>
-      <c r="X327" s="4" t="s">
-        <v>570</v>
-      </c>
-      <c r="Y327"/>
-    </row>
-    <row r="328" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Y327" s="4" t="s">
+        <v>570</v>
+      </c>
+      <c r="Z327"/>
+    </row>
+    <row r="328" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A328" t="s">
         <v>733</v>
       </c>
@@ -14070,15 +14428,16 @@
       <c r="L328" s="1"/>
       <c r="M328" s="1"/>
       <c r="N328" s="1"/>
-      <c r="T328" t="s">
+      <c r="O328" s="1"/>
+      <c r="U328" t="s">
         <v>368</v>
       </c>
-      <c r="X328" s="4" t="s">
-        <v>570</v>
-      </c>
-      <c r="Y328"/>
-    </row>
-    <row r="329" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Y328" s="4" t="s">
+        <v>570</v>
+      </c>
+      <c r="Z328"/>
+    </row>
+    <row r="329" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A329" t="s">
         <v>733</v>
       </c>
@@ -14104,15 +14463,16 @@
       <c r="L329" s="1"/>
       <c r="M329" s="1"/>
       <c r="N329" s="1"/>
-      <c r="T329" t="s">
+      <c r="O329" s="1"/>
+      <c r="U329" t="s">
         <v>368</v>
       </c>
-      <c r="X329" s="4" t="s">
-        <v>570</v>
-      </c>
-      <c r="Y329"/>
-    </row>
-    <row r="330" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Y329" s="4" t="s">
+        <v>570</v>
+      </c>
+      <c r="Z329"/>
+    </row>
+    <row r="330" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A330" t="s">
         <v>733</v>
       </c>
@@ -14138,15 +14498,16 @@
       <c r="L330" s="1"/>
       <c r="M330" s="1"/>
       <c r="N330" s="1"/>
-      <c r="T330" t="s">
+      <c r="O330" s="1"/>
+      <c r="U330" t="s">
         <v>368</v>
       </c>
-      <c r="X330" s="4" t="s">
-        <v>570</v>
-      </c>
-      <c r="Y330"/>
-    </row>
-    <row r="331" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Y330" s="4" t="s">
+        <v>570</v>
+      </c>
+      <c r="Z330"/>
+    </row>
+    <row r="331" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A331" t="s">
         <v>733</v>
       </c>
@@ -14172,15 +14533,16 @@
       <c r="L331" s="1"/>
       <c r="M331" s="1"/>
       <c r="N331" s="1"/>
-      <c r="T331" t="s">
+      <c r="O331" s="1"/>
+      <c r="U331" t="s">
         <v>368</v>
       </c>
-      <c r="X331" s="4" t="s">
-        <v>570</v>
-      </c>
-      <c r="Y331"/>
-    </row>
-    <row r="332" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Y331" s="4" t="s">
+        <v>570</v>
+      </c>
+      <c r="Z331"/>
+    </row>
+    <row r="332" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A332" t="s">
         <v>733</v>
       </c>
@@ -14206,15 +14568,16 @@
       <c r="L332" s="1"/>
       <c r="M332" s="1"/>
       <c r="N332" s="1"/>
-      <c r="T332" t="s">
+      <c r="O332" s="1"/>
+      <c r="U332" t="s">
         <v>368</v>
       </c>
-      <c r="X332" s="4" t="s">
-        <v>570</v>
-      </c>
-      <c r="Y332"/>
-    </row>
-    <row r="333" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Y332" s="4" t="s">
+        <v>570</v>
+      </c>
+      <c r="Z332"/>
+    </row>
+    <row r="333" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A333" t="s">
         <v>733</v>
       </c>
@@ -14240,12 +14603,13 @@
       <c r="L333" s="1"/>
       <c r="M333" s="1"/>
       <c r="N333" s="1"/>
-      <c r="X333" s="4" t="s">
-        <v>570</v>
-      </c>
-      <c r="Y333"/>
-    </row>
-    <row r="334" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="O333" s="1"/>
+      <c r="Y333" s="4" t="s">
+        <v>570</v>
+      </c>
+      <c r="Z333"/>
+    </row>
+    <row r="334" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A334" t="s">
         <v>733</v>
       </c>
@@ -14271,15 +14635,16 @@
       <c r="L334" s="1"/>
       <c r="M334" s="1"/>
       <c r="N334" s="1"/>
-      <c r="T334" t="s">
+      <c r="O334" s="1"/>
+      <c r="U334" t="s">
         <v>516</v>
       </c>
-      <c r="X334" s="4" t="s">
-        <v>570</v>
-      </c>
-      <c r="Y334"/>
-    </row>
-    <row r="335" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Y334" s="4" t="s">
+        <v>570</v>
+      </c>
+      <c r="Z334"/>
+    </row>
+    <row r="335" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A335" t="s">
         <v>733</v>
       </c>
@@ -14305,15 +14670,16 @@
       <c r="L335" s="1"/>
       <c r="M335" s="1"/>
       <c r="N335" s="1"/>
-      <c r="T335" t="s">
+      <c r="O335" s="1"/>
+      <c r="U335" t="s">
         <v>435</v>
       </c>
-      <c r="X335" s="4" t="s">
-        <v>570</v>
-      </c>
-      <c r="Y335"/>
-    </row>
-    <row r="336" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Y335" s="4" t="s">
+        <v>570</v>
+      </c>
+      <c r="Z335"/>
+    </row>
+    <row r="336" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A336" t="s">
         <v>733</v>
       </c>
@@ -14342,15 +14708,16 @@
       <c r="L336" s="1"/>
       <c r="M336" s="1"/>
       <c r="N336" s="1"/>
-      <c r="T336" t="s">
+      <c r="O336" s="1"/>
+      <c r="U336" t="s">
         <v>364</v>
       </c>
-      <c r="X336" s="4" t="s">
-        <v>570</v>
-      </c>
-      <c r="Y336"/>
-    </row>
-    <row r="337" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Y336" s="4" t="s">
+        <v>570</v>
+      </c>
+      <c r="Z336"/>
+    </row>
+    <row r="337" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A337" t="s">
         <v>733</v>
       </c>
@@ -14369,12 +14736,12 @@
       <c r="L337">
         <v>1</v>
       </c>
-      <c r="X337" s="4" t="s">
-        <v>570</v>
-      </c>
-      <c r="Y337"/>
-    </row>
-    <row r="338" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Y337" s="4" t="s">
+        <v>570</v>
+      </c>
+      <c r="Z337"/>
+    </row>
+    <row r="338" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A338" t="s">
         <v>733</v>
       </c>
@@ -14400,18 +14767,19 @@
       <c r="L338" s="1"/>
       <c r="M338" s="1"/>
       <c r="N338" s="1"/>
-      <c r="O338" t="s">
+      <c r="O338" s="1"/>
+      <c r="P338" t="s">
         <v>576</v>
       </c>
-      <c r="Q338">
-        <v>1</v>
-      </c>
-      <c r="X338" s="4" t="s">
-        <v>570</v>
-      </c>
-      <c r="Y338"/>
-    </row>
-    <row r="339" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="R338">
+        <v>1</v>
+      </c>
+      <c r="Y338" s="4" t="s">
+        <v>570</v>
+      </c>
+      <c r="Z338"/>
+    </row>
+    <row r="339" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A339" t="s">
         <v>733</v>
       </c>
@@ -14437,12 +14805,13 @@
       <c r="L339" s="1"/>
       <c r="M339" s="1"/>
       <c r="N339" s="1"/>
-      <c r="X339" s="4" t="s">
-        <v>570</v>
-      </c>
-      <c r="Y339"/>
-    </row>
-    <row r="340" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="O339" s="1"/>
+      <c r="Y339" s="4" t="s">
+        <v>570</v>
+      </c>
+      <c r="Z339"/>
+    </row>
+    <row r="340" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A340" t="s">
         <v>733</v>
       </c>
@@ -14468,12 +14837,13 @@
       <c r="L340" s="1"/>
       <c r="M340" s="1"/>
       <c r="N340" s="1"/>
-      <c r="X340" s="4" t="s">
-        <v>570</v>
-      </c>
-      <c r="Y340"/>
-    </row>
-    <row r="341" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="O340" s="1"/>
+      <c r="Y340" s="4" t="s">
+        <v>570</v>
+      </c>
+      <c r="Z340"/>
+    </row>
+    <row r="341" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A341" t="s">
         <v>733</v>
       </c>
@@ -14499,15 +14869,16 @@
       <c r="L341" s="1"/>
       <c r="M341" s="1"/>
       <c r="N341" s="1"/>
-      <c r="T341" t="s">
+      <c r="O341" s="1"/>
+      <c r="U341" t="s">
         <v>471</v>
       </c>
-      <c r="X341" s="4" t="s">
-        <v>570</v>
-      </c>
-      <c r="Y341"/>
-    </row>
-    <row r="342" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Y341" s="4" t="s">
+        <v>570</v>
+      </c>
+      <c r="Z341"/>
+    </row>
+    <row r="342" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A342" t="s">
         <v>733</v>
       </c>
@@ -14533,12 +14904,13 @@
       <c r="L342" s="1"/>
       <c r="M342" s="1"/>
       <c r="N342" s="1"/>
-      <c r="X342" s="4" t="s">
-        <v>570</v>
-      </c>
-      <c r="Y342"/>
-    </row>
-    <row r="343" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="O342" s="1"/>
+      <c r="Y342" s="4" t="s">
+        <v>570</v>
+      </c>
+      <c r="Z342"/>
+    </row>
+    <row r="343" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A343" t="s">
         <v>733</v>
       </c>
@@ -14564,12 +14936,13 @@
       <c r="L343" s="1"/>
       <c r="M343" s="1"/>
       <c r="N343" s="1"/>
-      <c r="X343" s="4" t="s">
-        <v>570</v>
-      </c>
-      <c r="Y343"/>
-    </row>
-    <row r="344" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="O343" s="1"/>
+      <c r="Y343" s="4" t="s">
+        <v>570</v>
+      </c>
+      <c r="Z343"/>
+    </row>
+    <row r="344" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A344" t="s">
         <v>733</v>
       </c>
@@ -14595,12 +14968,13 @@
       <c r="L344" s="1"/>
       <c r="M344" s="1"/>
       <c r="N344" s="1"/>
-      <c r="X344" s="4" t="s">
-        <v>570</v>
-      </c>
-      <c r="Y344"/>
-    </row>
-    <row r="345" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="O344" s="1"/>
+      <c r="Y344" s="4" t="s">
+        <v>570</v>
+      </c>
+      <c r="Z344"/>
+    </row>
+    <row r="345" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A345" t="s">
         <v>733</v>
       </c>
@@ -14626,12 +15000,13 @@
       <c r="L345" s="1"/>
       <c r="M345" s="1"/>
       <c r="N345" s="1"/>
-      <c r="X345" s="4" t="s">
-        <v>570</v>
-      </c>
-      <c r="Y345"/>
-    </row>
-    <row r="346" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="O345" s="1"/>
+      <c r="Y345" s="4" t="s">
+        <v>570</v>
+      </c>
+      <c r="Z345"/>
+    </row>
+    <row r="346" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A346" t="s">
         <v>733</v>
       </c>
@@ -14650,12 +15025,12 @@
       <c r="M346">
         <v>1</v>
       </c>
-      <c r="X346" s="4" t="s">
-        <v>570</v>
-      </c>
-      <c r="Y346"/>
-    </row>
-    <row r="347" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Y346" s="4" t="s">
+        <v>570</v>
+      </c>
+      <c r="Z346"/>
+    </row>
+    <row r="347" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A347" s="25" t="s">
         <v>734</v>
       </c>
@@ -14681,24 +15056,25 @@
       <c r="K347" s="28"/>
       <c r="L347" s="27"/>
       <c r="M347" s="27"/>
-      <c r="N347" s="28"/>
-      <c r="O347" s="25"/>
+      <c r="N347" s="27"/>
+      <c r="O347" s="28"/>
       <c r="P347" s="25"/>
       <c r="Q347" s="25"/>
       <c r="R347" s="25"/>
       <c r="S347" s="25"/>
-      <c r="T347" s="32" t="s">
+      <c r="T347" s="25"/>
+      <c r="U347" s="32" t="s">
         <v>762</v>
       </c>
-      <c r="U347" s="25"/>
       <c r="V347" s="25"/>
       <c r="W347" s="25"/>
-      <c r="X347" s="4" t="s">
-        <v>570</v>
-      </c>
-      <c r="Y347"/>
-    </row>
-    <row r="348" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="X347" s="25"/>
+      <c r="Y347" s="4" t="s">
+        <v>570</v>
+      </c>
+      <c r="Z347"/>
+    </row>
+    <row r="348" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A348" t="s">
         <v>733</v>
       </c>
@@ -14721,12 +15097,12 @@
       <c r="I348" s="1"/>
       <c r="J348" s="1"/>
       <c r="K348" s="1"/>
-      <c r="X348" s="4" t="s">
-        <v>570</v>
-      </c>
-      <c r="Y348"/>
-    </row>
-    <row r="349" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Y348" s="4" t="s">
+        <v>570</v>
+      </c>
+      <c r="Z348"/>
+    </row>
+    <row r="349" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A349" t="s">
         <v>733</v>
       </c>
@@ -14752,12 +15128,13 @@
       <c r="L349" s="1"/>
       <c r="M349" s="1"/>
       <c r="N349" s="1"/>
-      <c r="X349" s="4" t="s">
-        <v>570</v>
-      </c>
-      <c r="Y349"/>
-    </row>
-    <row r="350" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="O349" s="1"/>
+      <c r="Y349" s="4" t="s">
+        <v>570</v>
+      </c>
+      <c r="Z349"/>
+    </row>
+    <row r="350" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A350" t="s">
         <v>733</v>
       </c>
@@ -14786,15 +15163,16 @@
       <c r="L350" s="1"/>
       <c r="M350" s="1"/>
       <c r="N350" s="1"/>
-      <c r="T350" s="2" t="s">
+      <c r="O350" s="1"/>
+      <c r="U350" s="2" t="s">
         <v>349</v>
       </c>
-      <c r="X350" s="4" t="s">
-        <v>570</v>
-      </c>
-      <c r="Y350"/>
-    </row>
-    <row r="351" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Y350" s="4" t="s">
+        <v>570</v>
+      </c>
+      <c r="Z350"/>
+    </row>
+    <row r="351" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A351" t="s">
         <v>733</v>
       </c>
@@ -14813,15 +15191,15 @@
       <c r="I351">
         <v>1</v>
       </c>
-      <c r="T351" t="s">
+      <c r="U351" t="s">
         <v>352</v>
       </c>
-      <c r="X351" s="4" t="s">
-        <v>570</v>
-      </c>
-      <c r="Y351"/>
-    </row>
-    <row r="352" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Y351" s="4" t="s">
+        <v>570</v>
+      </c>
+      <c r="Z351"/>
+    </row>
+    <row r="352" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A352" t="s">
         <v>733</v>
       </c>
@@ -14847,12 +15225,13 @@
       <c r="L352" s="1"/>
       <c r="M352" s="1"/>
       <c r="N352" s="1"/>
-      <c r="X352" s="4" t="s">
-        <v>570</v>
-      </c>
-      <c r="Y352"/>
-    </row>
-    <row r="353" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="O352" s="1"/>
+      <c r="Y352" s="4" t="s">
+        <v>570</v>
+      </c>
+      <c r="Z352"/>
+    </row>
+    <row r="353" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A353" t="s">
         <v>733</v>
       </c>
@@ -14878,12 +15257,13 @@
       </c>
       <c r="M353" s="1"/>
       <c r="N353" s="1"/>
-      <c r="X353" s="4" t="s">
-        <v>570</v>
-      </c>
-      <c r="Y353"/>
-    </row>
-    <row r="354" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="O353" s="1"/>
+      <c r="Y353" s="4" t="s">
+        <v>570</v>
+      </c>
+      <c r="Z353"/>
+    </row>
+    <row r="354" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A354" t="s">
         <v>733</v>
       </c>
@@ -14909,12 +15289,13 @@
       </c>
       <c r="M354" s="1"/>
       <c r="N354" s="1"/>
-      <c r="X354" s="4" t="s">
-        <v>570</v>
-      </c>
-      <c r="Y354"/>
-    </row>
-    <row r="355" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="O354" s="1"/>
+      <c r="Y354" s="4" t="s">
+        <v>570</v>
+      </c>
+      <c r="Z354"/>
+    </row>
+    <row r="355" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A355" t="s">
         <v>733</v>
       </c>
@@ -14940,12 +15321,13 @@
       <c r="L355" s="1"/>
       <c r="M355" s="1"/>
       <c r="N355" s="1"/>
-      <c r="X355" s="4" t="s">
-        <v>570</v>
-      </c>
-      <c r="Y355"/>
-    </row>
-    <row r="356" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="O355" s="1"/>
+      <c r="Y355" s="4" t="s">
+        <v>570</v>
+      </c>
+      <c r="Z355"/>
+    </row>
+    <row r="356" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A356" t="s">
         <v>733</v>
       </c>
@@ -14971,12 +15353,13 @@
       <c r="L356" s="1"/>
       <c r="M356" s="1"/>
       <c r="N356" s="1"/>
-      <c r="X356" s="4" t="s">
-        <v>570</v>
-      </c>
-      <c r="Y356"/>
-    </row>
-    <row r="357" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="O356" s="1"/>
+      <c r="Y356" s="4" t="s">
+        <v>570</v>
+      </c>
+      <c r="Z356"/>
+    </row>
+    <row r="357" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A357" t="s">
         <v>733</v>
       </c>
@@ -15001,13 +15384,16 @@
       <c r="K357" s="1"/>
       <c r="L357" s="1"/>
       <c r="M357" s="1"/>
-      <c r="N357" s="1"/>
-      <c r="X357" s="4" t="s">
-        <v>570</v>
-      </c>
-      <c r="Y357"/>
-    </row>
-    <row r="358" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="N357" s="1">
+        <v>1</v>
+      </c>
+      <c r="O357" s="1"/>
+      <c r="Y357" s="4" t="s">
+        <v>570</v>
+      </c>
+      <c r="Z357"/>
+    </row>
+    <row r="358" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A358" t="s">
         <v>733</v>
       </c>
@@ -15030,21 +15416,22 @@
       <c r="K358" s="1"/>
       <c r="L358" s="1"/>
       <c r="M358" s="1"/>
-      <c r="N358" s="1">
-        <v>1</v>
-      </c>
-      <c r="R358" t="s">
+      <c r="N358" s="1"/>
+      <c r="O358" s="1">
+        <v>1</v>
+      </c>
+      <c r="S358" t="s">
         <v>569</v>
       </c>
-      <c r="S358" t="s">
+      <c r="T358" t="s">
         <v>562</v>
       </c>
-      <c r="X358" s="4" t="s">
-        <v>570</v>
-      </c>
-      <c r="Y358"/>
-    </row>
-    <row r="359" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Y358" s="4" t="s">
+        <v>570</v>
+      </c>
+      <c r="Z358"/>
+    </row>
+    <row r="359" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A359" t="s">
         <v>733</v>
       </c>
@@ -15067,21 +15454,22 @@
       <c r="K359" s="1"/>
       <c r="L359" s="1"/>
       <c r="M359" s="1"/>
-      <c r="N359" s="1">
-        <v>1</v>
-      </c>
-      <c r="R359" t="s">
+      <c r="N359" s="1"/>
+      <c r="O359" s="1">
+        <v>1</v>
+      </c>
+      <c r="S359" t="s">
         <v>569</v>
       </c>
-      <c r="S359" t="s">
+      <c r="T359" t="s">
         <v>562</v>
       </c>
-      <c r="X359" s="4" t="s">
-        <v>570</v>
-      </c>
-      <c r="Y359"/>
-    </row>
-    <row r="360" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Y359" s="4" t="s">
+        <v>570</v>
+      </c>
+      <c r="Z359"/>
+    </row>
+    <row r="360" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A360" t="s">
         <v>733</v>
       </c>
@@ -15107,12 +15495,13 @@
       <c r="L360" s="1"/>
       <c r="M360" s="1"/>
       <c r="N360" s="1"/>
-      <c r="X360" s="4" t="s">
-        <v>570</v>
-      </c>
-      <c r="Y360"/>
-    </row>
-    <row r="361" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="O360" s="1"/>
+      <c r="Y360" s="4" t="s">
+        <v>570</v>
+      </c>
+      <c r="Z360"/>
+    </row>
+    <row r="361" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A361" t="s">
         <v>733</v>
       </c>
@@ -15138,12 +15527,13 @@
       <c r="L361" s="1"/>
       <c r="M361" s="1"/>
       <c r="N361" s="1"/>
-      <c r="X361" s="4" t="s">
-        <v>570</v>
-      </c>
-      <c r="Y361"/>
-    </row>
-    <row r="362" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="O361" s="1"/>
+      <c r="Y361" s="4" t="s">
+        <v>570</v>
+      </c>
+      <c r="Z361"/>
+    </row>
+    <row r="362" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A362" t="s">
         <v>733</v>
       </c>
@@ -15169,12 +15559,13 @@
       <c r="L362" s="1"/>
       <c r="M362" s="1"/>
       <c r="N362" s="1"/>
-      <c r="X362" s="4" t="s">
-        <v>570</v>
-      </c>
-      <c r="Y362"/>
-    </row>
-    <row r="363" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="O362" s="1"/>
+      <c r="Y362" s="4" t="s">
+        <v>570</v>
+      </c>
+      <c r="Z362"/>
+    </row>
+    <row r="363" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A363" t="s">
         <v>733</v>
       </c>
@@ -15200,12 +15591,13 @@
       <c r="L363" s="1"/>
       <c r="M363" s="1"/>
       <c r="N363" s="1"/>
-      <c r="X363" s="4" t="s">
-        <v>570</v>
-      </c>
-      <c r="Y363"/>
-    </row>
-    <row r="364" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="O363" s="1"/>
+      <c r="Y363" s="4" t="s">
+        <v>570</v>
+      </c>
+      <c r="Z363"/>
+    </row>
+    <row r="364" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A364" t="s">
         <v>733</v>
       </c>
@@ -15231,12 +15623,13 @@
       <c r="L364" s="1"/>
       <c r="M364" s="1"/>
       <c r="N364" s="1"/>
-      <c r="X364" s="4" t="s">
-        <v>570</v>
-      </c>
-      <c r="Y364"/>
-    </row>
-    <row r="365" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="O364" s="1"/>
+      <c r="Y364" s="4" t="s">
+        <v>570</v>
+      </c>
+      <c r="Z364"/>
+    </row>
+    <row r="365" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A365" t="s">
         <v>733</v>
       </c>
@@ -15262,12 +15655,13 @@
       </c>
       <c r="M365" s="1"/>
       <c r="N365" s="1"/>
-      <c r="X365" s="4" t="s">
-        <v>570</v>
-      </c>
-      <c r="Y365"/>
-    </row>
-    <row r="366" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="O365" s="1"/>
+      <c r="Y365" s="4" t="s">
+        <v>570</v>
+      </c>
+      <c r="Z365"/>
+    </row>
+    <row r="366" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A366" t="s">
         <v>733</v>
       </c>
@@ -15293,12 +15687,13 @@
       <c r="L366" s="1"/>
       <c r="M366" s="1"/>
       <c r="N366" s="1"/>
-      <c r="X366" s="4" t="s">
-        <v>570</v>
-      </c>
-      <c r="Y366"/>
-    </row>
-    <row r="367" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="O366" s="1"/>
+      <c r="Y366" s="4" t="s">
+        <v>570</v>
+      </c>
+      <c r="Z366"/>
+    </row>
+    <row r="367" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A367" t="s">
         <v>733</v>
       </c>
@@ -15325,12 +15720,13 @@
       <c r="L367" s="1"/>
       <c r="M367" s="1"/>
       <c r="N367" s="1"/>
-      <c r="X367" s="4" t="s">
-        <v>570</v>
-      </c>
-      <c r="Y367"/>
-    </row>
-    <row r="368" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="O367" s="1"/>
+      <c r="Y367" s="4" t="s">
+        <v>570</v>
+      </c>
+      <c r="Z367"/>
+    </row>
+    <row r="368" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A368" t="s">
         <v>733</v>
       </c>
@@ -15356,12 +15752,13 @@
       <c r="L368" s="1"/>
       <c r="M368" s="1"/>
       <c r="N368" s="1"/>
-      <c r="X368" s="4" t="s">
-        <v>570</v>
-      </c>
-      <c r="Y368"/>
-    </row>
-    <row r="369" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="O368" s="1"/>
+      <c r="Y368" s="4" t="s">
+        <v>570</v>
+      </c>
+      <c r="Z368"/>
+    </row>
+    <row r="369" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A369" t="s">
         <v>733</v>
       </c>
@@ -15392,20 +15789,21 @@
       <c r="L369" s="1"/>
       <c r="M369" s="1"/>
       <c r="N369" s="1"/>
-      <c r="T369" s="2" t="s">
+      <c r="O369" s="1"/>
+      <c r="U369" s="2" t="s">
         <v>380</v>
       </c>
-      <c r="U369" s="2" t="s">
+      <c r="V369" s="2" t="s">
         <v>346</v>
       </c>
-      <c r="V369" s="2"/>
       <c r="W369" s="2"/>
-      <c r="X369" s="4" t="s">
-        <v>570</v>
-      </c>
-      <c r="Y369"/>
-    </row>
-    <row r="370" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="X369" s="2"/>
+      <c r="Y369" s="4" t="s">
+        <v>570</v>
+      </c>
+      <c r="Z369"/>
+    </row>
+    <row r="370" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A370" t="s">
         <v>733</v>
       </c>
@@ -15431,15 +15829,16 @@
       <c r="L370" s="1"/>
       <c r="M370" s="1"/>
       <c r="N370" s="1"/>
-      <c r="T370" t="s">
+      <c r="O370" s="1"/>
+      <c r="U370" t="s">
         <v>526</v>
       </c>
-      <c r="X370" s="4" t="s">
-        <v>570</v>
-      </c>
-      <c r="Y370"/>
-    </row>
-    <row r="371" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Y370" s="4" t="s">
+        <v>570</v>
+      </c>
+      <c r="Z370"/>
+    </row>
+    <row r="371" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A371" t="s">
         <v>733</v>
       </c>
@@ -15465,12 +15864,13 @@
       <c r="L371" s="1"/>
       <c r="M371" s="1"/>
       <c r="N371" s="1"/>
-      <c r="X371" s="4" t="s">
-        <v>570</v>
-      </c>
-      <c r="Y371"/>
-    </row>
-    <row r="372" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="O371" s="1"/>
+      <c r="Y371" s="4" t="s">
+        <v>570</v>
+      </c>
+      <c r="Z371"/>
+    </row>
+    <row r="372" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A372" t="s">
         <v>733</v>
       </c>
@@ -15496,12 +15896,13 @@
       <c r="L372" s="1"/>
       <c r="M372" s="1"/>
       <c r="N372" s="1"/>
-      <c r="X372" s="4" t="s">
-        <v>570</v>
-      </c>
-      <c r="Y372"/>
-    </row>
-    <row r="373" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="O372" s="1"/>
+      <c r="Y372" s="4" t="s">
+        <v>570</v>
+      </c>
+      <c r="Z372"/>
+    </row>
+    <row r="373" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A373" t="s">
         <v>733</v>
       </c>
@@ -15527,18 +15928,19 @@
       <c r="L373" s="1"/>
       <c r="M373" s="1"/>
       <c r="N373" s="1"/>
-      <c r="O373" t="s">
+      <c r="O373" s="1"/>
+      <c r="P373" t="s">
         <v>576</v>
       </c>
-      <c r="Q373">
+      <c r="R373">
         <v>2</v>
       </c>
-      <c r="X373" s="4" t="s">
-        <v>570</v>
-      </c>
-      <c r="Y373"/>
-    </row>
-    <row r="374" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Y373" s="4" t="s">
+        <v>570</v>
+      </c>
+      <c r="Z373"/>
+    </row>
+    <row r="374" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A374" t="s">
         <v>733</v>
       </c>
@@ -15564,12 +15966,13 @@
       </c>
       <c r="M374" s="1"/>
       <c r="N374" s="1"/>
-      <c r="X374" s="4" t="s">
-        <v>570</v>
-      </c>
-      <c r="Y374"/>
-    </row>
-    <row r="375" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="O374" s="1"/>
+      <c r="Y374" s="4" t="s">
+        <v>570</v>
+      </c>
+      <c r="Z374"/>
+    </row>
+    <row r="375" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A375" t="s">
         <v>733</v>
       </c>
@@ -15595,13 +15998,16 @@
       <c r="K375" s="1"/>
       <c r="L375" s="1"/>
       <c r="M375" s="1"/>
-      <c r="N375" s="1"/>
-      <c r="X375" s="4" t="s">
-        <v>570</v>
-      </c>
-      <c r="Y375"/>
-    </row>
-    <row r="376" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="N375" s="1">
+        <v>1</v>
+      </c>
+      <c r="O375" s="1"/>
+      <c r="Y375" s="4" t="s">
+        <v>570</v>
+      </c>
+      <c r="Z375"/>
+    </row>
+    <row r="376" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A376" t="s">
         <v>733</v>
       </c>
@@ -15630,12 +16036,13 @@
       </c>
       <c r="M376" s="1"/>
       <c r="N376" s="1"/>
-      <c r="X376" s="4" t="s">
-        <v>570</v>
-      </c>
-      <c r="Y376"/>
-    </row>
-    <row r="377" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="O376" s="1"/>
+      <c r="Y376" s="4" t="s">
+        <v>570</v>
+      </c>
+      <c r="Z376"/>
+    </row>
+    <row r="377" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A377" t="s">
         <v>733</v>
       </c>
@@ -15664,12 +16071,13 @@
       </c>
       <c r="M377" s="1"/>
       <c r="N377" s="1"/>
-      <c r="X377" s="4" t="s">
-        <v>570</v>
-      </c>
-      <c r="Y377"/>
-    </row>
-    <row r="378" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="O377" s="1"/>
+      <c r="Y377" s="4" t="s">
+        <v>570</v>
+      </c>
+      <c r="Z377"/>
+    </row>
+    <row r="378" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A378" t="s">
         <v>733</v>
       </c>
@@ -15695,12 +16103,13 @@
       <c r="L378" s="1"/>
       <c r="M378" s="1"/>
       <c r="N378" s="1"/>
-      <c r="X378" s="4" t="s">
-        <v>570</v>
-      </c>
-      <c r="Y378"/>
-    </row>
-    <row r="379" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="O378" s="1"/>
+      <c r="Y378" s="4" t="s">
+        <v>570</v>
+      </c>
+      <c r="Z378"/>
+    </row>
+    <row r="379" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A379" t="s">
         <v>733</v>
       </c>
@@ -15719,12 +16128,15 @@
       <c r="H379">
         <v>1</v>
       </c>
-      <c r="X379" s="4" t="s">
-        <v>570</v>
-      </c>
-      <c r="Y379"/>
-    </row>
-    <row r="380" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="N379">
+        <v>1</v>
+      </c>
+      <c r="Y379" s="4" t="s">
+        <v>570</v>
+      </c>
+      <c r="Z379"/>
+    </row>
+    <row r="380" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A380" t="s">
         <v>733</v>
       </c>
@@ -15750,12 +16162,13 @@
       </c>
       <c r="M380" s="1"/>
       <c r="N380" s="1"/>
-      <c r="X380" s="4" t="s">
-        <v>570</v>
-      </c>
-      <c r="Y380"/>
-    </row>
-    <row r="381" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="O380" s="1"/>
+      <c r="Y380" s="4" t="s">
+        <v>570</v>
+      </c>
+      <c r="Z380"/>
+    </row>
+    <row r="381" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A381" t="s">
         <v>733</v>
       </c>
@@ -15781,12 +16194,13 @@
       <c r="L381" s="1"/>
       <c r="M381" s="1"/>
       <c r="N381" s="1"/>
-      <c r="X381" s="4" t="s">
-        <v>570</v>
-      </c>
-      <c r="Y381"/>
-    </row>
-    <row r="382" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="O381" s="1"/>
+      <c r="Y381" s="4" t="s">
+        <v>570</v>
+      </c>
+      <c r="Z381"/>
+    </row>
+    <row r="382" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A382" t="s">
         <v>733</v>
       </c>
@@ -15814,18 +16228,19 @@
         <v>1</v>
       </c>
       <c r="N382" s="1"/>
-      <c r="O382" t="s">
+      <c r="O382" s="1"/>
+      <c r="P382" t="s">
         <v>576</v>
       </c>
-      <c r="Q382">
-        <v>1</v>
-      </c>
-      <c r="X382" s="4" t="s">
-        <v>570</v>
-      </c>
-      <c r="Y382"/>
-    </row>
-    <row r="383" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="R382">
+        <v>1</v>
+      </c>
+      <c r="Y382" s="4" t="s">
+        <v>570</v>
+      </c>
+      <c r="Z382"/>
+    </row>
+    <row r="383" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A383" t="s">
         <v>733</v>
       </c>
@@ -15844,13 +16259,13 @@
       <c r="H383">
         <v>1</v>
       </c>
-      <c r="X383" s="4" t="s">
-        <v>570</v>
-      </c>
-      <c r="Y383"/>
+      <c r="Y383" s="4" t="s">
+        <v>570</v>
+      </c>
+      <c r="Z383"/>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A1:X229">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A1:Y229">
     <sortCondition descending="1" ref="G1:G229"/>
     <sortCondition ref="A1:A229"/>
   </sortState>

--- a/doompy/files/cards.xlsx
+++ b/doompy/files/cards.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10114"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10211"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/azabicki/Sync/Projects/DoomPy/doompy/files/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A0CE6AC9-2CF3-2446-A79E-BDF8F2823E2D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A30E8CEB-303A-AA41-A675-8B90EFCC747B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7600" yWindow="500" windowWidth="36000" windowHeight="20200" xr2:uid="{FFCA0E03-569E-F44B-8E00-2A40D4903513}"/>
+    <workbookView xWindow="0" yWindow="880" windowWidth="36000" windowHeight="20200" xr2:uid="{FFCA0E03-569E-F44B-8E00-2A40D4903513}"/>
   </bookViews>
   <sheets>
     <sheet name="traits" sheetId="1" r:id="rId1"/>
@@ -3263,9 +3263,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B7AE435C-BBFF-4D4C-B457-AFC1FAEE6491}">
   <dimension ref="A1:Z338"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A83" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
       <pane xSplit="2" topLeftCell="C1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="A284" sqref="A284"/>
+      <selection pane="topRight" activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -4323,7 +4323,7 @@
     </row>
     <row r="31" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>732</v>
+        <v>731</v>
       </c>
       <c r="B31" t="s">
         <v>753</v>
@@ -4722,7 +4722,7 @@
     </row>
     <row r="43" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
-        <v>732</v>
+        <v>731</v>
       </c>
       <c r="B43" t="s">
         <v>90</v>
@@ -5040,7 +5040,7 @@
     </row>
     <row r="52" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
-        <v>732</v>
+        <v>731</v>
       </c>
       <c r="B52" t="s">
         <v>743</v>
@@ -5402,7 +5402,7 @@
     </row>
     <row r="63" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
-        <v>732</v>
+        <v>731</v>
       </c>
       <c r="B63" t="s">
         <v>744</v>
@@ -7407,7 +7407,7 @@
     </row>
     <row r="125" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A125" t="s">
-        <v>732</v>
+        <v>731</v>
       </c>
       <c r="B125" t="s">
         <v>763</v>
@@ -7611,7 +7611,7 @@
     </row>
     <row r="131" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A131" t="s">
-        <v>732</v>
+        <v>731</v>
       </c>
       <c r="B131" t="s">
         <v>745</v>
@@ -8149,7 +8149,7 @@
     </row>
     <row r="147" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A147" t="s">
-        <v>732</v>
+        <v>731</v>
       </c>
       <c r="B147" t="s">
         <v>747</v>
@@ -8184,7 +8184,7 @@
     </row>
     <row r="148" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A148" t="s">
-        <v>732</v>
+        <v>731</v>
       </c>
       <c r="B148" t="s">
         <v>748</v>
@@ -8882,7 +8882,7 @@
     </row>
     <row r="168" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A168" t="s">
-        <v>732</v>
+        <v>731</v>
       </c>
       <c r="B168" t="s">
         <v>749</v>
@@ -9051,7 +9051,7 @@
     </row>
     <row r="173" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A173" t="s">
-        <v>732</v>
+        <v>731</v>
       </c>
       <c r="B173" t="s">
         <v>764</v>
@@ -9456,7 +9456,7 @@
     </row>
     <row r="185" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A185" t="s">
-        <v>732</v>
+        <v>731</v>
       </c>
       <c r="B185" t="s">
         <v>755</v>
@@ -11019,7 +11019,7 @@
     </row>
     <row r="232" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A232" t="s">
-        <v>732</v>
+        <v>731</v>
       </c>
       <c r="B232" t="s">
         <v>750</v>
@@ -11882,7 +11882,7 @@
     </row>
     <row r="258" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A258" t="s">
-        <v>732</v>
+        <v>731</v>
       </c>
       <c r="B258" t="s">
         <v>757</v>
@@ -12335,7 +12335,7 @@
     </row>
     <row r="271" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A271" t="s">
-        <v>732</v>
+        <v>731</v>
       </c>
       <c r="B271" t="s">
         <v>751</v>
@@ -12778,7 +12778,7 @@
     </row>
     <row r="284" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A284" t="s">
-        <v>732</v>
+        <v>731</v>
       </c>
       <c r="B284" t="s">
         <v>752</v>
@@ -13492,7 +13492,7 @@
     </row>
     <row r="305" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A305" t="s">
-        <v>732</v>
+        <v>731</v>
       </c>
       <c r="B305" t="s">
         <v>756</v>

--- a/doompy/files/cards.xlsx
+++ b/doompy/files/cards.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10211"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10311"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/azabicki/Sync/Projects/DoomPy/doompy/files/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A30E8CEB-303A-AA41-A675-8B90EFCC747B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DC735BB4-0B2F-8248-974F-2F3AC07AF1E2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="880" windowWidth="36000" windowHeight="20200" xr2:uid="{FFCA0E03-569E-F44B-8E00-2A40D4903513}"/>
   </bookViews>
@@ -3263,9 +3263,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B7AE435C-BBFF-4D4C-B457-AFC1FAEE6491}">
   <dimension ref="A1:Z338"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A281" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
       <pane xSplit="2" topLeftCell="C1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="B16" sqref="B16"/>
+      <selection pane="topRight" activeCell="E304" sqref="E304"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -13474,7 +13474,7 @@
         <v>149</v>
       </c>
       <c r="C304">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D304" s="10" t="s">
         <v>1</v>
